--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20659,6 +20659,90 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="n">
+        <v>564.1633333333334</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:58+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>350.765</v>
+      </c>
+      <c r="D411" t="n">
+        <v>348.1451612903226</v>
+      </c>
+      <c r="E411" t="n">
+        <v>341.07</v>
+      </c>
+      <c r="F411" t="n">
+        <v>342.3852380952381</v>
+      </c>
+      <c r="G411" t="n">
+        <v>342.72</v>
+      </c>
+      <c r="H411" t="n">
+        <v>341.0066666666667</v>
+      </c>
+      <c r="I411" t="n">
+        <v>340.33</v>
+      </c>
+      <c r="J411" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="K411" t="n">
+        <v>363.1228571428572</v>
+      </c>
+      <c r="L411" t="n">
+        <v>363.0566666666667</v>
+      </c>
+      <c r="M411" t="n">
+        <v>373.5028571428572</v>
+      </c>
+      <c r="N411" t="n">
+        <v>520.9857142857144</v>
+      </c>
+      <c r="O411" t="n">
+        <v>567.2566666666667</v>
+      </c>
+      <c r="P411" t="n">
+        <v>546.0033333333333</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20670,7 +20754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25468,6 +25552,26 @@
       </c>
       <c r="B479" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -25633,7 +25737,7 @@
         <v>0.3707590273776822</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
         <v>286</v>
@@ -25707,28 +25811,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3203028595479094</v>
+        <v>-0.2988680976002251</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01179419805517201</v>
+        <v>0.01027111403695058</v>
       </c>
       <c r="M3" t="n">
-        <v>15.31590144415546</v>
+        <v>15.35641288956601</v>
       </c>
       <c r="N3" t="n">
-        <v>348.081961742626</v>
+        <v>349.6602028833731</v>
       </c>
       <c r="O3" t="n">
-        <v>18.65695478213489</v>
+        <v>18.69920326867894</v>
       </c>
       <c r="P3" t="n">
-        <v>330.3926484749804</v>
+        <v>330.1348016937097</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25784,28 +25888,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.07595441368364414</v>
+        <v>-0.05679995836994466</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006108138329448121</v>
+        <v>0.0003415456456649091</v>
       </c>
       <c r="M4" t="n">
-        <v>16.37108858802834</v>
+        <v>16.39131555862127</v>
       </c>
       <c r="N4" t="n">
-        <v>377.5198945212431</v>
+        <v>378.73317710026</v>
       </c>
       <c r="O4" t="n">
-        <v>19.42987119157621</v>
+        <v>19.46106824149846</v>
       </c>
       <c r="P4" t="n">
-        <v>322.4776169340119</v>
+        <v>322.2443042758741</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25861,28 +25965,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09540659846960185</v>
+        <v>0.102900741273583</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001267633156760817</v>
+        <v>0.001481227321400769</v>
       </c>
       <c r="M5" t="n">
-        <v>14.53545554697616</v>
+        <v>14.51808470215935</v>
       </c>
       <c r="N5" t="n">
-        <v>297.1886998313099</v>
+        <v>296.635661751702</v>
       </c>
       <c r="O5" t="n">
-        <v>17.23916180767818</v>
+        <v>17.22311417112777</v>
       </c>
       <c r="P5" t="n">
-        <v>327.5243434869168</v>
+        <v>327.4349932215886</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25938,28 +26042,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1710522190211344</v>
+        <v>0.1794656926575705</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004197327441492482</v>
+        <v>0.004636574101613</v>
       </c>
       <c r="M6" t="n">
-        <v>14.37786392456545</v>
+        <v>14.36696627981446</v>
       </c>
       <c r="N6" t="n">
-        <v>290.7346971487636</v>
+        <v>290.3411364910894</v>
       </c>
       <c r="O6" t="n">
-        <v>17.05094417176842</v>
+        <v>17.03939953434655</v>
       </c>
       <c r="P6" t="n">
-        <v>325.1188326498377</v>
+        <v>325.018458031424</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26015,28 +26119,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.374973536467442</v>
+        <v>0.3839485858805077</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02554176301150035</v>
+        <v>0.02683079651114184</v>
       </c>
       <c r="M7" t="n">
-        <v>12.35372014167111</v>
+        <v>12.35643360093651</v>
       </c>
       <c r="N7" t="n">
-        <v>229.069463500948</v>
+        <v>228.9455542517011</v>
       </c>
       <c r="O7" t="n">
-        <v>15.13504091507347</v>
+        <v>15.13094690532291</v>
       </c>
       <c r="P7" t="n">
-        <v>319.3491816243924</v>
+        <v>319.2437504351052</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26092,28 +26196,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.616726903762673</v>
+        <v>0.6219994646667818</v>
       </c>
       <c r="J8" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05631685335539915</v>
+        <v>0.0575132291124596</v>
       </c>
       <c r="M8" t="n">
-        <v>13.00742864436824</v>
+        <v>12.98803666866647</v>
       </c>
       <c r="N8" t="n">
-        <v>275.5776169006376</v>
+        <v>274.8716045753048</v>
       </c>
       <c r="O8" t="n">
-        <v>16.60053062105659</v>
+        <v>16.57925223209131</v>
       </c>
       <c r="P8" t="n">
-        <v>317.4551113913594</v>
+        <v>317.3933336110107</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -26169,28 +26273,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1925738288506197</v>
+        <v>0.205318858812332</v>
       </c>
       <c r="J9" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K9" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002764468466194714</v>
+        <v>0.003153516339472917</v>
       </c>
       <c r="M9" t="n">
-        <v>20.5104022588524</v>
+        <v>20.49790120730051</v>
       </c>
       <c r="N9" t="n">
-        <v>589.9568201346494</v>
+        <v>589.2090256441149</v>
       </c>
       <c r="O9" t="n">
-        <v>24.28902674325691</v>
+        <v>24.27362819283749</v>
       </c>
       <c r="P9" t="n">
-        <v>316.2545810380503</v>
+        <v>316.1065852462103</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -26246,28 +26350,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.4155107221610241</v>
+        <v>-0.384326594510061</v>
       </c>
       <c r="J10" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01175675748612659</v>
+        <v>0.01002177763045431</v>
       </c>
       <c r="M10" t="n">
-        <v>20.15968462485863</v>
+        <v>20.21546103620683</v>
       </c>
       <c r="N10" t="n">
-        <v>626.5920959779197</v>
+        <v>631.6161131357311</v>
       </c>
       <c r="O10" t="n">
-        <v>25.03182166718834</v>
+        <v>25.1319739204013</v>
       </c>
       <c r="P10" t="n">
-        <v>328.2473175358222</v>
+        <v>327.8803799378881</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -26323,28 +26427,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3648166883281369</v>
+        <v>-0.3304752463983122</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008660962193702826</v>
+        <v>0.007072089608248677</v>
       </c>
       <c r="M11" t="n">
-        <v>21.84021326013301</v>
+        <v>21.91264853562096</v>
       </c>
       <c r="N11" t="n">
-        <v>649.6623123335099</v>
+        <v>655.6848567292819</v>
       </c>
       <c r="O11" t="n">
-        <v>25.4884741075944</v>
+        <v>25.60634407191472</v>
       </c>
       <c r="P11" t="n">
-        <v>323.0451710477119</v>
+        <v>322.6382736847902</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -26400,28 +26504,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3380440048768017</v>
+        <v>-0.3081351898389472</v>
       </c>
       <c r="J12" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K12" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L12" t="n">
-        <v>0.007969234459590524</v>
+        <v>0.006595208169536626</v>
       </c>
       <c r="M12" t="n">
-        <v>20.67680121506206</v>
+        <v>20.74083335074415</v>
       </c>
       <c r="N12" t="n">
-        <v>596.7062335798106</v>
+        <v>601.4130701499771</v>
       </c>
       <c r="O12" t="n">
-        <v>24.42757117643526</v>
+        <v>24.52372463860205</v>
       </c>
       <c r="P12" t="n">
-        <v>325.8642217614529</v>
+        <v>325.5065517019511</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -26477,28 +26581,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6433454930864396</v>
+        <v>-0.6073806635276391</v>
       </c>
       <c r="J13" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K13" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03806737107203217</v>
+        <v>0.03358867269043952</v>
       </c>
       <c r="M13" t="n">
-        <v>16.34080420703613</v>
+        <v>16.42765470957952</v>
       </c>
       <c r="N13" t="n">
-        <v>438.3982663751459</v>
+        <v>446.1529947915639</v>
       </c>
       <c r="O13" t="n">
-        <v>20.9379623262424</v>
+        <v>21.12233402802739</v>
       </c>
       <c r="P13" t="n">
-        <v>335.823281897911</v>
+        <v>335.3965801434687</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -26554,28 +26658,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6656472346854394</v>
+        <v>-0.5277575472440801</v>
       </c>
       <c r="J14" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K14" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L14" t="n">
-        <v>0.04970310136483791</v>
+        <v>0.02349433398518974</v>
       </c>
       <c r="M14" t="n">
-        <v>15.04671889775253</v>
+        <v>15.74061985484932</v>
       </c>
       <c r="N14" t="n">
-        <v>368.96330360419</v>
+        <v>505.5432921199762</v>
       </c>
       <c r="O14" t="n">
-        <v>19.20841751951966</v>
+        <v>22.48428989583563</v>
       </c>
       <c r="P14" t="n">
-        <v>333.6578462576314</v>
+        <v>332.0460663200568</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -26631,28 +26735,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4124298663453295</v>
+        <v>-0.2508788751797782</v>
       </c>
       <c r="J15" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K15" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L15" t="n">
-        <v>0.02260049900584526</v>
+        <v>0.005293187157620394</v>
       </c>
       <c r="M15" t="n">
-        <v>13.89530267890708</v>
+        <v>14.73006409932702</v>
       </c>
       <c r="N15" t="n">
-        <v>312.3679644746676</v>
+        <v>503.4847403867831</v>
       </c>
       <c r="O15" t="n">
-        <v>17.67393460649517</v>
+        <v>22.43846564243605</v>
       </c>
       <c r="P15" t="n">
-        <v>335.3747329757227</v>
+        <v>333.4487288124897</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -26708,28 +26812,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5759278983768332</v>
+        <v>-0.2664855433571035</v>
       </c>
       <c r="J16" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K16" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04875349540819118</v>
+        <v>0.004786143327760284</v>
       </c>
       <c r="M16" t="n">
-        <v>12.9800364948195</v>
+        <v>14.51629600788847</v>
       </c>
       <c r="N16" t="n">
-        <v>281.0152382459411</v>
+        <v>644.160038504729</v>
       </c>
       <c r="O16" t="n">
-        <v>16.76350912684874</v>
+        <v>25.38030808529969</v>
       </c>
       <c r="P16" t="n">
-        <v>335.3146596618286</v>
+        <v>331.6860566841906</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -26766,7 +26870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56117,6 +56221,120 @@
         </is>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:56+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr"/>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
+      <c r="M410" t="inlineStr"/>
+      <c r="N410" t="inlineStr"/>
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-45.89795694864322,170.6403506643115</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:58+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-45.89844141295653,170.65186181576607</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-45.898046162059174,170.65116582153874</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-45.89762108092711,170.65050623044388</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-45.897350408215345,170.64971349551962</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-45.89714862940062,170.64886626088392</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-45.89692806606807,170.6480258704233</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-45.89671725924421,170.64718162418612</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-45.89681458007072,170.64624622102406</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-45.89671674719082,170.6453659534071</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-45.89662669801855,170.64447701513652</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-45.89662985507792,170.64356522220928</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-45.89783816524619,170.6422962318244</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-45.898109388663876,170.64122199704173</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-45.89779758294132,170.64040222875335</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -25585,7 +25585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25676,35 +25676,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25757,27 +25762,28 @@
       <c r="P2" t="n">
         <v>378.9037861767449</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (170.65537599884752 -45.896339382334816, 170.64837198886852 -45.90254528384211)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>170.6553759988475</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-45.89633938233482</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>170.6483719888685</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-45.90254528384211</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>170.651873993858</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-45.89944233308846</v>
       </c>
     </row>
@@ -25834,27 +25840,28 @@
       <c r="P3" t="n">
         <v>330.1348016937097</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (170.65465911247068 -45.89596265940618, 170.64765508335063 -45.902168543912936)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>170.6546591124707</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-45.89596265940618</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>170.6476550833506</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-45.90216854391294</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>170.6511570979106</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-45.89906560165956</v>
       </c>
     </row>
@@ -25911,27 +25918,28 @@
       <c r="P4" t="n">
         <v>322.2443042758741</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (170.65394222609314 -45.895585933921666, 170.64693817783387 -45.901791801427606)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>170.6539422260931</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-45.89558593392167</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>170.6469381778339</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-45.90179180142761</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>170.6504402019635</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-45.89868886767464</v>
       </c>
     </row>
@@ -25988,27 +25996,28 @@
       <c r="P5" t="n">
         <v>327.4349932215886</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (170.6529279996945 -45.895060478931775, 170.6466923174789 -45.90165303579508)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>170.6529279996945</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-45.89506047893178</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>170.6466923174789</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-45.90165303579508</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>170.6498101585867</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-45.89835675736343</v>
       </c>
     </row>
@@ -26065,27 +26074,28 @@
       <c r="P6" t="n">
         <v>325.018458031424</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (170.65154144591583 -45.89454688968829, 170.646853424244 -45.90173623686351)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>170.6515414459158</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-45.89454688968829</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>170.646853424244</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-45.90173623686351</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>170.6491974350799</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-45.8981415632759</v>
       </c>
     </row>
@@ -26142,27 +26152,28 @@
       <c r="P7" t="n">
         <v>319.2437504351052</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (170.65040708581847 -45.89425902118944, 170.6464594783065 -45.90166155377473)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>170.6504070858185</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-45.89425902118944</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>170.6464594783065</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-45.90166155377473</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>170.6484332820625</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-45.89796028748209</v>
       </c>
     </row>
@@ -26219,27 +26230,28 @@
       <c r="P8" t="n">
         <v>317.3933336110107</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (170.64955901544505 -45.89405291202251, 170.6456113429047 -45.901455431725445)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>170.649559015445</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-45.89405291202251</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>170.6456113429047</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-45.90145543172545</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>170.6475851791749</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-45.89775417187398</v>
       </c>
     </row>
@@ -26296,27 +26308,28 @@
       <c r="P9" t="n">
         <v>316.1065852462103</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (170.6483982339093 -45.89377557032478, 170.64525950222577 -45.90136413839774)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>170.6483982339093</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-45.89377557032478</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>170.6452595022258</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-45.90136413839774</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>170.6468288680675</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-45.89756985436126</v>
       </c>
     </row>
@@ -26373,27 +26386,28 @@
       <c r="P10" t="n">
         <v>327.8803799378881</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (170.64710801882805 -45.89359384880783, 170.64503035987454 -45.90135782891718)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>170.647108018828</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-45.89359384880783</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>170.6450303598745</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-45.90135782891718</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>170.6460691893513</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-45.8974758388625</v>
       </c>
     </row>
@@ -26450,27 +26464,28 @@
       <c r="P11" t="n">
         <v>322.6382736847902</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (170.64612936760082 -45.89349357730408, 170.64428354734744 -45.901286008917694)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>170.6461293676008</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-45.89349357730408</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>170.6442835473474</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-45.90128600891769</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>170.6452064574741</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-45.89738979311089</v>
       </c>
     </row>
@@ -26527,27 +26542,28 @@
       <c r="P12" t="n">
         <v>325.5065517019511</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (170.64524032368132 -45.89340412064568, 170.64339442138808 -45.901196544347435)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>170.6452403236813</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-45.89340412064568</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>170.6433944213881</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-45.90119654434744</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>170.6443173725347</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-45.89730033249656</v>
       </c>
     </row>
@@ -26604,27 +26620,28 @@
       <c r="P13" t="n">
         <v>335.3965801434687</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (170.64435870818562 -45.89331550971284, 170.64249349717258 -45.90110569748055)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>170.6443587081856</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-45.89331550971284</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>170.6424934971726</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-45.90110569748055</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>170.6434261026791</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-45.8972106035967</v>
       </c>
     </row>
@@ -26681,27 +26698,28 @@
       <c r="P14" t="n">
         <v>332.0460663200568</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (170.64359541235746 -45.893239575364234, 170.64140604102482 -45.90098861054263)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>170.6435954123575</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-45.89323957536423</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>170.6414060410248</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-45.90098861054263</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>170.6425007266911</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-45.89711409295343</v>
       </c>
     </row>
@@ -26758,27 +26776,28 @@
       <c r="P15" t="n">
         <v>333.4487288124897</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (170.64283249975279 -45.89313132058044, 170.6403398634192 -45.900835652885924)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>170.6428324997528</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-45.89313132058044</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>170.6403398634192</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-45.90083565288592</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>170.641586181586</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-45.89698348673318</v>
       </c>
     </row>
@@ -26835,27 +26854,28 @@
       <c r="P16" t="n">
         <v>331.6860566841906</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (170.641952432875 -45.89300603639709, 170.639459718471 -45.90071035913616)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>170.641952432875</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-45.89300603639709</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>170.639459718471</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-45.90071035913616</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>170.640706075673</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-45.89685819776663</v>
       </c>
     </row>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q411"/>
+  <dimension ref="A1:Q414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20662,82 +20662,249 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03 22:20:56+00:00</t>
+          <t>2025-02-13 22:20:58+00:00</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
-      <c r="M410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>350.765</v>
+      </c>
+      <c r="D410" t="n">
+        <v>348.1451612903226</v>
+      </c>
+      <c r="E410" t="n">
+        <v>341.07</v>
+      </c>
+      <c r="F410" t="n">
+        <v>342.3852380952381</v>
+      </c>
+      <c r="G410" t="n">
+        <v>342.72</v>
+      </c>
+      <c r="H410" t="n">
+        <v>341.0066666666667</v>
+      </c>
+      <c r="I410" t="n">
+        <v>340.33</v>
+      </c>
+      <c r="J410" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="K410" t="n">
+        <v>363.1228571428572</v>
+      </c>
+      <c r="L410" t="n">
+        <v>363.0566666666667</v>
+      </c>
+      <c r="M410" t="n">
+        <v>373.5028571428572</v>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
-      <c r="P410" t="n">
-        <v>564.1633333333334</v>
-      </c>
+      <c r="P410" t="inlineStr"/>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>2025-02-13 22:20:58+00:00</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>368.365</v>
+      </c>
       <c r="C411" t="n">
-        <v>350.765</v>
+        <v>352.375</v>
       </c>
       <c r="D411" t="n">
-        <v>348.1451612903226</v>
+        <v>342.8061290322581</v>
       </c>
       <c r="E411" t="n">
-        <v>341.07</v>
+        <v>343.87</v>
       </c>
       <c r="F411" t="n">
-        <v>342.3852380952381</v>
+        <v>348.7295238095238</v>
       </c>
       <c r="G411" t="n">
-        <v>342.72</v>
+        <v>349.81</v>
       </c>
       <c r="H411" t="n">
-        <v>341.0066666666667</v>
+        <v>348.5466666666667</v>
       </c>
       <c r="I411" t="n">
-        <v>340.33</v>
+        <v>346.67</v>
       </c>
       <c r="J411" t="n">
-        <v>364.18</v>
+        <v>352.73</v>
       </c>
       <c r="K411" t="n">
-        <v>363.1228571428572</v>
+        <v>353.0342857142857</v>
       </c>
       <c r="L411" t="n">
-        <v>363.0566666666667</v>
+        <v>361.9166666666667</v>
       </c>
       <c r="M411" t="n">
-        <v>373.5028571428572</v>
+        <v>361.1842857142857</v>
       </c>
       <c r="N411" t="n">
-        <v>520.9857142857144</v>
+        <v>353.5485714285714</v>
       </c>
       <c r="O411" t="n">
-        <v>567.2566666666667</v>
+        <v>347.7566666666667</v>
       </c>
       <c r="P411" t="n">
-        <v>546.0033333333333</v>
+        <v>339.7333333333333</v>
       </c>
       <c r="Q411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>381.095</v>
+      </c>
+      <c r="C412" t="n">
+        <v>361.275</v>
+      </c>
+      <c r="D412" t="n">
+        <v>349.83</v>
+      </c>
+      <c r="E412" t="n">
+        <v>349.46</v>
+      </c>
+      <c r="F412" t="n">
+        <v>359.2823809523809</v>
+      </c>
+      <c r="G412" t="n">
+        <v>353.74</v>
+      </c>
+      <c r="H412" t="n">
+        <v>353.0166666666667</v>
+      </c>
+      <c r="I412" t="n">
+        <v>356.1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>352.2</v>
+      </c>
+      <c r="K412" t="n">
+        <v>363.9285714285714</v>
+      </c>
+      <c r="L412" t="n">
+        <v>372.8066666666667</v>
+      </c>
+      <c r="M412" t="n">
+        <v>369.0085714285714</v>
+      </c>
+      <c r="N412" t="n">
+        <v>365.7971428571428</v>
+      </c>
+      <c r="O412" t="n">
+        <v>356.5066666666667</v>
+      </c>
+      <c r="P412" t="n">
+        <v>358.1933333333333</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>367.645</v>
+      </c>
+      <c r="C413" t="n">
+        <v>350.985</v>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>396.105</v>
+      </c>
+      <c r="C414" t="n">
+        <v>349.515</v>
+      </c>
+      <c r="D414" t="n">
+        <v>339.8074193548387</v>
+      </c>
+      <c r="E414" t="n">
+        <v>337.96</v>
+      </c>
+      <c r="F414" t="n">
+        <v>323.2785714285715</v>
+      </c>
+      <c r="G414" t="n">
+        <v>322.8</v>
+      </c>
+      <c r="H414" t="n">
+        <v>328.76</v>
+      </c>
+      <c r="I414" t="n">
+        <v>349.27</v>
+      </c>
+      <c r="J414" t="n">
+        <v>363.09</v>
+      </c>
+      <c r="K414" t="n">
+        <v>365.6928571428572</v>
+      </c>
+      <c r="L414" t="n">
+        <v>362.29</v>
+      </c>
+      <c r="M414" t="n">
+        <v>364.3528571428572</v>
+      </c>
+      <c r="N414" t="n">
+        <v>359.2857142857143</v>
+      </c>
+      <c r="O414" t="n">
+        <v>341.2</v>
+      </c>
+      <c r="P414" t="n">
+        <v>354.13</v>
+      </c>
+      <c r="Q414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -20754,7 +20921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B481"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25572,6 +25739,46 @@
       </c>
       <c r="B481" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -25739,28 +25946,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3707590273776822</v>
+        <v>0.3400963354275649</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01609773032074102</v>
+        <v>0.01381541779592299</v>
       </c>
       <c r="M2" t="n">
-        <v>13.65802808799776</v>
+        <v>13.67197434465876</v>
       </c>
       <c r="N2" t="n">
-        <v>326.4418026349921</v>
+        <v>325.1367800810216</v>
       </c>
       <c r="O2" t="n">
-        <v>18.06770053534738</v>
+        <v>18.03154957514804</v>
       </c>
       <c r="P2" t="n">
-        <v>378.9037861767449</v>
+        <v>379.282781327813</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25817,28 +26024,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2988680976002251</v>
+        <v>-0.2078277063339367</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01027111403695058</v>
+        <v>0.004943944695054769</v>
       </c>
       <c r="M3" t="n">
-        <v>15.35641288956601</v>
+        <v>15.54570676759928</v>
       </c>
       <c r="N3" t="n">
-        <v>349.6602028833731</v>
+        <v>357.7911351151133</v>
       </c>
       <c r="O3" t="n">
-        <v>18.69920326867894</v>
+        <v>18.9153676970635</v>
       </c>
       <c r="P3" t="n">
-        <v>330.1348016937097</v>
+        <v>329.0331990853105</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25895,28 +26102,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05679995836994466</v>
+        <v>-0.008780483152588</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003415456456649091</v>
+        <v>8.200548378911598e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>16.39131555862127</v>
+        <v>16.41278740673544</v>
       </c>
       <c r="N4" t="n">
-        <v>378.73317710026</v>
+        <v>380.352791549551</v>
       </c>
       <c r="O4" t="n">
-        <v>19.46106824149846</v>
+        <v>19.50263550265838</v>
       </c>
       <c r="P4" t="n">
-        <v>322.2443042758741</v>
+        <v>321.656030705392</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25973,28 +26180,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102900741273583</v>
+        <v>0.1302198287032625</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001481227321400769</v>
+        <v>0.002397642174439718</v>
       </c>
       <c r="M5" t="n">
-        <v>14.51808470215935</v>
+        <v>14.48485535413882</v>
       </c>
       <c r="N5" t="n">
-        <v>296.635661751702</v>
+        <v>295.7691923417259</v>
       </c>
       <c r="O5" t="n">
-        <v>17.22311417112777</v>
+        <v>17.19794151466174</v>
       </c>
       <c r="P5" t="n">
-        <v>327.4349932215886</v>
+        <v>327.1075103875668</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26051,28 +26258,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1794656926575705</v>
+        <v>0.2066602950916321</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004636574101613</v>
+        <v>0.006161398479233693</v>
       </c>
       <c r="M6" t="n">
-        <v>14.36696627981446</v>
+        <v>14.38324582976238</v>
       </c>
       <c r="N6" t="n">
-        <v>290.3411364910894</v>
+        <v>291.5829024618357</v>
       </c>
       <c r="O6" t="n">
-        <v>17.03939953434655</v>
+        <v>17.07579873569128</v>
       </c>
       <c r="P6" t="n">
-        <v>325.018458031424</v>
+        <v>324.6927883346484</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26129,28 +26336,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3839485858805077</v>
+        <v>0.4089039434890049</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02683079651114184</v>
+        <v>0.03041753570341832</v>
       </c>
       <c r="M7" t="n">
-        <v>12.35643360093651</v>
+        <v>12.39627642045214</v>
       </c>
       <c r="N7" t="n">
-        <v>228.9455542517011</v>
+        <v>230.1153644478393</v>
       </c>
       <c r="O7" t="n">
-        <v>15.13094690532291</v>
+        <v>15.1695538644958</v>
       </c>
       <c r="P7" t="n">
-        <v>319.2437504351052</v>
+        <v>318.9495314359144</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26207,28 +26414,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6219994646667818</v>
+        <v>0.6420287967510911</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0575132291124596</v>
+        <v>0.06165355223720659</v>
       </c>
       <c r="M8" t="n">
-        <v>12.98803666866647</v>
+        <v>12.98106102224391</v>
       </c>
       <c r="N8" t="n">
-        <v>274.8716045753048</v>
+        <v>274.2513048083468</v>
       </c>
       <c r="O8" t="n">
-        <v>16.57925223209131</v>
+        <v>16.56053455684166</v>
       </c>
       <c r="P8" t="n">
-        <v>317.3933336110107</v>
+        <v>317.1577580670598</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26285,28 +26492,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.205318858812332</v>
+        <v>0.2630721526429045</v>
       </c>
       <c r="J9" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003153516339472917</v>
+        <v>0.005185553184250735</v>
       </c>
       <c r="M9" t="n">
-        <v>20.49790120730051</v>
+        <v>20.54639420652295</v>
       </c>
       <c r="N9" t="n">
-        <v>589.2090256441149</v>
+        <v>591.7903184116982</v>
       </c>
       <c r="O9" t="n">
-        <v>24.27362819283749</v>
+        <v>24.32674080948161</v>
       </c>
       <c r="P9" t="n">
-        <v>316.1065852462103</v>
+        <v>315.4315268975489</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26363,28 +26570,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.384326594510061</v>
+        <v>-0.3088063815008177</v>
       </c>
       <c r="J10" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K10" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01002177763045431</v>
+        <v>0.00646524836429152</v>
       </c>
       <c r="M10" t="n">
-        <v>20.21546103620683</v>
+        <v>20.31178632315808</v>
       </c>
       <c r="N10" t="n">
-        <v>631.6161131357311</v>
+        <v>639.4444835371828</v>
       </c>
       <c r="O10" t="n">
-        <v>25.1319739204013</v>
+        <v>25.28723953968054</v>
       </c>
       <c r="P10" t="n">
-        <v>327.8803799378881</v>
+        <v>326.9855856331016</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26441,28 +26648,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3304752463983122</v>
+        <v>-0.2341776611240161</v>
       </c>
       <c r="J11" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K11" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007072089608248677</v>
+        <v>0.003512037591531847</v>
       </c>
       <c r="M11" t="n">
-        <v>21.91264853562096</v>
+        <v>22.09303722738931</v>
       </c>
       <c r="N11" t="n">
-        <v>655.6848567292819</v>
+        <v>670.8480461488679</v>
       </c>
       <c r="O11" t="n">
-        <v>25.60634407191472</v>
+        <v>25.90073447122432</v>
       </c>
       <c r="P11" t="n">
-        <v>322.6382736847902</v>
+        <v>321.4895715003248</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26519,28 +26726,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3081351898389472</v>
+        <v>-0.2150135621542454</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K12" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L12" t="n">
-        <v>0.006595208169536626</v>
+        <v>0.003164268650936886</v>
       </c>
       <c r="M12" t="n">
-        <v>20.74083335074415</v>
+        <v>20.95088223919222</v>
       </c>
       <c r="N12" t="n">
-        <v>601.4130701499771</v>
+        <v>617.1926246901877</v>
       </c>
       <c r="O12" t="n">
-        <v>24.52372463860205</v>
+        <v>24.84336178318441</v>
       </c>
       <c r="P12" t="n">
-        <v>325.5065517019511</v>
+        <v>324.3858547308759</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26597,28 +26804,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.6073806635276391</v>
+        <v>-0.5186078109294282</v>
       </c>
       <c r="J13" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K13" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03358867269043952</v>
+        <v>0.02415843497757264</v>
       </c>
       <c r="M13" t="n">
-        <v>16.42765470957952</v>
+        <v>16.64599316290783</v>
       </c>
       <c r="N13" t="n">
-        <v>446.1529947915639</v>
+        <v>460.5452975206368</v>
       </c>
       <c r="O13" t="n">
-        <v>21.12233402802739</v>
+        <v>21.46031913836877</v>
       </c>
       <c r="P13" t="n">
-        <v>335.3965801434687</v>
+        <v>334.336805586836</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26675,28 +26882,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5277575472440801</v>
+        <v>-0.5789944282180374</v>
       </c>
       <c r="J14" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K14" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02349433398518974</v>
+        <v>0.03698669254633391</v>
       </c>
       <c r="M14" t="n">
-        <v>15.74061985484932</v>
+        <v>15.34348411027739</v>
       </c>
       <c r="N14" t="n">
-        <v>505.5432921199762</v>
+        <v>383.3459884957716</v>
       </c>
       <c r="O14" t="n">
-        <v>22.48428989583563</v>
+        <v>19.57922338847411</v>
       </c>
       <c r="P14" t="n">
-        <v>332.0460663200568</v>
+        <v>332.6383451074278</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26753,28 +26960,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2508788751797782</v>
+        <v>-0.3652638944373164</v>
       </c>
       <c r="J15" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K15" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L15" t="n">
-        <v>0.005293187157620394</v>
+        <v>0.01780007226271696</v>
       </c>
       <c r="M15" t="n">
-        <v>14.73006409932702</v>
+        <v>14.00603222007951</v>
       </c>
       <c r="N15" t="n">
-        <v>503.4847403867831</v>
+        <v>315.043982023491</v>
       </c>
       <c r="O15" t="n">
-        <v>22.43846564243605</v>
+        <v>17.74947835919385</v>
       </c>
       <c r="P15" t="n">
-        <v>333.4487288124897</v>
+        <v>334.8090177662959</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -26831,28 +27038,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2664855433571035</v>
+        <v>-0.5151556364506885</v>
       </c>
       <c r="J16" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K16" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004786143327760284</v>
+        <v>0.03879815266940989</v>
       </c>
       <c r="M16" t="n">
-        <v>14.51629600788847</v>
+        <v>13.13933880102437</v>
       </c>
       <c r="N16" t="n">
-        <v>644.160038504729</v>
+        <v>287.7223897808942</v>
       </c>
       <c r="O16" t="n">
-        <v>25.38030808529969</v>
+        <v>16.96238160698238</v>
       </c>
       <c r="P16" t="n">
-        <v>331.6860566841906</v>
+        <v>334.5933641337784</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -26890,7 +27097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q411"/>
+  <dimension ref="A1:Q414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56244,112 +56451,365 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>2024-12-03 22:20:56+00:00</t>
+          <t>2025-02-13 22:20:58+00:00</t>
         </is>
       </c>
       <c r="B410" t="inlineStr"/>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
-      <c r="F410" t="inlineStr"/>
-      <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr"/>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
-      <c r="M410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-45.89844141295653,170.65186181576607</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-45.898046162059174,170.65116582153874</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-45.89762108092711,170.65050623044388</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-45.897350408215345,170.64971349551962</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-45.89714862940062,170.64886626088392</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-45.89692806606807,170.6480258704233</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-45.89671725924421,170.64718162418612</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-45.89681458007072,170.64624622102406</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-45.89671674719082,170.6453659534071</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-45.89662669801855,170.64447701513652</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-45.89662985507792,170.64356522220928</t>
+        </is>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
-      <c r="P410" t="inlineStr">
-        <is>
-          <t>-45.89795694864322,170.6403506643115</t>
-        </is>
-      </c>
+      <c r="P410" t="inlineStr"/>
       <c r="Q410" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>2025-02-13 22:20:58+00:00</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr"/>
+          <t>2025-03-18 22:14:18+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-45.898942520728724,170.65243833993475</t>
+        </is>
+      </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>-45.89844141295653,170.65186181576607</t>
+          <t>-45.89845279018374,170.6518489756865</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>-45.898046162059174,170.65116582153874</t>
+          <t>-45.89800843341507,170.65120840137192</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>-45.89762108092711,170.65050623044388</t>
+          <t>-45.89764210184805,170.65048634809685</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>-45.897350408215345,170.64971349551962</t>
+          <t>-45.89740235616871,170.64967962242127</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>-45.89714862940062,170.64886626088392</t>
+          <t>-45.89720840773542,170.6488343834149</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>-45.89692806606807,170.6480258704233</t>
+          <t>-45.896991638330285,170.64799196919952</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>-45.89671725924421,170.64718162418612</t>
+          <t>-45.8967720597418,170.64715895871691</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>-45.89681458007072,170.64624622102406</t>
+          <t>-45.89671331883475,170.64627331800216</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>-45.89671674719082,170.6453659534071</t>
+          <t>-45.89662719860597,170.645387164486</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>-45.89662669801855,170.64447701513652</t>
+          <t>-45.89661657912055,170.6444794120793</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>-45.89662985507792,170.64356522220928</t>
+          <t>-45.896520544144856,170.64359139395535</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
         <is>
-          <t>-45.89783816524619,170.6422962318244</t>
+          <t>-45.8963602485588,170.64271379432475</t>
         </is>
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>-45.898109388663876,170.64122199704173</t>
+          <t>-45.89618312876184,170.64184521732028</t>
         </is>
       </c>
       <c r="P411" t="inlineStr">
         <is>
-          <t>-45.89779758294132,170.64040222875335</t>
+          <t>-45.89598742845169,170.64098790050915</t>
         </is>
       </c>
       <c r="Q411" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:27+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-45.899032478818896,170.65233681503594</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-45.898515682902115,170.65177799626932</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-45.898058068085945,170.65115238460632</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-45.8976840686038,170.65044665436568</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-45.89748876450386,170.64962327898186</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-45.89724154297137,170.64881671364495</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-45.89702932638976,170.64797187122142</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-45.89685356898843,170.6471252464265</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-45.896708631633196,170.64627457227022</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-45.896723898904206,170.645364259401</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-45.896713241221796,170.64445651492937</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-45.896589974272466,170.64357477067549</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-45.896468363048264,170.64268324907272</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-45.89625991598032,170.64182037456098</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-45.89614942722889,170.64093548783745</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-45.8989374327584,170.652444082103</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-45.898442967608794,170.65186006122136</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
+      <c r="M413" t="inlineStr"/>
+      <c r="N413" t="inlineStr"/>
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-45.89913854868003,170.65221710614873</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-45.89843257970452,170.65187178476833</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-45.89798724281627,170.65123231664637</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-45.89759773268542,170.650528314033</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-45.897193959921154,170.64981550850368</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-45.89698067667293,170.64895582315492</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-45.89682481029875,170.64808093351394</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-45.89679453313028,170.64714966371605</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-45.89680494035524,170.64624880056627</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-45.89673955912749,170.6453605500066</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-45.8966198929117,170.6444786271157</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-45.89654866100182,170.6435846620939</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>-45.89641088861045,170.64269948716392</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>-45.8961255895344,170.6418638327804</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-45.89611376877943,170.64094702471002</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q414"/>
+  <dimension ref="A1:Q417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20910,6 +20910,141 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>395.17</v>
+      </c>
+      <c r="C415" t="n">
+        <v>333.46</v>
+      </c>
+      <c r="D415" t="n">
+        <v>322.841935483871</v>
+      </c>
+      <c r="E415" t="n">
+        <v>325.38</v>
+      </c>
+      <c r="F415" t="n">
+        <v>316.5338095238095</v>
+      </c>
+      <c r="G415" t="n">
+        <v>317.52</v>
+      </c>
+      <c r="H415" t="n">
+        <v>332.3266666666667</v>
+      </c>
+      <c r="I415" t="n">
+        <v>330.27</v>
+      </c>
+      <c r="J415" t="n">
+        <v>358.98</v>
+      </c>
+      <c r="K415" t="n">
+        <v>356.7757142857143</v>
+      </c>
+      <c r="L415" t="n">
+        <v>357.0966666666667</v>
+      </c>
+      <c r="M415" t="n">
+        <v>356.1757142857143</v>
+      </c>
+      <c r="N415" t="n">
+        <v>353.3114285714286</v>
+      </c>
+      <c r="O415" t="n">
+        <v>333.7666666666667</v>
+      </c>
+      <c r="P415" t="n">
+        <v>344.2233333333333</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="n">
+        <v>389.9885714285714</v>
+      </c>
+      <c r="N416" t="n">
+        <v>361.0171428571429</v>
+      </c>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="n">
+        <v>367.46</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>378.37</v>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="n">
+        <v>288.6148387096774</v>
+      </c>
+      <c r="E417" t="n">
+        <v>297.38</v>
+      </c>
+      <c r="F417" t="n">
+        <v>317.5028571428572</v>
+      </c>
+      <c r="G417" t="n">
+        <v>312.55</v>
+      </c>
+      <c r="H417" t="n">
+        <v>313.73</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>335.06</v>
+      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>328.53</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="n">
+        <v>320.26</v>
+      </c>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20921,7 +21056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25779,6 +25914,36 @@
       </c>
       <c r="B485" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-0.72</v>
       </c>
     </row>
   </sheetData>
@@ -25946,28 +26111,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3400963354275649</v>
+        <v>0.3381383507419866</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K2" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01381541779592299</v>
+        <v>0.01382042374679882</v>
       </c>
       <c r="M2" t="n">
-        <v>13.67197434465876</v>
+        <v>13.63665293988992</v>
       </c>
       <c r="N2" t="n">
-        <v>325.1367800810216</v>
+        <v>323.4050669024666</v>
       </c>
       <c r="O2" t="n">
-        <v>18.03154957514804</v>
+        <v>17.98346648737297</v>
       </c>
       <c r="P2" t="n">
-        <v>379.282781327813</v>
+        <v>379.3073524461764</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26024,28 +26189,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2078277063339367</v>
+        <v>-0.2006753588419651</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004943944695054769</v>
+        <v>0.004637191931352702</v>
       </c>
       <c r="M3" t="n">
-        <v>15.54570676759928</v>
+        <v>15.5251621654804</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7911351151133</v>
+        <v>356.8984003239561</v>
       </c>
       <c r="O3" t="n">
-        <v>18.9153676970635</v>
+        <v>18.89175482383667</v>
       </c>
       <c r="P3" t="n">
-        <v>329.0331990853105</v>
+        <v>328.9463469094156</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26102,28 +26267,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.008780483152588</v>
+        <v>-0.03028852074417822</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>8.200548378911598e-06</v>
+        <v>9.788404901367453e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>16.41278740673544</v>
+        <v>16.43701421191192</v>
       </c>
       <c r="N4" t="n">
-        <v>380.352791549551</v>
+        <v>381.3307777794489</v>
       </c>
       <c r="O4" t="n">
-        <v>19.50263550265838</v>
+        <v>19.52769258718113</v>
       </c>
       <c r="P4" t="n">
-        <v>321.656030705392</v>
+        <v>321.9213003124685</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26180,28 +26345,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1302198287032625</v>
+        <v>0.1048715187954622</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002397642174439718</v>
+        <v>0.001556934202105453</v>
       </c>
       <c r="M5" t="n">
-        <v>14.48485535413882</v>
+        <v>14.53439570535509</v>
       </c>
       <c r="N5" t="n">
-        <v>295.7691923417259</v>
+        <v>297.3746867800195</v>
       </c>
       <c r="O5" t="n">
-        <v>17.19794151466174</v>
+        <v>17.2445552792764</v>
       </c>
       <c r="P5" t="n">
-        <v>327.1075103875668</v>
+        <v>327.4134169492098</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26258,28 +26423,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2066602950916321</v>
+        <v>0.1899900025185091</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006161398479233693</v>
+        <v>0.005253881037150965</v>
       </c>
       <c r="M6" t="n">
-        <v>14.38324582976238</v>
+        <v>14.38591032053756</v>
       </c>
       <c r="N6" t="n">
-        <v>291.5829024618357</v>
+        <v>290.8078887916296</v>
       </c>
       <c r="O6" t="n">
-        <v>17.07579873569128</v>
+        <v>17.05309030034233</v>
       </c>
       <c r="P6" t="n">
-        <v>324.6927883346484</v>
+        <v>324.8939572098882</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26336,28 +26501,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4089039434890049</v>
+        <v>0.3904527365942265</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03041753570341832</v>
+        <v>0.02797299272479126</v>
       </c>
       <c r="M7" t="n">
-        <v>12.39627642045214</v>
+        <v>12.41088901435493</v>
       </c>
       <c r="N7" t="n">
-        <v>230.1153644478393</v>
+        <v>229.9973646997155</v>
       </c>
       <c r="O7" t="n">
-        <v>15.1695538644958</v>
+        <v>15.16566400457677</v>
       </c>
       <c r="P7" t="n">
-        <v>318.9495314359144</v>
+        <v>319.1688204645286</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26414,28 +26579,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6420287967510911</v>
+        <v>0.6279257002129006</v>
       </c>
       <c r="J8" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K8" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06165355223720659</v>
+        <v>0.05954040455059451</v>
       </c>
       <c r="M8" t="n">
-        <v>12.98106102224391</v>
+        <v>12.97056703999522</v>
       </c>
       <c r="N8" t="n">
-        <v>274.2513048083468</v>
+        <v>273.7583802768974</v>
       </c>
       <c r="O8" t="n">
-        <v>16.56053455684166</v>
+        <v>16.54564535691786</v>
       </c>
       <c r="P8" t="n">
-        <v>317.1577580670598</v>
+        <v>317.3251747968623</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26492,28 +26657,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2630721526429045</v>
+        <v>0.2683782501413572</v>
       </c>
       <c r="J9" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K9" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005185553184250735</v>
+        <v>0.005425716252462909</v>
       </c>
       <c r="M9" t="n">
-        <v>20.54639420652295</v>
+        <v>20.50220471466391</v>
       </c>
       <c r="N9" t="n">
-        <v>591.7903184116982</v>
+        <v>590.0677421428029</v>
       </c>
       <c r="O9" t="n">
-        <v>24.32674080948161</v>
+        <v>24.29131001289974</v>
       </c>
       <c r="P9" t="n">
-        <v>315.4315268975489</v>
+        <v>315.3692616083553</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26570,28 +26735,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3088063815008177</v>
+        <v>-0.271996535225002</v>
       </c>
       <c r="J10" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K10" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00646524836429152</v>
+        <v>0.005035764407801069</v>
       </c>
       <c r="M10" t="n">
-        <v>20.31178632315808</v>
+        <v>20.32523467656963</v>
       </c>
       <c r="N10" t="n">
-        <v>639.4444835371828</v>
+        <v>641.2159667921652</v>
       </c>
       <c r="O10" t="n">
-        <v>25.28723953968054</v>
+        <v>25.32224253086928</v>
       </c>
       <c r="P10" t="n">
-        <v>326.9855856331016</v>
+        <v>326.5475428581243</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26648,28 +26813,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2341776611240161</v>
+        <v>-0.2058143196772716</v>
       </c>
       <c r="J11" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K11" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003512037591531847</v>
+        <v>0.002708543750242765</v>
       </c>
       <c r="M11" t="n">
-        <v>22.09303722738931</v>
+        <v>22.13694233901714</v>
       </c>
       <c r="N11" t="n">
-        <v>670.8480461488679</v>
+        <v>674.2789765094481</v>
       </c>
       <c r="O11" t="n">
-        <v>25.90073447122432</v>
+        <v>25.96688230245302</v>
       </c>
       <c r="P11" t="n">
-        <v>321.4895715003248</v>
+        <v>321.1500165058507</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26726,28 +26891,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2150135621542454</v>
+        <v>-0.1842649086471953</v>
       </c>
       <c r="J12" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K12" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003164268650936886</v>
+        <v>0.002334317148933396</v>
       </c>
       <c r="M12" t="n">
-        <v>20.95088223919222</v>
+        <v>20.95544807279048</v>
       </c>
       <c r="N12" t="n">
-        <v>617.1926246901877</v>
+        <v>618.1339098887861</v>
       </c>
       <c r="O12" t="n">
-        <v>24.84336178318441</v>
+        <v>24.86229896628198</v>
       </c>
       <c r="P12" t="n">
-        <v>324.3858547308759</v>
+        <v>324.0141502356727</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26804,28 +26969,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5186078109294282</v>
+        <v>-0.4506438910248503</v>
       </c>
       <c r="J13" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K13" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02415843497757264</v>
+        <v>0.01786254699391188</v>
       </c>
       <c r="M13" t="n">
-        <v>16.64599316290783</v>
+        <v>16.84431829485219</v>
       </c>
       <c r="N13" t="n">
-        <v>460.5452975206368</v>
+        <v>476.0027183340273</v>
       </c>
       <c r="O13" t="n">
-        <v>21.46031913836877</v>
+        <v>21.81748652650042</v>
       </c>
       <c r="P13" t="n">
-        <v>334.336805586836</v>
+        <v>333.522054275451</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -26882,28 +27047,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5789944282180374</v>
+        <v>-0.5264165250005486</v>
       </c>
       <c r="J14" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K14" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03698669254633391</v>
+        <v>0.03035259421760073</v>
       </c>
       <c r="M14" t="n">
-        <v>15.34348411027739</v>
+        <v>15.52766523813968</v>
       </c>
       <c r="N14" t="n">
-        <v>383.3459884957716</v>
+        <v>390.9491512717655</v>
       </c>
       <c r="O14" t="n">
-        <v>19.57922338847411</v>
+        <v>19.77243412612027</v>
       </c>
       <c r="P14" t="n">
-        <v>332.6383451074278</v>
+        <v>332.0171079598928</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -26960,28 +27125,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3652638944373164</v>
+        <v>-0.3631796128451258</v>
       </c>
       <c r="J15" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K15" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01780007226271696</v>
+        <v>0.0177871367537048</v>
       </c>
       <c r="M15" t="n">
-        <v>14.00603222007951</v>
+        <v>13.95953179225629</v>
       </c>
       <c r="N15" t="n">
-        <v>315.043982023491</v>
+        <v>313.3040365192537</v>
       </c>
       <c r="O15" t="n">
-        <v>17.74947835919385</v>
+        <v>17.70039650740213</v>
       </c>
       <c r="P15" t="n">
-        <v>334.8090177662959</v>
+        <v>334.7840363438547</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27038,28 +27203,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5151556364506885</v>
+        <v>-0.4691570037923972</v>
       </c>
       <c r="J16" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K16" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03879815266940989</v>
+        <v>0.03182777044166696</v>
       </c>
       <c r="M16" t="n">
-        <v>13.13933880102437</v>
+        <v>13.27284991648334</v>
       </c>
       <c r="N16" t="n">
-        <v>287.7223897808942</v>
+        <v>294.5115016776192</v>
       </c>
       <c r="O16" t="n">
-        <v>16.96238160698238</v>
+        <v>17.16133740935185</v>
       </c>
       <c r="P16" t="n">
-        <v>334.5933641337784</v>
+        <v>334.0451074699519</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27097,7 +27262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q414"/>
+  <dimension ref="A1:Q417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56815,6 +56980,195 @@
         </is>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-45.89913194140085,170.65222456304485</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-45.898319125331746,170.65199982634982</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-45.89786735489526,170.65136761923026</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-45.89750328862432,170.6506176423147</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-45.89713873275895,170.64985151952646</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-45.89693615906817,170.64897956245852</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-45.896854882069405,170.64806489719737</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-45.89663030449944,170.64721758854165</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-45.89676859243641,170.64625852708835</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-45.896660408426015,170.64537929819392</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-45.89657379570874,170.64448954651124</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-45.896476099733874,170.64360203501622</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-45.896358155369356,170.6427143857058</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-45.8960603569531,170.64188493719274</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-45.896026831191016,170.64097515227797</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr"/>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-45.89677614384446,170.643530196876</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>-45.896426171414355,170.6426951693599</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr"/>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>-45.896230748379,170.6409091772738</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:03+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>-45.899013222283884,170.65235854761275</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>-45.89762548590486,170.65164058429104</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>-45.89729307899025,170.65081646409814</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>-45.89714666747278,170.64984634567958</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>-45.89689425518094,170.64900190794148</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>-45.89669808726508,170.64814851065515</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>-45.89655704929205,170.64631513470337</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>-45.89632023147391,170.64454960984554</t>
+        </is>
+      </c>
+      <c r="M417" t="inlineStr"/>
+      <c r="N417" t="inlineStr"/>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>-45.895941826705965,170.64192328462775</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q417"/>
+  <dimension ref="A1:Q418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21009,7 +21009,9 @@
       <c r="B417" t="n">
         <v>378.37</v>
       </c>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="n">
+        <v>286.32</v>
+      </c>
       <c r="D417" t="n">
         <v>288.6148387096774</v>
       </c>
@@ -21029,17 +21031,76 @@
       <c r="J417" t="n">
         <v>335.06</v>
       </c>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>270.8842857142857</v>
+      </c>
       <c r="L417" t="n">
         <v>328.53</v>
       </c>
-      <c r="M417" t="inlineStr"/>
-      <c r="N417" t="inlineStr"/>
+      <c r="M417" t="n">
+        <v>327.9842857142857</v>
+      </c>
+      <c r="N417" t="n">
+        <v>314.2585714285714</v>
+      </c>
       <c r="O417" t="n">
         <v>320.26</v>
       </c>
-      <c r="P417" t="inlineStr"/>
+      <c r="P417" t="n">
+        <v>310.31</v>
+      </c>
       <c r="Q417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>375.94</v>
+      </c>
+      <c r="C418" t="n">
+        <v>289.19</v>
+      </c>
+      <c r="D418" t="n">
+        <v>317.3322580645162</v>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="n">
+        <v>346.2490476190476</v>
+      </c>
+      <c r="G418" t="n">
+        <v>346.53</v>
+      </c>
+      <c r="H418" t="n">
+        <v>335.8933333333333</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>269.0385714285715</v>
+      </c>
+      <c r="L418" t="n">
+        <v>338.4233333333333</v>
+      </c>
+      <c r="M418" t="n">
+        <v>343.3685714285714</v>
+      </c>
+      <c r="N418" t="n">
+        <v>330.9471428571428</v>
+      </c>
+      <c r="O418" t="n">
+        <v>338.7933333333333</v>
+      </c>
+      <c r="P418" t="n">
+        <v>325.9866666666667</v>
+      </c>
+      <c r="Q418" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21056,7 +21117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B488"/>
+  <dimension ref="A1:B489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25944,6 +26005,16 @@
       </c>
       <c r="B488" t="n">
         <v>-0.72</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -26111,28 +26182,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3381383507419866</v>
+        <v>0.3289976982061227</v>
       </c>
       <c r="J2" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01382042374679882</v>
+        <v>0.01315998209121161</v>
       </c>
       <c r="M2" t="n">
-        <v>13.63665293988992</v>
+        <v>13.63425724334384</v>
       </c>
       <c r="N2" t="n">
-        <v>323.4050669024666</v>
+        <v>322.7952877642185</v>
       </c>
       <c r="O2" t="n">
-        <v>17.98346648737297</v>
+        <v>17.96650460618922</v>
       </c>
       <c r="P2" t="n">
-        <v>379.3073524461764</v>
+        <v>379.4214104108437</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26189,28 +26260,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2006753588419651</v>
+        <v>-0.2528940744747682</v>
       </c>
       <c r="J3" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004637191931352702</v>
+        <v>0.007266436887337302</v>
       </c>
       <c r="M3" t="n">
-        <v>15.5251621654804</v>
+        <v>15.66897528574783</v>
       </c>
       <c r="N3" t="n">
-        <v>356.8984003239561</v>
+        <v>363.0728702732598</v>
       </c>
       <c r="O3" t="n">
-        <v>18.89175482383667</v>
+        <v>19.05447113601581</v>
       </c>
       <c r="P3" t="n">
-        <v>328.9463469094156</v>
+        <v>329.5827748164143</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26267,28 +26338,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03028852074417822</v>
+        <v>-0.03288436376758144</v>
       </c>
       <c r="J4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L4" t="n">
-        <v>9.788404901367453e-05</v>
+        <v>0.0001160653436943493</v>
       </c>
       <c r="M4" t="n">
-        <v>16.43701421191192</v>
+        <v>16.39943651067834</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3307777794489</v>
+        <v>380.1731556228038</v>
       </c>
       <c r="O4" t="n">
-        <v>19.52769258718113</v>
+        <v>19.49802953179638</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9213003124685</v>
+        <v>321.9533715511785</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26348,7 +26419,7 @@
         <v>0.1048715187954622</v>
       </c>
       <c r="J5" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" t="n">
         <v>321</v>
@@ -26423,28 +26494,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1899900025185091</v>
+        <v>0.2005460122367028</v>
       </c>
       <c r="J6" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K6" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005253881037150965</v>
+        <v>0.005867288968728568</v>
       </c>
       <c r="M6" t="n">
-        <v>14.38591032053756</v>
+        <v>14.38477512657085</v>
       </c>
       <c r="N6" t="n">
-        <v>290.8078887916296</v>
+        <v>290.7387114258161</v>
       </c>
       <c r="O6" t="n">
-        <v>17.05309030034233</v>
+        <v>17.05106188557815</v>
       </c>
       <c r="P6" t="n">
-        <v>324.8939572098882</v>
+        <v>324.7661293961891</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26501,28 +26572,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3904527365942265</v>
+        <v>0.4014901656836273</v>
       </c>
       <c r="J7" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K7" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02797299272479126</v>
+        <v>0.02958386376089805</v>
       </c>
       <c r="M7" t="n">
-        <v>12.41088901435493</v>
+        <v>12.42400835019284</v>
       </c>
       <c r="N7" t="n">
-        <v>229.9973646997155</v>
+        <v>230.1997858180304</v>
       </c>
       <c r="O7" t="n">
-        <v>15.16566400457677</v>
+        <v>15.17233620172023</v>
       </c>
       <c r="P7" t="n">
-        <v>319.1688204645286</v>
+        <v>319.0372304279474</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26579,28 +26650,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6279257002129006</v>
+        <v>0.629487299383055</v>
       </c>
       <c r="J8" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05954040455059451</v>
+        <v>0.0601530073362867</v>
       </c>
       <c r="M8" t="n">
-        <v>12.97056703999522</v>
+        <v>12.93568716732506</v>
       </c>
       <c r="N8" t="n">
-        <v>273.7583802768974</v>
+        <v>272.8931920190914</v>
       </c>
       <c r="O8" t="n">
-        <v>16.54564535691786</v>
+        <v>16.51947916912308</v>
       </c>
       <c r="P8" t="n">
-        <v>317.3251747968623</v>
+        <v>317.3065967756911</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26660,7 +26731,7 @@
         <v>0.2683782501413572</v>
       </c>
       <c r="J9" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K9" t="n">
         <v>306</v>
@@ -26738,7 +26809,7 @@
         <v>-0.271996535225002</v>
       </c>
       <c r="J10" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K10" t="n">
         <v>307</v>
@@ -26813,28 +26884,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2058143196772716</v>
+        <v>-0.2682688516619428</v>
       </c>
       <c r="J11" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K11" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002708543750242765</v>
+        <v>0.004555581681398024</v>
       </c>
       <c r="M11" t="n">
-        <v>22.13694233901714</v>
+        <v>22.3357267079542</v>
       </c>
       <c r="N11" t="n">
-        <v>674.2789765094481</v>
+        <v>683.5924430061917</v>
       </c>
       <c r="O11" t="n">
-        <v>25.96688230245302</v>
+        <v>26.14560083467564</v>
       </c>
       <c r="P11" t="n">
-        <v>321.1500165058507</v>
+        <v>321.9007259813681</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26891,28 +26962,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1842649086471953</v>
+        <v>-0.1719415671171605</v>
       </c>
       <c r="J12" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K12" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002334317148933396</v>
+        <v>0.002040996608405399</v>
       </c>
       <c r="M12" t="n">
-        <v>20.95544807279048</v>
+        <v>20.9439178261574</v>
       </c>
       <c r="N12" t="n">
-        <v>618.1339098887861</v>
+        <v>617.3422578940567</v>
       </c>
       <c r="O12" t="n">
-        <v>24.86229896628198</v>
+        <v>24.84637313359953</v>
       </c>
       <c r="P12" t="n">
-        <v>324.0141502356727</v>
+        <v>323.8645266655777</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -26969,28 +27040,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4506438910248503</v>
+        <v>-0.4328174598899009</v>
       </c>
       <c r="J13" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K13" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01786254699391188</v>
+        <v>0.0166393955669526</v>
       </c>
       <c r="M13" t="n">
-        <v>16.84431829485219</v>
+        <v>16.82086347274207</v>
       </c>
       <c r="N13" t="n">
-        <v>476.0027183340273</v>
+        <v>474.5805148704417</v>
       </c>
       <c r="O13" t="n">
-        <v>21.81748652650042</v>
+        <v>21.78486894315506</v>
       </c>
       <c r="P13" t="n">
-        <v>333.522054275451</v>
+        <v>333.3075314213631</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27047,28 +27118,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5264165250005486</v>
+        <v>-0.5208989240001202</v>
       </c>
       <c r="J14" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K14" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03035259421760073</v>
+        <v>0.03004425561762836</v>
       </c>
       <c r="M14" t="n">
-        <v>15.52766523813968</v>
+        <v>15.48348654580577</v>
       </c>
       <c r="N14" t="n">
-        <v>390.9491512717655</v>
+        <v>388.9610972575571</v>
       </c>
       <c r="O14" t="n">
-        <v>19.77243412612027</v>
+        <v>19.7220966749876</v>
       </c>
       <c r="P14" t="n">
-        <v>332.0171079598928</v>
+        <v>331.9515489592859</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27125,28 +27196,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3631796128451258</v>
+        <v>-0.3543314499761834</v>
       </c>
       <c r="J15" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K15" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0177871367537048</v>
+        <v>0.0170123052862271</v>
       </c>
       <c r="M15" t="n">
-        <v>13.95953179225629</v>
+        <v>13.9607505926037</v>
       </c>
       <c r="N15" t="n">
-        <v>313.3040365192537</v>
+        <v>312.8627895140879</v>
       </c>
       <c r="O15" t="n">
-        <v>17.70039650740213</v>
+        <v>17.68792779027797</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7840363438547</v>
+        <v>334.6769054434474</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27203,28 +27274,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4691570037923972</v>
+        <v>-0.4741520711022849</v>
       </c>
       <c r="J16" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K16" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03182777044166696</v>
+        <v>0.03280371211348909</v>
       </c>
       <c r="M16" t="n">
-        <v>13.27284991648334</v>
+        <v>13.23780920940474</v>
       </c>
       <c r="N16" t="n">
-        <v>294.5115016776192</v>
+        <v>293.0582326229517</v>
       </c>
       <c r="O16" t="n">
-        <v>17.16133740935185</v>
+        <v>17.11894367719433</v>
       </c>
       <c r="P16" t="n">
-        <v>334.0451074699519</v>
+        <v>334.1047254068102</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27262,7 +27333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q417"/>
+  <dimension ref="A1:Q418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31461,7 +31532,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-45.8970829491021,170.6489012855533</t>
+          <t>-45.89708294910209,170.6489012855533</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -41402,7 +41473,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>-45.896719863229336,170.64627156675962</t>
+          <t>-45.89671986322934,170.64627156675962</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -57117,7 +57188,11 @@
           <t>-45.899013222283884,170.65235854761275</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>-45.89798600458539,170.65237577349433</t>
+        </is>
+      </c>
       <c r="D417" t="inlineStr">
         <is>
           <t>-45.89762548590486,170.65164058429104</t>
@@ -57149,21 +57224,112 @@
           <t>-45.89655704929205,170.64631513470337</t>
         </is>
       </c>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>-45.895898015216645,170.64555988095304</t>
+        </is>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>-45.89632023147391,170.64454960984554</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr"/>
-      <c r="N417" t="inlineStr"/>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>-45.896225938264,170.64366192933852</t>
+        </is>
+      </c>
+      <c r="N417" t="inlineStr">
+        <is>
+          <t>-45.8960134473553,170.64281177411667</t>
+        </is>
+      </c>
       <c r="O417" t="inlineStr">
         <is>
           <t>-45.895941826705965,170.64192328462775</t>
         </is>
       </c>
-      <c r="P417" t="inlineStr"/>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>-45.89572921906237,170.64107144022685</t>
+        </is>
+      </c>
       <c r="Q417" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>-45.898996050397486,170.65237792747584</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>-45.8980062858402,170.65235288503018</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>-45.897828420290686,170.65141155970707</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>-45.89738204566278,170.6496928660655</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>-45.89718075287948,170.6488491306872</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>-45.896884953837336,170.64804886086293</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>-45.895881632202546,170.64556376142326</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>-45.89640804695813,170.64452880851508</t>
+        </is>
+      </c>
+      <c r="M418" t="inlineStr">
+        <is>
+          <t>-45.89636245336465,170.6436292446049</t>
+        </is>
+      </c>
+      <c r="N418" t="inlineStr">
+        <is>
+          <t>-45.89616075245243,170.64277015700037</t>
+        </is>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>-45.896104469389854,170.6418706656945</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>-45.89586679228695,170.64102693060963</t>
+        </is>
+      </c>
+      <c r="Q418" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q418"/>
+  <dimension ref="A1:Q424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21027,7 +21027,9 @@
       <c r="H417" t="n">
         <v>313.73</v>
       </c>
-      <c r="I417" t="inlineStr"/>
+      <c r="I417" t="n">
+        <v>270.58</v>
+      </c>
       <c r="J417" t="n">
         <v>335.06</v>
       </c>
@@ -21101,6 +21103,318 @@
         <v>325.9866666666667</v>
       </c>
       <c r="Q418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>371.075</v>
+      </c>
+      <c r="C419" t="n">
+        <v>296.225</v>
+      </c>
+      <c r="D419" t="n">
+        <v>292.3348387096775</v>
+      </c>
+      <c r="E419" t="n">
+        <v>296.33</v>
+      </c>
+      <c r="F419" t="n">
+        <v>311.37</v>
+      </c>
+      <c r="G419" t="n">
+        <v>314.24</v>
+      </c>
+      <c r="H419" t="n">
+        <v>299.38</v>
+      </c>
+      <c r="I419" t="n">
+        <v>301.69</v>
+      </c>
+      <c r="J419" t="n">
+        <v>285.54</v>
+      </c>
+      <c r="K419" t="n">
+        <v>281.48</v>
+      </c>
+      <c r="L419" t="n">
+        <v>299.22</v>
+      </c>
+      <c r="M419" t="n">
+        <v>299.12</v>
+      </c>
+      <c r="N419" t="n">
+        <v>321.51</v>
+      </c>
+      <c r="O419" t="n">
+        <v>328.37</v>
+      </c>
+      <c r="P419" t="n">
+        <v>348.78</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>379.155</v>
+      </c>
+      <c r="C420" t="n">
+        <v>291.845</v>
+      </c>
+      <c r="D420" t="n">
+        <v>294.6761290322581</v>
+      </c>
+      <c r="E420" t="n">
+        <v>300.82</v>
+      </c>
+      <c r="F420" t="n">
+        <v>317.5095238095238</v>
+      </c>
+      <c r="G420" t="n">
+        <v>305.57</v>
+      </c>
+      <c r="H420" t="n">
+        <v>305.2266666666667</v>
+      </c>
+      <c r="I420" t="n">
+        <v>279.08</v>
+      </c>
+      <c r="J420" t="n">
+        <v>282.56</v>
+      </c>
+      <c r="K420" t="n">
+        <v>277.7142857142857</v>
+      </c>
+      <c r="L420" t="n">
+        <v>282.8366666666667</v>
+      </c>
+      <c r="M420" t="n">
+        <v>265.8642857142857</v>
+      </c>
+      <c r="N420" t="n">
+        <v>305.2385714285714</v>
+      </c>
+      <c r="O420" t="n">
+        <v>318.8566666666667</v>
+      </c>
+      <c r="P420" t="n">
+        <v>314.8633333333333</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>373.55</v>
+      </c>
+      <c r="C421" t="n">
+        <v>293.68</v>
+      </c>
+      <c r="D421" t="n">
+        <v>295.5422580645161</v>
+      </c>
+      <c r="E421" t="n">
+        <v>305.03</v>
+      </c>
+      <c r="F421" t="n">
+        <v>308.5538095238095</v>
+      </c>
+      <c r="G421" t="n">
+        <v>307.99</v>
+      </c>
+      <c r="H421" t="n">
+        <v>290.6966666666667</v>
+      </c>
+      <c r="I421" t="n">
+        <v>285.11</v>
+      </c>
+      <c r="J421" t="n">
+        <v>276.63</v>
+      </c>
+      <c r="K421" t="n">
+        <v>281.5957142857143</v>
+      </c>
+      <c r="L421" t="n">
+        <v>292.0166666666667</v>
+      </c>
+      <c r="M421" t="n">
+        <v>297.7257142857143</v>
+      </c>
+      <c r="N421" t="n">
+        <v>320.4314285714286</v>
+      </c>
+      <c r="O421" t="n">
+        <v>327.7066666666667</v>
+      </c>
+      <c r="P421" t="n">
+        <v>321.8733333333333</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>312.61</v>
+      </c>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="n">
+        <v>332.3366666666667</v>
+      </c>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>404.735</v>
+      </c>
+      <c r="C423" t="n">
+        <v>308.275</v>
+      </c>
+      <c r="D423" t="n">
+        <v>317.0332258064516</v>
+      </c>
+      <c r="E423" t="n">
+        <v>325.03</v>
+      </c>
+      <c r="F423" t="n">
+        <v>335.6209523809524</v>
+      </c>
+      <c r="G423" t="n">
+        <v>335.85</v>
+      </c>
+      <c r="H423" t="n">
+        <v>327.4366666666667</v>
+      </c>
+      <c r="I423" t="n">
+        <v>299.6</v>
+      </c>
+      <c r="J423" t="n">
+        <v>310.85</v>
+      </c>
+      <c r="K423" t="n">
+        <v>290.7114285714285</v>
+      </c>
+      <c r="L423" t="n">
+        <v>303.5066666666667</v>
+      </c>
+      <c r="M423" t="n">
+        <v>321.4814285714286</v>
+      </c>
+      <c r="N423" t="n">
+        <v>325.3428571428572</v>
+      </c>
+      <c r="O423" t="n">
+        <v>330.7766666666667</v>
+      </c>
+      <c r="P423" t="n">
+        <v>325.8833333333333</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>388.06</v>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="n">
+        <v>353.2503225806452</v>
+      </c>
+      <c r="E424" t="n">
+        <v>353.85</v>
+      </c>
+      <c r="F424" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="G424" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="H424" t="n">
+        <v>362.27</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>338.21</v>
+      </c>
+      <c r="K424" t="n">
+        <v>311.81</v>
+      </c>
+      <c r="L424" t="n">
+        <v>337.01</v>
+      </c>
+      <c r="M424" t="n">
+        <v>353.05</v>
+      </c>
+      <c r="N424" t="n">
+        <v>357.09</v>
+      </c>
+      <c r="O424" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="P424" t="n">
+        <v>354.15</v>
+      </c>
+      <c r="Q424" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21117,7 +21431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B489"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26015,6 +26329,66 @@
       </c>
       <c r="B489" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>
@@ -26182,28 +26556,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3289976982061227</v>
+        <v>0.3124075671485535</v>
       </c>
       <c r="J2" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01315998209121161</v>
+        <v>0.01216375342817955</v>
       </c>
       <c r="M2" t="n">
-        <v>13.63425724334384</v>
+        <v>13.60081919701749</v>
       </c>
       <c r="N2" t="n">
-        <v>322.7952877642185</v>
+        <v>320.2122375380692</v>
       </c>
       <c r="O2" t="n">
-        <v>17.96650460618922</v>
+        <v>17.89447505623088</v>
       </c>
       <c r="P2" t="n">
-        <v>379.4214104108437</v>
+        <v>379.6283673056284</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26260,28 +26634,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2528940744747682</v>
+        <v>-0.3246361569715969</v>
       </c>
       <c r="J3" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007266436887337302</v>
+        <v>0.01193172563164158</v>
       </c>
       <c r="M3" t="n">
-        <v>15.66897528574783</v>
+        <v>15.81039039932809</v>
       </c>
       <c r="N3" t="n">
-        <v>363.0728702732598</v>
+        <v>367.1308253051137</v>
       </c>
       <c r="O3" t="n">
-        <v>19.05447113601581</v>
+        <v>19.16065826909696</v>
       </c>
       <c r="P3" t="n">
-        <v>329.5827748164143</v>
+        <v>330.4595791340964</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26338,28 +26712,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03288436376758144</v>
+        <v>-0.06718811501294947</v>
       </c>
       <c r="J4" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K4" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001160653436943493</v>
+        <v>0.0004859428901325957</v>
       </c>
       <c r="M4" t="n">
-        <v>16.39943651067834</v>
+        <v>16.53321747059474</v>
       </c>
       <c r="N4" t="n">
-        <v>380.1731556228038</v>
+        <v>384.2241046862368</v>
       </c>
       <c r="O4" t="n">
-        <v>19.49802953179638</v>
+        <v>19.60163525541267</v>
       </c>
       <c r="P4" t="n">
-        <v>321.9533715511785</v>
+        <v>322.3770493402811</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26416,28 +26790,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1048715187954622</v>
+        <v>0.06037352616799451</v>
       </c>
       <c r="J5" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001556934202105453</v>
+        <v>0.0005149737555435463</v>
       </c>
       <c r="M5" t="n">
-        <v>14.53439570535509</v>
+        <v>14.70320098571481</v>
       </c>
       <c r="N5" t="n">
-        <v>297.3746867800195</v>
+        <v>302.5573605098202</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2445552792764</v>
+        <v>17.39417605147827</v>
       </c>
       <c r="P5" t="n">
-        <v>327.4134169492098</v>
+        <v>327.9518982072792</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26494,28 +26868,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2005460122367028</v>
+        <v>0.1835524439392645</v>
       </c>
       <c r="J6" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005867288968728568</v>
+        <v>0.004988562469415259</v>
       </c>
       <c r="M6" t="n">
-        <v>14.38477512657085</v>
+        <v>14.41161838724532</v>
       </c>
       <c r="N6" t="n">
-        <v>290.7387114258161</v>
+        <v>290.4077006546785</v>
       </c>
       <c r="O6" t="n">
-        <v>17.05106188557815</v>
+        <v>17.04135266505211</v>
       </c>
       <c r="P6" t="n">
-        <v>324.7661293961891</v>
+        <v>324.9716618729113</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26572,28 +26946,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4014901656836273</v>
+        <v>0.3868633197303515</v>
       </c>
       <c r="J7" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K7" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02958386376089805</v>
+        <v>0.02752284899043167</v>
       </c>
       <c r="M7" t="n">
-        <v>12.42400835019284</v>
+        <v>12.53021568464793</v>
       </c>
       <c r="N7" t="n">
-        <v>230.1997858180304</v>
+        <v>233.3245674282216</v>
       </c>
       <c r="O7" t="n">
-        <v>15.17233620172023</v>
+        <v>15.27496538222662</v>
       </c>
       <c r="P7" t="n">
-        <v>319.0372304279474</v>
+        <v>319.2110926446157</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26650,28 +27024,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.629487299383055</v>
+        <v>0.5771118114016479</v>
       </c>
       <c r="J8" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K8" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0601530073362867</v>
+        <v>0.04990747784535188</v>
       </c>
       <c r="M8" t="n">
-        <v>12.93568716732506</v>
+        <v>13.19196396004175</v>
       </c>
       <c r="N8" t="n">
-        <v>272.8931920190914</v>
+        <v>283.1942190292676</v>
       </c>
       <c r="O8" t="n">
-        <v>16.51947916912308</v>
+        <v>16.82837541265548</v>
       </c>
       <c r="P8" t="n">
-        <v>317.3065967756911</v>
+        <v>317.9300679151373</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -26728,28 +27102,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2683782501413572</v>
+        <v>0.1567165821988726</v>
       </c>
       <c r="J9" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005425716252462909</v>
+        <v>0.001844959496392407</v>
       </c>
       <c r="M9" t="n">
-        <v>20.50220471466391</v>
+        <v>20.79373142762983</v>
       </c>
       <c r="N9" t="n">
-        <v>590.0677421428029</v>
+        <v>601.7747333510328</v>
       </c>
       <c r="O9" t="n">
-        <v>24.29131001289974</v>
+        <v>24.53109727164753</v>
       </c>
       <c r="P9" t="n">
-        <v>315.3692616083553</v>
+        <v>316.6874494190528</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -26806,28 +27180,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.271996535225002</v>
+        <v>-0.3381033701190881</v>
       </c>
       <c r="J10" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K10" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005035764407801069</v>
+        <v>0.007803567394458977</v>
       </c>
       <c r="M10" t="n">
-        <v>20.32523467656963</v>
+        <v>20.50813647935941</v>
       </c>
       <c r="N10" t="n">
-        <v>641.2159667921652</v>
+        <v>645.9722307052407</v>
       </c>
       <c r="O10" t="n">
-        <v>25.32224253086928</v>
+        <v>25.41598376426222</v>
       </c>
       <c r="P10" t="n">
-        <v>326.5475428581243</v>
+        <v>327.3384888829385</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -26884,28 +27258,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2682688516619428</v>
+        <v>-0.3551307878363944</v>
       </c>
       <c r="J11" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K11" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004555581681398024</v>
+        <v>0.008081146344192436</v>
       </c>
       <c r="M11" t="n">
-        <v>22.3357267079542</v>
+        <v>22.36912102862273</v>
       </c>
       <c r="N11" t="n">
-        <v>683.5924430061917</v>
+        <v>683.476329782018</v>
       </c>
       <c r="O11" t="n">
-        <v>26.14560083467564</v>
+        <v>26.14338022869304</v>
       </c>
       <c r="P11" t="n">
-        <v>321.9007259813681</v>
+        <v>322.9480479894359</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -26962,28 +27336,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1719415671171605</v>
+        <v>-0.2229233930211633</v>
       </c>
       <c r="J12" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K12" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002040996608405399</v>
+        <v>0.003470190178910815</v>
       </c>
       <c r="M12" t="n">
-        <v>20.9439178261574</v>
+        <v>21.00196797141026</v>
       </c>
       <c r="N12" t="n">
-        <v>617.3422578940567</v>
+        <v>617.0851598815607</v>
       </c>
       <c r="O12" t="n">
-        <v>24.84637313359953</v>
+        <v>24.84119884147222</v>
       </c>
       <c r="P12" t="n">
-        <v>323.8645266655777</v>
+        <v>324.4843720998017</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27040,28 +27414,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4328174598899009</v>
+        <v>-0.4783231719762238</v>
       </c>
       <c r="J13" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K13" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0166393955669526</v>
+        <v>0.02015663073344898</v>
       </c>
       <c r="M13" t="n">
-        <v>16.82086347274207</v>
+        <v>16.98481075973655</v>
       </c>
       <c r="N13" t="n">
-        <v>474.5805148704417</v>
+        <v>483.1806022388601</v>
       </c>
       <c r="O13" t="n">
-        <v>21.78486894315506</v>
+        <v>21.98136943502065</v>
       </c>
       <c r="P13" t="n">
-        <v>333.3075314213631</v>
+        <v>333.8555306963061</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27118,28 +27492,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.5208989240001202</v>
+        <v>-0.4970513189707151</v>
       </c>
       <c r="J14" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K14" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03004425561762836</v>
+        <v>0.02783157986640628</v>
       </c>
       <c r="M14" t="n">
-        <v>15.48348654580577</v>
+        <v>15.44831668346256</v>
       </c>
       <c r="N14" t="n">
-        <v>388.9610972575571</v>
+        <v>388.225039541504</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7220966749876</v>
+        <v>19.7034271014335</v>
       </c>
       <c r="P14" t="n">
-        <v>331.9515489592859</v>
+        <v>331.6669537785399</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27196,28 +27570,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3543314499761834</v>
+        <v>-0.3226788114255</v>
       </c>
       <c r="J15" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K15" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0170123052862271</v>
+        <v>0.01438776522164431</v>
       </c>
       <c r="M15" t="n">
-        <v>13.9607505926037</v>
+        <v>13.90075152646556</v>
       </c>
       <c r="N15" t="n">
-        <v>312.8627895140879</v>
+        <v>312.1918068129505</v>
       </c>
       <c r="O15" t="n">
-        <v>17.68792779027797</v>
+        <v>17.66895035968324</v>
       </c>
       <c r="P15" t="n">
-        <v>334.6769054434474</v>
+        <v>334.2918841954661</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27274,28 +27648,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4741520711022849</v>
+        <v>-0.4382111070505774</v>
       </c>
       <c r="J16" t="n">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K16" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03280371211348909</v>
+        <v>0.02838384490358059</v>
       </c>
       <c r="M16" t="n">
-        <v>13.23780920940474</v>
+        <v>13.24289000880053</v>
       </c>
       <c r="N16" t="n">
-        <v>293.0582326229517</v>
+        <v>294.1751500637708</v>
       </c>
       <c r="O16" t="n">
-        <v>17.11894367719433</v>
+        <v>17.15153491859463</v>
       </c>
       <c r="P16" t="n">
-        <v>334.1047254068102</v>
+        <v>333.6728817927461</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27333,7 +27707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q418"/>
+  <dimension ref="A1:Q424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57218,7 +57592,11 @@
           <t>-45.89669808726508,170.64814851065515</t>
         </is>
       </c>
-      <c r="I417" t="inlineStr"/>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>-45.896114366948574,170.64743097702151</t>
+        </is>
+      </c>
       <c r="J417" t="inlineStr">
         <is>
           <t>-45.89655704929205,170.64631513470337</t>
@@ -57330,6 +57708,468 @@
         </is>
       </c>
       <c r="Q418" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>-45.89896167128087,170.65241672704212</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>-45.89805599962666,170.6522967803092</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>-45.897651773668166,170.65161091697587</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>-45.89728519612153,170.65082391988543</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>-45.89709645067243,170.64987908962186</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>-45.896908504189454,170.64899430958195</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>-45.896577097497016,170.64821303011777</t>
+        </is>
+      </c>
+      <c r="I419" t="inlineStr">
+        <is>
+          <t>-45.89638326996528,170.6473197609912</t>
+        </is>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>-45.89611910531951,170.64643232425365</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>-45.89599206537928,170.64553760424272</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>-45.89606006918858,170.64461123547292</t>
+        </is>
+      </c>
+      <c r="M419" t="inlineStr">
+        <is>
+          <t>-45.89596980602724,170.643723252582</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr">
+        <is>
+          <t>-45.896077453579075,170.64279369089934</t>
+        </is>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>-45.896012997510546,170.64190025915258</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>-45.89606681897265,170.64096221474395</t>
+        </is>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>-45.89901876957975,170.65235228703713</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>-45.89802504776313,170.65233171119212</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>-45.897668318633166,170.65159224497273</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>-45.897318904765896,170.65079203750375</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>-45.89714672206049,170.64984631008554</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>-45.8968354042398,170.64903329047257</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>-45.89662639275279,170.64818674278047</t>
+        </is>
+      </c>
+      <c r="I420" t="inlineStr">
+        <is>
+          <t>-45.896187837732136,170.64740059023936</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>-45.89609275084992,170.6464393763889</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>-45.895958639975134,170.6455455213895</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>-45.895914646938586,170.64464568191568</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>-45.89567470562119,170.6437939048218</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>-45.895933830466525,170.64283426763905</t>
+        </is>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>-45.895929511494145,170.64192726888984</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>-45.89576917760728,170.64105851230332</t>
+        </is>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>-45.8989791611724,170.6523969883171</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>-45.89803801504069,170.65231707691146</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>-45.89767443922078,170.65158533751216</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>-45.897350511303245,170.65076214329744</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>-45.89707339125753,170.6498941255263</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>-45.896855808148956,170.64902241000394</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>-45.89650388531623,170.64825207137093</t>
+        </is>
+      </c>
+      <c r="I421" t="inlineStr">
+        <is>
+          <t>-45.896239958764006,170.64737903344783</t>
+        </is>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>-45.8960403072222,170.6464534096435</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>-45.895993092487664,170.6455373609615</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>-45.8959961307406,170.64462638071822</t>
+        </is>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>-45.89595743359016,170.64372621477816</t>
+        </is>
+      </c>
+      <c r="N421" t="inlineStr">
+        <is>
+          <t>-45.89606793334709,170.6427963805848</t>
+        </is>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>-45.89600717630648,170.6419021424552</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>-45.895830695040964,170.64103860931974</t>
+        </is>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr"/>
+      <c r="C422" t="inlineStr"/>
+      <c r="D422" t="inlineStr"/>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>-45.89626838286395,170.64547215523535</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr"/>
+      <c r="M422" t="inlineStr"/>
+      <c r="N422" t="inlineStr"/>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>-45.89604780772493,170.64188899718357</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>-45.89919953348856,170.6521482793121</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>-45.89814115252474,170.65220068030402</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>-45.89782630715325,170.65141394453093</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>-45.897500661006255,170.65062012759634</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>-45.89729502122671,170.64974961098997</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>-45.89709070595445,170.6488971491398</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>-45.89681365282801,170.64808688343243</t>
+        </is>
+      </c>
+      <c r="I423" t="inlineStr">
+        <is>
+          <t>-45.896365204804,170.64732723262722</t>
+        </is>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>-45.89634294140799,170.64637242814518</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>-45.89607400580091,170.64551819577645</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>-45.89609811862896,170.64460222259734</t>
+        </is>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>-45.89616823404002,170.64367574495247</t>
+        </is>
+      </c>
+      <c r="N423" t="inlineStr">
+        <is>
+          <t>-45.89611128507818,170.64278413271117</t>
+        </is>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>-45.896034117657614,170.64189342626224</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>-45.89586588546799,170.64102722399718</t>
+        </is>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>-45.89908169779537,170.65228126729826</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr"/>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>-45.898082238021665,170.6511251068182</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>-45.89771702638519,170.65041548160767</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>-45.89740432522324,170.64967833848135</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>-45.89728884288256,170.64879149034792</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>-45.89710734431285,170.64793026636914</t>
+        </is>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>-45.896584907191894,170.6463076801316</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>-45.896261281869315,170.64547383719744</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>-45.89639550188936,170.64453178013807</t>
+        </is>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>-45.89644836317538,170.6436086758059</t>
+        </is>
+      </c>
+      <c r="N424" t="inlineStr">
+        <is>
+          <t>-45.89639150769459,170.64270496279124</t>
+        </is>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>-45.89633401198235,170.64179640241247</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>-45.89611394429273,170.6409469679248</t>
+        </is>
+      </c>
+      <c r="Q424" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q424"/>
+  <dimension ref="A1:Q427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21392,7 +21392,9 @@
       <c r="H424" t="n">
         <v>362.27</v>
       </c>
-      <c r="I424" t="inlineStr"/>
+      <c r="I424" t="n">
+        <v>346.99</v>
+      </c>
       <c r="J424" t="n">
         <v>338.21</v>
       </c>
@@ -21415,6 +21417,137 @@
         <v>354.15</v>
       </c>
       <c r="Q424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>374.91</v>
+      </c>
+      <c r="C425" t="n">
+        <v>305.56</v>
+      </c>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="n">
+        <v>336.5</v>
+      </c>
+      <c r="F425" t="n">
+        <v>336.862380952381</v>
+      </c>
+      <c r="G425" t="n">
+        <v>339.82</v>
+      </c>
+      <c r="H425" t="n">
+        <v>328.6766666666667</v>
+      </c>
+      <c r="I425" t="n">
+        <v>320.01</v>
+      </c>
+      <c r="J425" t="n">
+        <v>316.21</v>
+      </c>
+      <c r="K425" t="n">
+        <v>312.4885714285714</v>
+      </c>
+      <c r="L425" t="n">
+        <v>307.0766666666667</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="n">
+        <v>321.3533333333333</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>399.095</v>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="n">
+        <v>358.5796774193548</v>
+      </c>
+      <c r="E426" t="n">
+        <v>334.98</v>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="H426" t="n">
+        <v>348.3266666666667</v>
+      </c>
+      <c r="I426" t="n">
+        <v>346.85</v>
+      </c>
+      <c r="J426" t="n">
+        <v>304.34</v>
+      </c>
+      <c r="K426" t="n">
+        <v>301.6485714285715</v>
+      </c>
+      <c r="L426" t="n">
+        <v>305.3766666666667</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="n">
+        <v>398.73</v>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="n">
+        <v>575.3657142857144</v>
+      </c>
+      <c r="N427" t="n">
+        <v>544.0914285714285</v>
+      </c>
+      <c r="O427" t="n">
+        <v>509.5633333333333</v>
+      </c>
+      <c r="P427" t="n">
+        <v>463.7866666666667</v>
+      </c>
+      <c r="Q427" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21431,7 +21564,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26389,6 +26522,46 @@
       </c>
       <c r="B495" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.82</v>
       </c>
     </row>
   </sheetData>
@@ -26556,28 +26729,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3124075671485535</v>
+        <v>0.3113945878828062</v>
       </c>
       <c r="J2" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01216375342817955</v>
+        <v>0.01220187964338937</v>
       </c>
       <c r="M2" t="n">
-        <v>13.60081919701749</v>
+        <v>13.59098413490259</v>
       </c>
       <c r="N2" t="n">
-        <v>320.2122375380692</v>
+        <v>319.0548376137987</v>
       </c>
       <c r="O2" t="n">
-        <v>17.89447505623088</v>
+        <v>17.8621061919864</v>
       </c>
       <c r="P2" t="n">
-        <v>379.6283673056284</v>
+        <v>379.6408982617117</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26634,28 +26807,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3246361569715969</v>
+        <v>-0.3362128218412896</v>
       </c>
       <c r="J3" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01193172563164158</v>
+        <v>0.01283608887256238</v>
       </c>
       <c r="M3" t="n">
-        <v>15.81039039932809</v>
+        <v>15.81441310474542</v>
       </c>
       <c r="N3" t="n">
-        <v>367.1308253051137</v>
+        <v>366.8059222672388</v>
       </c>
       <c r="O3" t="n">
-        <v>19.16065826909696</v>
+        <v>19.15217800322561</v>
       </c>
       <c r="P3" t="n">
-        <v>330.4595791340964</v>
+        <v>330.6016029768844</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26712,28 +26885,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.06718811501294947</v>
+        <v>-0.04219640410250472</v>
       </c>
       <c r="J4" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004859428901325957</v>
+        <v>0.0001906505786983814</v>
       </c>
       <c r="M4" t="n">
-        <v>16.53321747059474</v>
+        <v>16.58052742653358</v>
       </c>
       <c r="N4" t="n">
-        <v>384.2241046862368</v>
+        <v>387.4531444040144</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60163525541267</v>
+        <v>19.68382951572215</v>
       </c>
       <c r="P4" t="n">
-        <v>322.3770493402811</v>
+        <v>322.0659961537131</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26790,28 +26963,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06037352616799451</v>
+        <v>0.06831130308838322</v>
       </c>
       <c r="J5" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K5" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005149737555435463</v>
+        <v>0.0006663780559835741</v>
       </c>
       <c r="M5" t="n">
-        <v>14.70320098571481</v>
+        <v>14.64507062671593</v>
       </c>
       <c r="N5" t="n">
-        <v>302.5573605098202</v>
+        <v>300.9478792699954</v>
       </c>
       <c r="O5" t="n">
-        <v>17.39417605147827</v>
+        <v>17.34784941339979</v>
       </c>
       <c r="P5" t="n">
-        <v>327.9518982072792</v>
+        <v>327.8552700669255</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26868,28 +27041,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1835524439392645</v>
+        <v>0.1879607175154313</v>
       </c>
       <c r="J6" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004988562469415259</v>
+        <v>0.005255791781306529</v>
       </c>
       <c r="M6" t="n">
-        <v>14.41161838724532</v>
+        <v>14.386586108267</v>
       </c>
       <c r="N6" t="n">
-        <v>290.4077006546785</v>
+        <v>289.682644593647</v>
       </c>
       <c r="O6" t="n">
-        <v>17.04135266505211</v>
+        <v>17.02006593975614</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9716618729113</v>
+        <v>324.9179648383791</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26946,28 +27119,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3868633197303515</v>
+        <v>0.4629889348851825</v>
       </c>
       <c r="J7" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K7" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02752284899043167</v>
+        <v>0.03648901872800991</v>
       </c>
       <c r="M7" t="n">
-        <v>12.53021568464793</v>
+        <v>12.78198379194799</v>
       </c>
       <c r="N7" t="n">
-        <v>233.3245674282216</v>
+        <v>251.6839551826531</v>
       </c>
       <c r="O7" t="n">
-        <v>15.27496538222662</v>
+        <v>15.86455026726737</v>
       </c>
       <c r="P7" t="n">
-        <v>319.2110926446157</v>
+        <v>318.2961589255561</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27024,28 +27197,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5771118114016479</v>
+        <v>0.5841888332739609</v>
       </c>
       <c r="J8" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04990747784535188</v>
+        <v>0.05149415189887974</v>
       </c>
       <c r="M8" t="n">
-        <v>13.19196396004175</v>
+        <v>13.16837313010262</v>
       </c>
       <c r="N8" t="n">
-        <v>283.1942190292676</v>
+        <v>282.2089681590801</v>
       </c>
       <c r="O8" t="n">
-        <v>16.82837541265548</v>
+        <v>16.79907640791839</v>
       </c>
       <c r="P8" t="n">
-        <v>317.9300679151373</v>
+        <v>317.8451428721474</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27102,28 +27275,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1567165821988726</v>
+        <v>0.1891087272507629</v>
       </c>
       <c r="J9" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K9" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001844959496392407</v>
+        <v>0.002711314189121405</v>
       </c>
       <c r="M9" t="n">
-        <v>20.79373142762983</v>
+        <v>20.74351306554307</v>
       </c>
       <c r="N9" t="n">
-        <v>601.7747333510328</v>
+        <v>600.3134694455999</v>
       </c>
       <c r="O9" t="n">
-        <v>24.53109727164753</v>
+        <v>24.50129526056939</v>
       </c>
       <c r="P9" t="n">
-        <v>316.6874494190528</v>
+        <v>316.3028978631031</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27180,28 +27353,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3381033701190881</v>
+        <v>-0.3486398145413544</v>
       </c>
       <c r="J10" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K10" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007803567394458977</v>
+        <v>0.008379520766965243</v>
       </c>
       <c r="M10" t="n">
-        <v>20.50813647935941</v>
+        <v>20.43930058298377</v>
       </c>
       <c r="N10" t="n">
-        <v>645.9722307052407</v>
+        <v>642.5114240827045</v>
       </c>
       <c r="O10" t="n">
-        <v>25.41598376426222</v>
+        <v>25.34780905882606</v>
       </c>
       <c r="P10" t="n">
-        <v>327.3384888829385</v>
+        <v>327.4653762087563</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27258,28 +27431,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.3551307878363944</v>
+        <v>-0.363741980448138</v>
       </c>
       <c r="J11" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K11" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008081146344192436</v>
+        <v>0.008565457896537398</v>
       </c>
       <c r="M11" t="n">
-        <v>22.36912102862273</v>
+        <v>22.26929084556083</v>
       </c>
       <c r="N11" t="n">
-        <v>683.476329782018</v>
+        <v>679.4985913959142</v>
       </c>
       <c r="O11" t="n">
-        <v>26.14338022869304</v>
+        <v>26.06719377677456</v>
       </c>
       <c r="P11" t="n">
-        <v>322.9480479894359</v>
+        <v>323.0524755215521</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27336,28 +27509,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2229233930211633</v>
+        <v>-0.2382889405953518</v>
       </c>
       <c r="J12" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K12" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003470190178910815</v>
+        <v>0.004000425509807393</v>
       </c>
       <c r="M12" t="n">
-        <v>21.00196797141026</v>
+        <v>20.95404878750786</v>
       </c>
       <c r="N12" t="n">
-        <v>617.0851598815607</v>
+        <v>614.2592530674465</v>
       </c>
       <c r="O12" t="n">
-        <v>24.84119884147222</v>
+        <v>24.78425413579046</v>
       </c>
       <c r="P12" t="n">
-        <v>324.4843720998017</v>
+        <v>324.6722394486726</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27414,28 +27587,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4783231719762238</v>
+        <v>-0.3188347343656229</v>
       </c>
       <c r="J13" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K13" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02015663073344898</v>
+        <v>0.006513242841705069</v>
       </c>
       <c r="M13" t="n">
-        <v>16.98481075973655</v>
+        <v>17.7082676606487</v>
       </c>
       <c r="N13" t="n">
-        <v>483.1806022388601</v>
+        <v>675.4340199829014</v>
       </c>
       <c r="O13" t="n">
-        <v>21.98136943502065</v>
+        <v>25.98911348974607</v>
       </c>
       <c r="P13" t="n">
-        <v>333.8555306963061</v>
+        <v>331.9188752074357</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27492,28 +27665,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.4970513189707151</v>
+        <v>-0.3526761580857745</v>
       </c>
       <c r="J14" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K14" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L14" t="n">
-        <v>0.02783157986640628</v>
+        <v>0.01012832877177128</v>
       </c>
       <c r="M14" t="n">
-        <v>15.44831668346256</v>
+        <v>16.18963319211668</v>
       </c>
       <c r="N14" t="n">
-        <v>388.225039541504</v>
+        <v>548.2776289116706</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7034271014335</v>
+        <v>23.41532893024718</v>
       </c>
       <c r="P14" t="n">
-        <v>331.6669537785399</v>
+        <v>329.9377140180737</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27570,28 +27743,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3226788114255</v>
+        <v>-0.2059837719136496</v>
       </c>
       <c r="J15" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K15" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01438776522164431</v>
+        <v>0.004440808568135002</v>
       </c>
       <c r="M15" t="n">
-        <v>13.90075152646556</v>
+        <v>14.46862992828636</v>
       </c>
       <c r="N15" t="n">
-        <v>312.1918068129505</v>
+        <v>417.3455506394739</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66895035968324</v>
+        <v>20.42903694840934</v>
       </c>
       <c r="P15" t="n">
-        <v>334.2918841954661</v>
+        <v>332.8661084550069</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27648,28 +27821,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4382111070505774</v>
+        <v>-0.3488907454085856</v>
       </c>
       <c r="J16" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K16" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02838384490358059</v>
+        <v>0.01511175694103761</v>
       </c>
       <c r="M16" t="n">
-        <v>13.24289000880053</v>
+        <v>13.61683603409829</v>
       </c>
       <c r="N16" t="n">
-        <v>294.1751500637708</v>
+        <v>356.7132512294177</v>
       </c>
       <c r="O16" t="n">
-        <v>17.15153491859463</v>
+        <v>18.88685392619474</v>
       </c>
       <c r="P16" t="n">
-        <v>333.6728817927461</v>
+        <v>332.5933326680141</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27707,7 +27880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q424"/>
+  <dimension ref="A1:Q427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58133,7 +58306,11 @@
           <t>-45.89710734431285,170.64793026636914</t>
         </is>
       </c>
-      <c r="I424" t="inlineStr"/>
+      <c r="I424" t="inlineStr">
+        <is>
+          <t>-45.896774825697364,170.64715781471722</t>
+        </is>
+      </c>
       <c r="J424" t="inlineStr">
         <is>
           <t>-45.896584907191894,170.6463076801316</t>
@@ -58170,6 +58347,187 @@
         </is>
       </c>
       <c r="Q424" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:14:30+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>-45.898988771777894,170.65238614198208</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>-45.89812196663047,170.65222233273767</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr"/>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>-45.897586771772914,170.650538681242</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>-45.89730518623154,170.6497429828342</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>-45.89712417845659,170.64887929960264</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>-45.89682410768726,170.648081308194</t>
+        </is>
+      </c>
+      <c r="I425" t="inlineStr">
+        <is>
+          <t>-45.896541621016944,170.6472542677735</t>
+        </is>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>-45.89639034406605,170.64635974364032</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>-45.896267305034414,170.64547241053322</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>-45.896129806770084,170.64459471652987</t>
+        </is>
+      </c>
+      <c r="M425" t="inlineStr"/>
+      <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr">
+        <is>
+          <t>-45.8958261316937,170.64104008571954</t>
+        </is>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:50+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>-45.89915967783664,170.65219326001971</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr"/>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>-45.89811989824599,170.65108260405097</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>-45.89757536041084,170.6505494744963</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>-45.8974165779031,170.64872337373652</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>-45.89698978343686,170.64799295836102</t>
+        </is>
+      </c>
+      <c r="I426" t="inlineStr">
+        <is>
+          <t>-45.8967736155918,170.6471583152171</t>
+        </is>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>-45.89628536840055,170.64638783410783</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>-45.89617108655334,170.64549520107906</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>-45.89611471717917,170.64459829084885</t>
+        </is>
+      </c>
+      <c r="M426" t="inlineStr"/>
+      <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:54+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr"/>
+      <c r="C427" t="inlineStr"/>
+      <c r="D427" t="inlineStr"/>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>-45.89762086951989,170.648614431449</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>-45.89842111796843,170.6431363333205</t>
+        </is>
+      </c>
+      <c r="N427" t="inlineStr">
+        <is>
+          <t>-45.89804211217083,170.64223860786512</t>
+        </is>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>-45.89760309138932,170.64138580855013</t>
+        </is>
+      </c>
+      <c r="P427" t="inlineStr">
+        <is>
+          <t>-45.89707607829846,170.64063567509214</t>
+        </is>
+      </c>
+      <c r="Q427" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q427"/>
+  <dimension ref="A1:Q434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21480,14 +21480,18 @@
       <c r="B426" t="n">
         <v>399.095</v>
       </c>
-      <c r="C426" t="inlineStr"/>
+      <c r="C426" t="n">
+        <v>365.975</v>
+      </c>
       <c r="D426" t="n">
         <v>358.5796774193548</v>
       </c>
       <c r="E426" t="n">
         <v>334.98</v>
       </c>
-      <c r="F426" t="inlineStr"/>
+      <c r="F426" t="n">
+        <v>381.512380952381</v>
+      </c>
       <c r="G426" t="n">
         <v>374.5</v>
       </c>
@@ -21535,19 +21539,330 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
-      <c r="M427" t="n">
-        <v>575.3657142857144</v>
-      </c>
-      <c r="N427" t="n">
-        <v>544.0914285714285</v>
-      </c>
-      <c r="O427" t="n">
-        <v>509.5633333333333</v>
-      </c>
-      <c r="P427" t="n">
-        <v>463.7866666666667</v>
-      </c>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
       <c r="Q427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>374.735</v>
+      </c>
+      <c r="C428" t="n">
+        <v>357.165</v>
+      </c>
+      <c r="D428" t="n">
+        <v>356.4793548387097</v>
+      </c>
+      <c r="E428" t="n">
+        <v>353.26</v>
+      </c>
+      <c r="F428" t="n">
+        <v>352.2480952380952</v>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="n">
+        <v>349.8766666666667</v>
+      </c>
+      <c r="I428" t="n">
+        <v>345.47</v>
+      </c>
+      <c r="J428" t="n">
+        <v>328.25</v>
+      </c>
+      <c r="K428" t="n">
+        <v>295.9471428571428</v>
+      </c>
+      <c r="L428" t="n">
+        <v>333.3866666666667</v>
+      </c>
+      <c r="M428" t="n">
+        <v>339.1971428571428</v>
+      </c>
+      <c r="N428" t="n">
+        <v>346.7342857142857</v>
+      </c>
+      <c r="O428" t="n">
+        <v>359.2566666666667</v>
+      </c>
+      <c r="P428" t="n">
+        <v>339.4233333333333</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="n">
+        <v>294.9929032258065</v>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="n">
+        <v>431.6</v>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>303.98</v>
+      </c>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>379.13</v>
+      </c>
+      <c r="C430" t="n">
+        <v>318.6</v>
+      </c>
+      <c r="D430" t="n">
+        <v>320.7258064516129</v>
+      </c>
+      <c r="E430" t="n">
+        <v>339.37</v>
+      </c>
+      <c r="F430" t="n">
+        <v>337.4319047619048</v>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="n">
+        <v>339.1933333333333</v>
+      </c>
+      <c r="I430" t="n">
+        <v>331.24</v>
+      </c>
+      <c r="J430" t="n">
+        <v>308.73</v>
+      </c>
+      <c r="K430" t="n">
+        <v>302.6928571428572</v>
+      </c>
+      <c r="L430" t="n">
+        <v>311.9233333333333</v>
+      </c>
+      <c r="M430" t="n">
+        <v>306.5028571428572</v>
+      </c>
+      <c r="N430" t="n">
+        <v>333.6357142857143</v>
+      </c>
+      <c r="O430" t="n">
+        <v>332.0933333333333</v>
+      </c>
+      <c r="P430" t="n">
+        <v>332.1766666666667</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="n">
+        <v>315.4085714285715</v>
+      </c>
+      <c r="N431" t="n">
+        <v>307.7271428571429</v>
+      </c>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>382.975</v>
+      </c>
+      <c r="C432" t="n">
+        <v>337.165</v>
+      </c>
+      <c r="D432" t="n">
+        <v>333.8003225806452</v>
+      </c>
+      <c r="E432" t="n">
+        <v>337.53</v>
+      </c>
+      <c r="F432" t="n">
+        <v>342.1576190476191</v>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="n">
+        <v>332.1333333333333</v>
+      </c>
+      <c r="I432" t="n">
+        <v>322.58</v>
+      </c>
+      <c r="J432" t="n">
+        <v>306.35</v>
+      </c>
+      <c r="K432" t="n">
+        <v>286.7414285714286</v>
+      </c>
+      <c r="L432" t="n">
+        <v>303.4733333333333</v>
+      </c>
+      <c r="M432" t="n">
+        <v>323.3614285714286</v>
+      </c>
+      <c r="N432" t="n">
+        <v>314.7328571428571</v>
+      </c>
+      <c r="O432" t="n">
+        <v>334.0833333333333</v>
+      </c>
+      <c r="P432" t="n">
+        <v>311.6066666666667</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>390.26</v>
+      </c>
+      <c r="C433" t="n">
+        <v>332.38</v>
+      </c>
+      <c r="D433" t="n">
+        <v>334.6341935483871</v>
+      </c>
+      <c r="E433" t="n">
+        <v>345.37</v>
+      </c>
+      <c r="F433" t="n">
+        <v>349.0928571428572</v>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="n">
+        <v>339.46</v>
+      </c>
+      <c r="I433" t="n">
+        <v>335.53</v>
+      </c>
+      <c r="J433" t="n">
+        <v>310.03</v>
+      </c>
+      <c r="K433" t="n">
+        <v>298.5542857142857</v>
+      </c>
+      <c r="L433" t="n">
+        <v>318.91</v>
+      </c>
+      <c r="M433" t="n">
+        <v>332.1342857142857</v>
+      </c>
+      <c r="N433" t="n">
+        <v>331.7485714285714</v>
+      </c>
+      <c r="O433" t="n">
+        <v>334.06</v>
+      </c>
+      <c r="P433" t="n">
+        <v>330.45</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="n">
+        <v>610.6600000000001</v>
+      </c>
+      <c r="H434" t="n">
+        <v>307.79</v>
+      </c>
+      <c r="I434" t="n">
+        <v>295.78</v>
+      </c>
+      <c r="J434" t="n">
+        <v>274.54</v>
+      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -21564,7 +21879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26562,6 +26877,76 @@
       </c>
       <c r="B499" t="n">
         <v>-0.82</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +27114,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>0.3113945878828062</v>
+        <v>0.2947861359459799</v>
       </c>
       <c r="J2" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01220187964338937</v>
+        <v>0.01119132383077648</v>
       </c>
       <c r="M2" t="n">
-        <v>13.59098413490259</v>
+        <v>13.51010958819504</v>
       </c>
       <c r="N2" t="n">
-        <v>319.0548376137987</v>
+        <v>315.7349749675822</v>
       </c>
       <c r="O2" t="n">
-        <v>17.8621061919864</v>
+        <v>17.76893285956087</v>
       </c>
       <c r="P2" t="n">
-        <v>379.6408982617117</v>
+        <v>379.8499238289905</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26807,28 +27192,28 @@
         <v>0.1081</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3362128218412896</v>
+        <v>-0.2673590558051277</v>
       </c>
       <c r="J3" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01283608887256238</v>
+        <v>0.0081583451256666</v>
       </c>
       <c r="M3" t="n">
-        <v>15.81441310474542</v>
+        <v>15.89360414284613</v>
       </c>
       <c r="N3" t="n">
-        <v>366.8059222672388</v>
+        <v>372.0759558052403</v>
       </c>
       <c r="O3" t="n">
-        <v>19.15217800322561</v>
+        <v>19.28927048400847</v>
       </c>
       <c r="P3" t="n">
-        <v>330.6016029768844</v>
+        <v>329.7544934028857</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26885,28 +27270,28 @@
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04219640410250472</v>
+        <v>-0.01950493323271036</v>
       </c>
       <c r="J4" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001906505786983814</v>
+        <v>4.117365273126339e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>16.58052742653358</v>
+        <v>16.57893226310702</v>
       </c>
       <c r="N4" t="n">
-        <v>387.4531444040144</v>
+        <v>388.4866626000137</v>
       </c>
       <c r="O4" t="n">
-        <v>19.68382951572215</v>
+        <v>19.71006500750349</v>
       </c>
       <c r="P4" t="n">
-        <v>322.0659961537131</v>
+        <v>321.7829568202278</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26963,28 +27348,28 @@
         <v>0.1278</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06831130308838322</v>
+        <v>0.103718428221124</v>
       </c>
       <c r="J5" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006663780559835741</v>
+        <v>0.00155554201128727</v>
       </c>
       <c r="M5" t="n">
-        <v>14.64507062671593</v>
+        <v>14.60633855242192</v>
       </c>
       <c r="N5" t="n">
-        <v>300.9478792699954</v>
+        <v>300.1387565954636</v>
       </c>
       <c r="O5" t="n">
-        <v>17.34784941339979</v>
+        <v>17.32451317051834</v>
       </c>
       <c r="P5" t="n">
-        <v>327.8552700669255</v>
+        <v>327.4228449515813</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27041,28 +27426,28 @@
         <v>0.1468</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1879607175154313</v>
+        <v>0.2557155309329478</v>
       </c>
       <c r="J6" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K6" t="n">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005255791781306529</v>
+        <v>0.009586809549766206</v>
       </c>
       <c r="M6" t="n">
-        <v>14.386586108267</v>
+        <v>14.45404435563183</v>
       </c>
       <c r="N6" t="n">
-        <v>289.682644593647</v>
+        <v>296.2469435675556</v>
       </c>
       <c r="O6" t="n">
-        <v>17.02006593975614</v>
+        <v>17.21182568955297</v>
       </c>
       <c r="P6" t="n">
-        <v>324.9179648383791</v>
+        <v>324.0900065938038</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27119,28 +27504,28 @@
         <v>0.0562</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4629889348851825</v>
+        <v>0.6930309579485285</v>
       </c>
       <c r="J7" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K7" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03648901872800991</v>
+        <v>0.04038202831513726</v>
       </c>
       <c r="M7" t="n">
-        <v>12.78198379194799</v>
+        <v>13.89031848349278</v>
       </c>
       <c r="N7" t="n">
-        <v>251.6839551826531</v>
+        <v>510.0870727712252</v>
       </c>
       <c r="O7" t="n">
-        <v>15.86455026726737</v>
+        <v>22.58510732255274</v>
       </c>
       <c r="P7" t="n">
-        <v>318.2961589255561</v>
+        <v>315.520994833039</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27197,28 +27582,28 @@
         <v>0.0725</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5841888332739609</v>
+        <v>0.5859932121164781</v>
       </c>
       <c r="J8" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K8" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05149415189887974</v>
+        <v>0.05262855662394994</v>
       </c>
       <c r="M8" t="n">
-        <v>13.16837313010262</v>
+        <v>13.13586362099482</v>
       </c>
       <c r="N8" t="n">
-        <v>282.2089681590801</v>
+        <v>280.941146463686</v>
       </c>
       <c r="O8" t="n">
-        <v>16.79907640791839</v>
+        <v>16.76129906849961</v>
       </c>
       <c r="P8" t="n">
-        <v>317.8451428721474</v>
+        <v>317.8240545165669</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27275,28 +27660,28 @@
         <v>0.0616</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1891087272507629</v>
+        <v>0.2038371283523177</v>
       </c>
       <c r="J9" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002711314189121405</v>
+        <v>0.003211815178432054</v>
       </c>
       <c r="M9" t="n">
-        <v>20.74351306554307</v>
+        <v>20.64423133955823</v>
       </c>
       <c r="N9" t="n">
-        <v>600.3134694455999</v>
+        <v>595.7242038017306</v>
       </c>
       <c r="O9" t="n">
-        <v>24.50129526056939</v>
+        <v>24.40746205162943</v>
       </c>
       <c r="P9" t="n">
-        <v>316.3028978631031</v>
+        <v>316.1279190542463</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27353,28 +27738,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.3486398145413544</v>
+        <v>-0.3880729832787626</v>
       </c>
       <c r="J10" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K10" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008379520766965243</v>
+        <v>0.01053380624688183</v>
       </c>
       <c r="M10" t="n">
-        <v>20.43930058298377</v>
+        <v>20.41086675978404</v>
       </c>
       <c r="N10" t="n">
-        <v>642.5114240827045</v>
+        <v>639.6221307068873</v>
       </c>
       <c r="O10" t="n">
-        <v>25.34780905882606</v>
+        <v>25.29075188101151</v>
       </c>
       <c r="P10" t="n">
-        <v>327.4653762087563</v>
+        <v>327.9426721725033</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27431,28 +27816,28 @@
         <v>0.1021</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.363741980448138</v>
+        <v>-0.413556005808514</v>
       </c>
       <c r="J11" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008565457896537398</v>
+        <v>0.01127862385420475</v>
       </c>
       <c r="M11" t="n">
-        <v>22.26929084556083</v>
+        <v>22.17348084794313</v>
       </c>
       <c r="N11" t="n">
-        <v>679.4985913959142</v>
+        <v>673.1381658654612</v>
       </c>
       <c r="O11" t="n">
-        <v>26.06719377677456</v>
+        <v>25.9449063568451</v>
       </c>
       <c r="P11" t="n">
-        <v>323.0524755215521</v>
+        <v>323.6582931209031</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27509,28 +27894,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.2382889405953518</v>
+        <v>-0.2420431516793695</v>
       </c>
       <c r="J12" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K12" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004000425509807393</v>
+        <v>0.00420612785185237</v>
       </c>
       <c r="M12" t="n">
-        <v>20.95404878750786</v>
+        <v>20.81367985901572</v>
       </c>
       <c r="N12" t="n">
-        <v>614.2592530674465</v>
+        <v>608.33401739156</v>
       </c>
       <c r="O12" t="n">
-        <v>24.78425413579046</v>
+        <v>24.66442817888872</v>
       </c>
       <c r="P12" t="n">
-        <v>324.6722394486726</v>
+        <v>324.7184966311633</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27587,28 +27972,28 @@
         <v>0.0939</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3188347343656229</v>
+        <v>-0.4724890380174424</v>
       </c>
       <c r="J13" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K13" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006513242841705069</v>
+        <v>0.02014081421904279</v>
       </c>
       <c r="M13" t="n">
-        <v>17.7082676606487</v>
+        <v>16.88257521501585</v>
       </c>
       <c r="N13" t="n">
-        <v>675.4340199829014</v>
+        <v>478.0212726086951</v>
       </c>
       <c r="O13" t="n">
-        <v>25.98911348974607</v>
+        <v>21.8636975969001</v>
       </c>
       <c r="P13" t="n">
-        <v>331.9188752074357</v>
+        <v>333.7846098393182</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27665,28 +28050,28 @@
         <v>0.0454</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3526761580857745</v>
+        <v>-0.4716907325619485</v>
       </c>
       <c r="J14" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K14" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01012832877177128</v>
+        <v>0.02557606559318215</v>
       </c>
       <c r="M14" t="n">
-        <v>16.18963319211668</v>
+        <v>15.43808867138386</v>
       </c>
       <c r="N14" t="n">
-        <v>548.2776289116706</v>
+        <v>386.1890777336206</v>
       </c>
       <c r="O14" t="n">
-        <v>23.41532893024718</v>
+        <v>19.65169401689383</v>
       </c>
       <c r="P14" t="n">
-        <v>329.9377140180737</v>
+        <v>331.3629856248739</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27743,28 +28128,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2059837719136496</v>
+        <v>-0.2879776773065089</v>
       </c>
       <c r="J15" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K15" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004440808568135002</v>
+        <v>0.01160149791835219</v>
       </c>
       <c r="M15" t="n">
-        <v>14.46862992828636</v>
+        <v>13.90203023625526</v>
       </c>
       <c r="N15" t="n">
-        <v>417.3455506394739</v>
+        <v>312.2214270624483</v>
       </c>
       <c r="O15" t="n">
-        <v>20.42903694840934</v>
+        <v>17.66978854039992</v>
       </c>
       <c r="P15" t="n">
-        <v>332.8661084550069</v>
+        <v>333.8675032121754</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27821,28 +28206,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.3488907454085856</v>
+        <v>-0.4235510626457458</v>
       </c>
       <c r="J16" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="K16" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01511175694103761</v>
+        <v>0.02713037386178763</v>
       </c>
       <c r="M16" t="n">
-        <v>13.61683603409829</v>
+        <v>13.17763577831387</v>
       </c>
       <c r="N16" t="n">
-        <v>356.7132512294177</v>
+        <v>291.2747422502296</v>
       </c>
       <c r="O16" t="n">
-        <v>18.88685392619474</v>
+        <v>17.06677304736398</v>
       </c>
       <c r="P16" t="n">
-        <v>332.5933326680141</v>
+        <v>333.4955574155401</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27880,7 +28265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q427"/>
+  <dimension ref="A1:Q434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58434,7 +58819,11 @@
           <t>-45.89915967783664,170.65219326001971</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr"/>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>-45.89854889589138,170.6517405126917</t>
+        </is>
+      </c>
       <c r="D426" t="inlineStr">
         <is>
           <t>-45.89811989824599,170.65108260405097</t>
@@ -58445,7 +58834,11 @@
           <t>-45.89757536041084,170.6505494744963</t>
         </is>
       </c>
-      <c r="F426" t="inlineStr"/>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>-45.89767078688377,170.64950458877058</t>
+        </is>
+      </c>
       <c r="G426" t="inlineStr">
         <is>
           <t>-45.8974165779031,170.64872337373652</t>
@@ -58507,27 +58900,460 @@
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr"/>
-      <c r="M427" t="inlineStr">
-        <is>
-          <t>-45.89842111796843,170.6431363333205</t>
-        </is>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>-45.89804211217083,170.64223860786512</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>-45.89760309138932,170.64138580855013</t>
-        </is>
-      </c>
-      <c r="P427" t="inlineStr">
-        <is>
-          <t>-45.89707607829846,170.64063567509214</t>
-        </is>
-      </c>
+      <c r="M427" t="inlineStr"/>
+      <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
       <c r="Q427" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>-45.89898753511916,170.65238753765038</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>-45.89848663919205,170.65181077442475</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>-45.89810505618519,170.65109935458855</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>-45.89771259698003,170.6504196711149</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>-45.89743116674893,170.6496608362098</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>-45.89700285200391,170.6479859892671</t>
+        </is>
+      </c>
+      <c r="I428" t="inlineStr">
+        <is>
+          <t>-45.89676168740832,170.64716324871466</t>
+        </is>
+      </c>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>-45.89649682316313,170.64633125075025</t>
+        </is>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>-45.89612047928119,170.645507188007</t>
+        </is>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>-45.89636334035627,170.64453939841962</t>
+        </is>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>-45.896325437478545,170.64363810704398</t>
+        </is>
+      </c>
+      <c r="N428" t="inlineStr">
+        <is>
+          <t>-45.89630010088435,170.64273078760465</t>
+        </is>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>-45.89628404910454,170.64181256682164</t>
+        </is>
+      </c>
+      <c r="P428" t="inlineStr">
+        <is>
+          <t>-45.89598470799523,170.64098878067585</t>
+        </is>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-01 22:20:53+00:00</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>-45.897670557149794,170.6515897186689</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>-45.897898007801274,170.64846664090194</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>-45.896191780882006,170.6454902993769</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr"/>
+      <c r="M429" t="inlineStr"/>
+      <c r="N429" t="inlineStr"/>
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>-45.899018592914274,170.65235248641855</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>-45.898214115415335,170.65211833711805</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>-45.89785240109147,170.65138449567365</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>-45.89760831822323,170.6505183018615</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>-45.89730984957844,170.64973994206838</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>-45.89691277724634,170.64803402349085</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>-45.89663868880449,170.6472141208107</t>
+        </is>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>-45.896324192594854,170.64637744514445</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>-45.896180355888085,170.64549300552545</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>-45.89617282689687,170.64458452620494</t>
+        </is>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>-45.89603531909351,170.64370756748676</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr">
+        <is>
+          <t>-45.896184483677196,170.6427634523548</t>
+        </is>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>-45.896045672308475,170.64188968804427</t>
+        </is>
+      </c>
+      <c r="P430" t="inlineStr">
+        <is>
+          <t>-45.8959211136661,170.6410093557296</t>
+        </is>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
+      <c r="M431" t="inlineStr">
+        <is>
+          <t>-45.896114345492656,170.643688646984</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>-45.89595579635573,170.64282806179924</t>
+        </is>
+      </c>
+      <c r="O431" t="inlineStr"/>
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:14:44+00:00</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>-45.8990457640588,170.6523218215429</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>-45.8983453071239,170.6519702783392</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>-45.89794479321615,170.65128022431938</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>-45.89759450447157,170.6505313673895</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>-45.89734854443656,170.64971471081083</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>-45.896853252010885,170.6480657664561</t>
+        </is>
+      </c>
+      <c r="I432" t="inlineStr">
+        <is>
+          <t>-45.89656383510708,170.6472450801021</t>
+        </is>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>-45.89630314439859,170.64638307743178</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>-45.89603876710896,170.6455265424457</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>-45.896097822754626,170.64460229268198</t>
+        </is>
+      </c>
+      <c r="M432" t="inlineStr">
+        <is>
+          <t>-45.89618491654443,170.64367175081068</t>
+        </is>
+      </c>
+      <c r="N432" t="inlineStr">
+        <is>
+          <t>-45.89601763373571,170.64281059137016</t>
+        </is>
+      </c>
+      <c r="O432" t="inlineStr">
+        <is>
+          <t>-45.89606313591968,170.64188403812693</t>
+        </is>
+      </c>
+      <c r="P432" t="inlineStr">
+        <is>
+          <t>-45.895740598179685,170.64106775870448</t>
+        </is>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>-45.899097244343224,170.65226372168937</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>-45.89831149339077,170.65200843952985</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>-45.89795068582923,170.6512735740534</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>-45.89765336305413,170.65047569683324</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>-45.89740533119564,170.64967768252785</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>-45.896915025602524,170.64803282451064</t>
+        </is>
+      </c>
+      <c r="I433" t="inlineStr">
+        <is>
+          <t>-45.896675769904604,170.64719878413183</t>
+        </is>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>-45.89633568950861,170.64637436868307</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>-45.89614362091805,170.64550170664097</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>-45.89623484215265,170.64456983640812</t>
+        </is>
+      </c>
+      <c r="M433" t="inlineStr">
+        <is>
+          <t>-45.89626276400305,170.64365311245976</t>
+        </is>
+      </c>
+      <c r="N433" t="inlineStr">
+        <is>
+          <t>-45.896167826425454,170.64276815843238</t>
+        </is>
+      </c>
+      <c r="O433" t="inlineStr">
+        <is>
+          <t>-45.89606293115372,170.6418841043739</t>
+        </is>
+      </c>
+      <c r="P433" t="inlineStr">
+        <is>
+          <t>-45.895905961014684,170.64101425815</t>
+        </is>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:21:04+00:00</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>-45.899407720203016,170.64766152218718</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>-45.89664800509468,170.64817521770127</t>
+        </is>
+      </c>
+      <c r="I434" t="inlineStr">
+        <is>
+          <t>-45.8963321861822,170.64734088890583</t>
+        </is>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>-45.89602182371703,170.64645835558989</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
+      <c r="M434" t="inlineStr"/>
+      <c r="N434" t="inlineStr"/>
+      <c r="O434" t="inlineStr"/>
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -21860,8 +21860,12 @@
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr"/>
-      <c r="O434" t="inlineStr"/>
-      <c r="P434" t="inlineStr"/>
+      <c r="O434" t="n">
+        <v>497.77</v>
+      </c>
+      <c r="P434" t="n">
+        <v>531.4400000000001</v>
+      </c>
       <c r="Q434" t="inlineStr">
         <is>
           <t>L9</t>
@@ -21879,7 +21883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26947,6 +26951,16 @@
       </c>
       <c r="B506" t="n">
         <v>-0.39</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.05</v>
       </c>
     </row>
   </sheetData>
@@ -59351,8 +59365,16 @@
       <c r="L434" t="inlineStr"/>
       <c r="M434" t="inlineStr"/>
       <c r="N434" t="inlineStr"/>
-      <c r="O434" t="inlineStr"/>
-      <c r="P434" t="inlineStr"/>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>-45.89749959702432,170.64141929355108</t>
+        </is>
+      </c>
+      <c r="P434" t="inlineStr">
+        <is>
+          <t>-45.89766978028311,170.64044358040826</t>
+        </is>
+      </c>
       <c r="Q434" t="inlineStr">
         <is>
           <t>L9</t>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -28142,28 +28142,28 @@
         <v>0.0801</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2879776773065089</v>
+        <v>-0.1817240039760632</v>
       </c>
       <c r="J15" t="n">
         <v>433</v>
       </c>
       <c r="K15" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01160149791835219</v>
+        <v>0.003620353314863101</v>
       </c>
       <c r="M15" t="n">
-        <v>13.90203023625526</v>
+        <v>14.41184446331285</v>
       </c>
       <c r="N15" t="n">
-        <v>312.2214270624483</v>
+        <v>402.562797448956</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66978854039992</v>
+        <v>20.06396763975052</v>
       </c>
       <c r="P15" t="n">
-        <v>333.8675032121754</v>
+        <v>332.563992531574</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28220,28 +28220,28 @@
         <v>0.0339</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4235510626457458</v>
+        <v>-0.2940312708324525</v>
       </c>
       <c r="J16" t="n">
         <v>433</v>
       </c>
       <c r="K16" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02713037386178763</v>
+        <v>0.009059948807883855</v>
       </c>
       <c r="M16" t="n">
-        <v>13.17763577831387</v>
+        <v>13.80668646692597</v>
       </c>
       <c r="N16" t="n">
-        <v>291.2747422502296</v>
+        <v>429.1238647449513</v>
       </c>
       <c r="O16" t="n">
-        <v>17.06677304736398</v>
+        <v>20.7153050845251</v>
       </c>
       <c r="P16" t="n">
-        <v>333.4955574155401</v>
+        <v>331.9235777857645</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -27124,9 +27124,15 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2</v>
+      </c>
       <c r="I2" t="n">
         <v>0.2948359303042782</v>
       </c>
@@ -27197,13 +27203,13 @@
         <v>0.9284937882312215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0655</v>
+        <v>0.1143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1081</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>-0.267375835804999</v>
@@ -27275,10 +27281,10 @@
         <v>0.8569875764611199</v>
       </c>
       <c r="F4" t="n">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1072</v>
+        <v>0.1376</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
@@ -27353,13 +27359,13 @@
         <v>0.7854813646910184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0794</v>
+        <v>0.1307</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1278</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.1037184282211242</v>
@@ -27431,13 +27437,13 @@
         <v>0.714830784697961</v>
       </c>
       <c r="F6" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0838</v>
+        <v>0.1211</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1468</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.2557170719869346</v>
@@ -27509,13 +27515,13 @@
         <v>0.6433245729299968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0442</v>
+        <v>0.0975</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0562</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.6930309579485284</v>
@@ -27587,13 +27593,13 @@
         <v>0.5718183611595178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0539</v>
+        <v>0.0881</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0725</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>0.5860094896218666</v>
@@ -27665,13 +27671,13 @@
         <v>0.5003121493911145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.042</v>
+        <v>0.0883</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0616</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.2038371283523176</v>
@@ -27743,10 +27749,10 @@
         <v>0.4290305321960109</v>
       </c>
       <c r="F10" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0877</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
@@ -27821,13 +27827,13 @@
         <v>0.3575243204258433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0509</v>
+        <v>0.0799</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1021</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-0.4135587671452213</v>
@@ -27899,13 +27905,13 @@
         <v>0.2860181086555803</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0479</v>
+        <v>0.0455</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2420237472461351</v>
@@ -27980,10 +27986,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0544</v>
+        <v>0.0445</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0939</v>
+        <v>0.1416</v>
       </c>
       <c r="I13" t="n">
         <v>-0.4724816986408512</v>
@@ -28055,13 +28061,13 @@
         <v>0.1430124235402691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.035</v>
+        <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0301</v>
+        <v>0.054</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0454</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>-0.4716980888370391</v>
@@ -28133,13 +28139,13 @@
         <v>0.07150621177020129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0491</v>
+        <v>0.0399</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0801</v>
+        <v>0.0906</v>
       </c>
       <c r="I15" t="n">
         <v>-0.1817071945250855</v>
@@ -28217,7 +28223,7 @@
         <v>0.0287</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0339</v>
+        <v>0.035</v>
       </c>
       <c r="I16" t="n">
         <v>-0.2940305997639961</v>

--- a/data/nzd0509/nzd0509.xlsx
+++ b/data/nzd0509/nzd0509.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:Q436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>358.06</v>
+        <v>357.34</v>
       </c>
       <c r="N2" t="n">
         <v>353.72</v>
@@ -639,7 +639,7 @@
         <v>315.35</v>
       </c>
       <c r="M4" t="n">
-        <v>330.3</v>
+        <v>330.33</v>
       </c>
       <c r="N4" t="n">
         <v>321.55</v>
@@ -696,7 +696,7 @@
         <v>315.35</v>
       </c>
       <c r="M5" t="n">
-        <v>330.3</v>
+        <v>330.33</v>
       </c>
       <c r="N5" t="n">
         <v>328.89</v>
@@ -753,7 +753,7 @@
         <v>307.12</v>
       </c>
       <c r="M6" t="n">
-        <v>332.59</v>
+        <v>332.46</v>
       </c>
       <c r="N6" t="n">
         <v>334.43</v>
@@ -810,7 +810,7 @@
         <v>313.86</v>
       </c>
       <c r="M7" t="n">
-        <v>332.27</v>
+        <v>332.04</v>
       </c>
       <c r="N7" t="n">
         <v>334.08</v>
@@ -867,7 +867,7 @@
         <v>316.82</v>
       </c>
       <c r="M8" t="n">
-        <v>329.29</v>
+        <v>329.28</v>
       </c>
       <c r="N8" t="n">
         <v>334.08</v>
@@ -924,7 +924,7 @@
         <v>335.19</v>
       </c>
       <c r="M9" t="n">
-        <v>331.4</v>
+        <v>331.7</v>
       </c>
       <c r="N9" t="n">
         <v>335.06</v>
@@ -981,7 +981,7 @@
         <v>333.95</v>
       </c>
       <c r="M10" t="n">
-        <v>326.52</v>
+        <v>327.28</v>
       </c>
       <c r="N10" t="n">
         <v>325.59</v>
@@ -1038,7 +1038,7 @@
         <v>308.7</v>
       </c>
       <c r="M11" t="n">
-        <v>315.42</v>
+        <v>316.16</v>
       </c>
       <c r="N11" t="n">
         <v>315.98</v>
@@ -1095,7 +1095,7 @@
         <v>316.5</v>
       </c>
       <c r="M12" t="n">
-        <v>322.89</v>
+        <v>323.53</v>
       </c>
       <c r="N12" t="n">
         <v>319.69</v>
@@ -1152,7 +1152,7 @@
         <v>323.64</v>
       </c>
       <c r="M13" t="n">
-        <v>329.34</v>
+        <v>329.66</v>
       </c>
       <c r="N13" t="n">
         <v>327.44</v>
@@ -1207,7 +1207,7 @@
         <v>349.63</v>
       </c>
       <c r="M14" t="n">
-        <v>352.33</v>
+        <v>351.6</v>
       </c>
       <c r="N14" t="n">
         <v>355.54</v>
@@ -1264,7 +1264,7 @@
         <v>354.19</v>
       </c>
       <c r="M15" t="n">
-        <v>329.85</v>
+        <v>329.46</v>
       </c>
       <c r="N15" t="n">
         <v>338.53</v>
@@ -1321,7 +1321,7 @@
         <v>344.88</v>
       </c>
       <c r="M16" t="n">
-        <v>329.73</v>
+        <v>329.6</v>
       </c>
       <c r="N16" t="n">
         <v>326.79</v>
@@ -1378,7 +1378,7 @@
         <v>322.64</v>
       </c>
       <c r="M17" t="n">
-        <v>332.72</v>
+        <v>332.86</v>
       </c>
       <c r="N17" t="n">
         <v>335.12</v>
@@ -1435,7 +1435,7 @@
         <v>322.64</v>
       </c>
       <c r="M18" t="n">
-        <v>332.72</v>
+        <v>332.86</v>
       </c>
       <c r="N18" t="n">
         <v>335.12</v>
@@ -1492,7 +1492,7 @@
         <v>330.92</v>
       </c>
       <c r="M19" t="n">
-        <v>336.59</v>
+        <v>336.21</v>
       </c>
       <c r="N19" t="n">
         <v>338.99</v>
@@ -1549,7 +1549,7 @@
         <v>332.03</v>
       </c>
       <c r="M20" t="n">
-        <v>338.15</v>
+        <v>337.59</v>
       </c>
       <c r="N20" t="n">
         <v>343.16</v>
@@ -1606,7 +1606,7 @@
         <v>333.81</v>
       </c>
       <c r="M21" t="n">
-        <v>337.75</v>
+        <v>336.92</v>
       </c>
       <c r="N21" t="n">
         <v>346.65</v>
@@ -1663,7 +1663,7 @@
         <v>335.95</v>
       </c>
       <c r="M22" t="n">
-        <v>338.69</v>
+        <v>337.88</v>
       </c>
       <c r="N22" t="n">
         <v>349.94</v>
@@ -1720,7 +1720,7 @@
         <v>335.55</v>
       </c>
       <c r="M23" t="n">
-        <v>339.75</v>
+        <v>339.26</v>
       </c>
       <c r="N23" t="n">
         <v>348.02</v>
@@ -1777,7 +1777,7 @@
         <v>341.72</v>
       </c>
       <c r="M24" t="n">
-        <v>346.57</v>
+        <v>346.65</v>
       </c>
       <c r="N24" t="n">
         <v>348.99</v>
@@ -1832,7 +1832,7 @@
         <v>322.72</v>
       </c>
       <c r="M25" t="n">
-        <v>349.18</v>
+        <v>349.5</v>
       </c>
       <c r="N25" t="n">
         <v>348.25</v>
@@ -1887,7 +1887,7 @@
         <v>322.45</v>
       </c>
       <c r="M26" t="n">
-        <v>341.62</v>
+        <v>341.82</v>
       </c>
       <c r="N26" t="n">
         <v>348.25</v>
@@ -1944,7 +1944,7 @@
         <v>326.51</v>
       </c>
       <c r="M27" t="n">
-        <v>340.77</v>
+        <v>340.76</v>
       </c>
       <c r="N27" t="n">
         <v>345.66</v>
@@ -2001,7 +2001,7 @@
         <v>326.51</v>
       </c>
       <c r="M28" t="n">
-        <v>340.77</v>
+        <v>340.76</v>
       </c>
       <c r="N28" t="n">
         <v>345.66</v>
@@ -2058,7 +2058,7 @@
         <v>330.18</v>
       </c>
       <c r="M29" t="n">
-        <v>342.65</v>
+        <v>342.74</v>
       </c>
       <c r="N29" t="n">
         <v>344.87</v>
@@ -2115,7 +2115,7 @@
         <v>330.74</v>
       </c>
       <c r="M30" t="n">
-        <v>342.06</v>
+        <v>342.17</v>
       </c>
       <c r="N30" t="n">
         <v>344.24</v>
@@ -2172,7 +2172,7 @@
         <v>332.81</v>
       </c>
       <c r="M31" t="n">
-        <v>343.24</v>
+        <v>343.34</v>
       </c>
       <c r="N31" t="n">
         <v>344.89</v>
@@ -2229,7 +2229,7 @@
         <v>330.14</v>
       </c>
       <c r="M32" t="n">
-        <v>341.42</v>
+        <v>341.49</v>
       </c>
       <c r="N32" t="n">
         <v>344.51</v>
@@ -2286,7 +2286,7 @@
         <v>330.14</v>
       </c>
       <c r="M33" t="n">
-        <v>341.42</v>
+        <v>341.49</v>
       </c>
       <c r="N33" t="n">
         <v>344.51</v>
@@ -2343,7 +2343,7 @@
         <v>336.55</v>
       </c>
       <c r="M34" t="n">
-        <v>340.81</v>
+        <v>340.72</v>
       </c>
       <c r="N34" t="n">
         <v>342.3</v>
@@ -2400,7 +2400,7 @@
         <v>339.68</v>
       </c>
       <c r="M35" t="n">
-        <v>345.02</v>
+        <v>345.08</v>
       </c>
       <c r="N35" t="n">
         <v>342.75</v>
@@ -2457,7 +2457,7 @@
         <v>333.29</v>
       </c>
       <c r="M36" t="n">
-        <v>343.32</v>
+        <v>343.22</v>
       </c>
       <c r="N36" t="n">
         <v>342.84</v>
@@ -2514,7 +2514,7 @@
         <v>308.36</v>
       </c>
       <c r="M37" t="n">
-        <v>312.29</v>
+        <v>312.15</v>
       </c>
       <c r="N37" t="n">
         <v>320.99</v>
@@ -2571,7 +2571,7 @@
         <v>308.27</v>
       </c>
       <c r="M38" t="n">
-        <v>308.41</v>
+        <v>308.32</v>
       </c>
       <c r="N38" t="n">
         <v>318.37</v>
@@ -2628,7 +2628,7 @@
         <v>313.05</v>
       </c>
       <c r="M39" t="n">
-        <v>315.05</v>
+        <v>314.94</v>
       </c>
       <c r="N39" t="n">
         <v>325.24</v>
@@ -2685,7 +2685,7 @@
         <v>307.5</v>
       </c>
       <c r="M40" t="n">
-        <v>320.54</v>
+        <v>320.3</v>
       </c>
       <c r="N40" t="n">
         <v>326.17</v>
@@ -2742,7 +2742,7 @@
         <v>301.64</v>
       </c>
       <c r="M41" t="n">
-        <v>322.85</v>
+        <v>322.74</v>
       </c>
       <c r="N41" t="n">
         <v>324.52</v>
@@ -2799,7 +2799,7 @@
         <v>301.64</v>
       </c>
       <c r="M42" t="n">
-        <v>322.85</v>
+        <v>322.74</v>
       </c>
       <c r="N42" t="n">
         <v>324.52</v>
@@ -2856,7 +2856,7 @@
         <v>300.57</v>
       </c>
       <c r="M43" t="n">
-        <v>324.79</v>
+        <v>324.6</v>
       </c>
       <c r="N43" t="n">
         <v>327.78</v>
@@ -2913,7 +2913,7 @@
         <v>297.41</v>
       </c>
       <c r="M44" t="n">
-        <v>327.01</v>
+        <v>326.79</v>
       </c>
       <c r="N44" t="n">
         <v>329.47</v>
@@ -2970,7 +2970,7 @@
         <v>292.7</v>
       </c>
       <c r="M45" t="n">
-        <v>325.55</v>
+        <v>325.48</v>
       </c>
       <c r="N45" t="n">
         <v>328.16</v>
@@ -3027,7 +3027,7 @@
         <v>288.65</v>
       </c>
       <c r="M46" t="n">
-        <v>325.55</v>
+        <v>325.48</v>
       </c>
       <c r="N46" t="n">
         <v>328.16</v>
@@ -3141,7 +3141,7 @@
         <v>292.97</v>
       </c>
       <c r="M48" t="n">
-        <v>325.98</v>
+        <v>325.9</v>
       </c>
       <c r="N48" t="n">
         <v>331.58</v>
@@ -3198,7 +3198,7 @@
         <v>300.6</v>
       </c>
       <c r="M49" t="n">
-        <v>332.86</v>
+        <v>332.6</v>
       </c>
       <c r="N49" t="n">
         <v>344.98</v>
@@ -3255,7 +3255,7 @@
         <v>317.5</v>
       </c>
       <c r="M50" t="n">
-        <v>334.67</v>
+        <v>334.19</v>
       </c>
       <c r="N50" t="n">
         <v>349.95</v>
@@ -3312,7 +3312,7 @@
         <v>343.12</v>
       </c>
       <c r="M51" t="n">
-        <v>340.59</v>
+        <v>340.12</v>
       </c>
       <c r="N51" t="n">
         <v>344.57</v>
@@ -3369,7 +3369,7 @@
         <v>347.56</v>
       </c>
       <c r="M52" t="n">
-        <v>344.7</v>
+        <v>344.17</v>
       </c>
       <c r="N52" t="n">
         <v>348.09</v>
@@ -3426,7 +3426,7 @@
         <v>343.15</v>
       </c>
       <c r="M53" t="n">
-        <v>344.97</v>
+        <v>344.62</v>
       </c>
       <c r="N53" t="n">
         <v>346.81</v>
@@ -3483,7 +3483,7 @@
         <v>346.19</v>
       </c>
       <c r="M54" t="n">
-        <v>347.71</v>
+        <v>347.52</v>
       </c>
       <c r="N54" t="n">
         <v>349.58</v>
@@ -3540,7 +3540,7 @@
         <v>346.19</v>
       </c>
       <c r="M55" t="n">
-        <v>347.71</v>
+        <v>347.52</v>
       </c>
       <c r="N55" t="n">
         <v>349.58</v>
@@ -3597,7 +3597,7 @@
         <v>345.22</v>
       </c>
       <c r="M56" t="n">
-        <v>347.17</v>
+        <v>347.18</v>
       </c>
       <c r="N56" t="n">
         <v>346.58</v>
@@ -3654,7 +3654,7 @@
         <v>307.29</v>
       </c>
       <c r="M57" t="n">
-        <v>346.05</v>
+        <v>346.43</v>
       </c>
       <c r="N57" t="n">
         <v>341.67</v>
@@ -3711,7 +3711,7 @@
         <v>311.16</v>
       </c>
       <c r="M58" t="n">
-        <v>337.49</v>
+        <v>338.04</v>
       </c>
       <c r="N58" t="n">
         <v>324.45</v>
@@ -3766,7 +3766,7 @@
         <v>319.77</v>
       </c>
       <c r="M59" t="n">
-        <v>332.74</v>
+        <v>333.3</v>
       </c>
       <c r="N59" t="n">
         <v>324.88</v>
@@ -3823,7 +3823,7 @@
         <v>292.44</v>
       </c>
       <c r="M60" t="n">
-        <v>323.52</v>
+        <v>324.01</v>
       </c>
       <c r="N60" t="n">
         <v>319.77</v>
@@ -3880,7 +3880,7 @@
         <v>307.98</v>
       </c>
       <c r="M61" t="n">
-        <v>328.2</v>
+        <v>328.21</v>
       </c>
       <c r="N61" t="n">
         <v>316.24</v>
@@ -3937,7 +3937,7 @@
         <v>308.03</v>
       </c>
       <c r="M62" t="n">
-        <v>324.48</v>
+        <v>324.61</v>
       </c>
       <c r="N62" t="n">
         <v>307.44</v>
@@ -3994,7 +3994,7 @@
         <v>309.2</v>
       </c>
       <c r="M63" t="n">
-        <v>322.19</v>
+        <v>322.27</v>
       </c>
       <c r="N63" t="n">
         <v>306.43</v>
@@ -4051,7 +4051,7 @@
         <v>314.1</v>
       </c>
       <c r="M64" t="n">
-        <v>323.73</v>
+        <v>323.78</v>
       </c>
       <c r="N64" t="n">
         <v>308.54</v>
@@ -4104,7 +4104,7 @@
         <v>345.14</v>
       </c>
       <c r="M65" t="n">
-        <v>353.25</v>
+        <v>353.13</v>
       </c>
       <c r="N65" t="n">
         <v>342.58</v>
@@ -4157,7 +4157,7 @@
         <v>342.62</v>
       </c>
       <c r="M66" t="n">
-        <v>349.61</v>
+        <v>349.88</v>
       </c>
       <c r="N66" t="n">
         <v>340.66</v>
@@ -4210,7 +4210,7 @@
         <v>345.57</v>
       </c>
       <c r="M67" t="n">
-        <v>359.43</v>
+        <v>359.28</v>
       </c>
       <c r="N67" t="n">
         <v>340.66</v>
@@ -4263,7 +4263,7 @@
         <v>345.57</v>
       </c>
       <c r="M68" t="n">
-        <v>359.43</v>
+        <v>359.28</v>
       </c>
       <c r="N68" t="n">
         <v>330.57</v>
@@ -4316,7 +4316,7 @@
         <v>345.57</v>
       </c>
       <c r="M69" t="n">
-        <v>359.43</v>
+        <v>359.28</v>
       </c>
       <c r="N69" t="n">
         <v>330.57</v>
@@ -4373,7 +4373,7 @@
         <v>344.63</v>
       </c>
       <c r="M70" t="n">
-        <v>355.65</v>
+        <v>355.23</v>
       </c>
       <c r="N70" t="n">
         <v>348.11</v>
@@ -4430,7 +4430,7 @@
         <v>326.24</v>
       </c>
       <c r="M71" t="n">
-        <v>334.17</v>
+        <v>333.82</v>
       </c>
       <c r="N71" t="n">
         <v>348.11</v>
@@ -4487,7 +4487,7 @@
         <v>333.68</v>
       </c>
       <c r="M72" t="n">
-        <v>338.71</v>
+        <v>338.7</v>
       </c>
       <c r="N72" t="n">
         <v>344.49</v>
@@ -4544,7 +4544,7 @@
         <v>334.89</v>
       </c>
       <c r="M73" t="n">
-        <v>340.49</v>
+        <v>340.31</v>
       </c>
       <c r="N73" t="n">
         <v>342.14</v>
@@ -4601,7 +4601,7 @@
         <v>330.99</v>
       </c>
       <c r="M74" t="n">
-        <v>336.19</v>
+        <v>336.11</v>
       </c>
       <c r="N74" t="n">
         <v>332.85</v>
@@ -4658,7 +4658,7 @@
         <v>327.45</v>
       </c>
       <c r="M75" t="n">
-        <v>330.72</v>
+        <v>330.78</v>
       </c>
       <c r="N75" t="n">
         <v>323.25</v>
@@ -4715,7 +4715,7 @@
         <v>330.55</v>
       </c>
       <c r="M76" t="n">
-        <v>329.74</v>
+        <v>330.04</v>
       </c>
       <c r="N76" t="n">
         <v>312.66</v>
@@ -4772,7 +4772,7 @@
         <v>342.54</v>
       </c>
       <c r="M77" t="n">
-        <v>329.12</v>
+        <v>328.76</v>
       </c>
       <c r="N77" t="n">
         <v>314.38</v>
@@ -4829,7 +4829,7 @@
         <v>337.98</v>
       </c>
       <c r="M78" t="n">
-        <v>329.33</v>
+        <v>328.9</v>
       </c>
       <c r="N78" t="n">
         <v>334.26</v>
@@ -4886,7 +4886,7 @@
         <v>342.81</v>
       </c>
       <c r="M79" t="n">
-        <v>338.37</v>
+        <v>338.02</v>
       </c>
       <c r="N79" t="n">
         <v>340.62</v>
@@ -4943,7 +4943,7 @@
         <v>345.62</v>
       </c>
       <c r="M80" t="n">
-        <v>342.44</v>
+        <v>342.1</v>
       </c>
       <c r="N80" t="n">
         <v>341.82</v>
@@ -5000,7 +5000,7 @@
         <v>345.8</v>
       </c>
       <c r="M81" t="n">
-        <v>344.84</v>
+        <v>344.89</v>
       </c>
       <c r="N81" t="n">
         <v>340.99</v>
@@ -5057,7 +5057,7 @@
         <v>336.2</v>
       </c>
       <c r="M82" t="n">
-        <v>335.78</v>
+        <v>335.68</v>
       </c>
       <c r="N82" t="n">
         <v>340.99</v>
@@ -5114,7 +5114,7 @@
         <v>337.26</v>
       </c>
       <c r="M83" t="n">
-        <v>336.12</v>
+        <v>336.08</v>
       </c>
       <c r="N83" t="n">
         <v>341.03</v>
@@ -5171,7 +5171,7 @@
         <v>336.79</v>
       </c>
       <c r="M84" t="n">
-        <v>334.92</v>
+        <v>334.74</v>
       </c>
       <c r="N84" t="n">
         <v>340.55</v>
@@ -5228,7 +5228,7 @@
         <v>322.16</v>
       </c>
       <c r="M85" t="n">
-        <v>327.77</v>
+        <v>327.9</v>
       </c>
       <c r="N85" t="n">
         <v>333.33</v>
@@ -5285,7 +5285,7 @@
         <v>314.88</v>
       </c>
       <c r="M86" t="n">
-        <v>324.25</v>
+        <v>324.13</v>
       </c>
       <c r="N86" t="n">
         <v>332.46</v>
@@ -5342,7 +5342,7 @@
         <v>295.28</v>
       </c>
       <c r="M87" t="n">
-        <v>308.28</v>
+        <v>308.97</v>
       </c>
       <c r="N87" t="n">
         <v>301.37</v>
@@ -5399,7 +5399,7 @@
         <v>293.34</v>
       </c>
       <c r="M88" t="n">
-        <v>302.25</v>
+        <v>302.85</v>
       </c>
       <c r="N88" t="n">
         <v>294.72</v>
@@ -5456,7 +5456,7 @@
         <v>302.86</v>
       </c>
       <c r="M89" t="n">
-        <v>309.69</v>
+        <v>310.06</v>
       </c>
       <c r="N89" t="n">
         <v>301.25</v>
@@ -5513,7 +5513,7 @@
         <v>315.26</v>
       </c>
       <c r="M90" t="n">
-        <v>317.38</v>
+        <v>317.65</v>
       </c>
       <c r="N90" t="n">
         <v>305.2</v>
@@ -5570,7 +5570,7 @@
         <v>347.92</v>
       </c>
       <c r="M91" t="n">
-        <v>343.53</v>
+        <v>343.12</v>
       </c>
       <c r="N91" t="n">
         <v>331.15</v>
@@ -5627,7 +5627,7 @@
         <v>348.86</v>
       </c>
       <c r="M92" t="n">
-        <v>342.11</v>
+        <v>341.75</v>
       </c>
       <c r="N92" t="n">
         <v>331.49</v>
@@ -5684,7 +5684,7 @@
         <v>344.35</v>
       </c>
       <c r="M93" t="n">
-        <v>342.08</v>
+        <v>341.52</v>
       </c>
       <c r="N93" t="n">
         <v>338.68</v>
@@ -5741,7 +5741,7 @@
         <v>329.7</v>
       </c>
       <c r="M94" t="n">
-        <v>348.21</v>
+        <v>347.5</v>
       </c>
       <c r="N94" t="n">
         <v>371.45</v>
@@ -5798,7 +5798,7 @@
         <v>329.7</v>
       </c>
       <c r="M95" t="n">
-        <v>348.21</v>
+        <v>347.5</v>
       </c>
       <c r="N95" t="n">
         <v>371.45</v>
@@ -5855,7 +5855,7 @@
         <v>333.08</v>
       </c>
       <c r="M96" t="n">
-        <v>348.24</v>
+        <v>348.5</v>
       </c>
       <c r="N96" t="n">
         <v>360.78</v>
@@ -5912,7 +5912,7 @@
         <v>333.08</v>
       </c>
       <c r="M97" t="n">
-        <v>348.24</v>
+        <v>348.5</v>
       </c>
       <c r="N97" t="n">
         <v>360.78</v>
@@ -5969,7 +5969,7 @@
         <v>333.08</v>
       </c>
       <c r="M98" t="n">
-        <v>348.24</v>
+        <v>348.5</v>
       </c>
       <c r="N98" t="n">
         <v>360.78</v>
@@ -6026,7 +6026,7 @@
         <v>321.23</v>
       </c>
       <c r="M99" t="n">
-        <v>327.9</v>
+        <v>328.38</v>
       </c>
       <c r="N99" t="n">
         <v>329.3</v>
@@ -6083,7 +6083,7 @@
         <v>330.88</v>
       </c>
       <c r="M100" t="n">
-        <v>332.92</v>
+        <v>333.36</v>
       </c>
       <c r="N100" t="n">
         <v>333.18</v>
@@ -6140,7 +6140,7 @@
         <v>328.74</v>
       </c>
       <c r="M101" t="n">
-        <v>331.44</v>
+        <v>331.98</v>
       </c>
       <c r="N101" t="n">
         <v>331.87</v>
@@ -6197,7 +6197,7 @@
         <v>330.03</v>
       </c>
       <c r="M102" t="n">
-        <v>333.11</v>
+        <v>333.25</v>
       </c>
       <c r="N102" t="n">
         <v>334.87</v>
@@ -6254,7 +6254,7 @@
         <v>330.03</v>
       </c>
       <c r="M103" t="n">
-        <v>333.11</v>
+        <v>333.25</v>
       </c>
       <c r="N103" t="n">
         <v>334.87</v>
@@ -6311,7 +6311,7 @@
         <v>330.03</v>
       </c>
       <c r="M104" t="n">
-        <v>332.63</v>
+        <v>332.8</v>
       </c>
       <c r="N104" t="n">
         <v>330.75</v>
@@ -6368,7 +6368,7 @@
         <v>330.03</v>
       </c>
       <c r="M105" t="n">
-        <v>332.63</v>
+        <v>332.8</v>
       </c>
       <c r="N105" t="n">
         <v>324.6</v>
@@ -6425,7 +6425,7 @@
         <v>330.03</v>
       </c>
       <c r="M106" t="n">
-        <v>332.63</v>
+        <v>332.8</v>
       </c>
       <c r="N106" t="n">
         <v>324.6</v>
@@ -6482,7 +6482,7 @@
         <v>330.03</v>
       </c>
       <c r="M107" t="n">
-        <v>332.63</v>
+        <v>332.8</v>
       </c>
       <c r="N107" t="n">
         <v>324.6</v>
@@ -6539,7 +6539,7 @@
         <v>322.04</v>
       </c>
       <c r="M108" t="n">
-        <v>329.88</v>
+        <v>330.06</v>
       </c>
       <c r="N108" t="n">
         <v>323.47</v>
@@ -6596,7 +6596,7 @@
         <v>322.04</v>
       </c>
       <c r="M109" t="n">
-        <v>329.88</v>
+        <v>330.06</v>
       </c>
       <c r="N109" t="n">
         <v>323.47</v>
@@ -6653,7 +6653,7 @@
         <v>315.57</v>
       </c>
       <c r="M110" t="n">
-        <v>327.69</v>
+        <v>327.77</v>
       </c>
       <c r="N110" t="n">
         <v>322.7</v>
@@ -6710,7 +6710,7 @@
         <v>314.62</v>
       </c>
       <c r="M111" t="n">
-        <v>327.8</v>
+        <v>327.75</v>
       </c>
       <c r="N111" t="n">
         <v>324.31</v>
@@ -6767,7 +6767,7 @@
         <v>310.13</v>
       </c>
       <c r="M112" t="n">
-        <v>326.47</v>
+        <v>326.29</v>
       </c>
       <c r="N112" t="n">
         <v>324.51</v>
@@ -6824,7 +6824,7 @@
         <v>310.13</v>
       </c>
       <c r="M113" t="n">
-        <v>328.65</v>
+        <v>328.42</v>
       </c>
       <c r="N113" t="n">
         <v>325.19</v>
@@ -6881,7 +6881,7 @@
         <v>310.13</v>
       </c>
       <c r="M114" t="n">
-        <v>330.71</v>
+        <v>330.54</v>
       </c>
       <c r="N114" t="n">
         <v>325.18</v>
@@ -6938,7 +6938,7 @@
         <v>308.93</v>
       </c>
       <c r="M115" t="n">
-        <v>330.71</v>
+        <v>330.54</v>
       </c>
       <c r="N115" t="n">
         <v>323.64</v>
@@ -6995,7 +6995,7 @@
         <v>314.17</v>
       </c>
       <c r="M116" t="n">
-        <v>334.33</v>
+        <v>334.15</v>
       </c>
       <c r="N116" t="n">
         <v>324.82</v>
@@ -7052,7 +7052,7 @@
         <v>317.4</v>
       </c>
       <c r="M117" t="n">
-        <v>334.3</v>
+        <v>334.15</v>
       </c>
       <c r="N117" t="n">
         <v>324.52</v>
@@ -7109,7 +7109,7 @@
         <v>320.03</v>
       </c>
       <c r="M118" t="n">
-        <v>334.73</v>
+        <v>334.65</v>
       </c>
       <c r="N118" t="n">
         <v>324.34</v>
@@ -7166,7 +7166,7 @@
         <v>317.02</v>
       </c>
       <c r="M119" t="n">
-        <v>330.38</v>
+        <v>330.32</v>
       </c>
       <c r="N119" t="n">
         <v>323.16</v>
@@ -7223,7 +7223,7 @@
         <v>318.44</v>
       </c>
       <c r="M120" t="n">
-        <v>329.48</v>
+        <v>329.28</v>
       </c>
       <c r="N120" t="n">
         <v>320.79</v>
@@ -7280,7 +7280,7 @@
         <v>318.98</v>
       </c>
       <c r="M121" t="n">
-        <v>329.28</v>
+        <v>329.07</v>
       </c>
       <c r="N121" t="n">
         <v>319.38</v>
@@ -7337,7 +7337,7 @@
         <v>321.02</v>
       </c>
       <c r="M122" t="n">
-        <v>330.24</v>
+        <v>329.94</v>
       </c>
       <c r="N122" t="n">
         <v>323.78</v>
@@ -7394,7 +7394,7 @@
         <v>322.65</v>
       </c>
       <c r="M123" t="n">
-        <v>330.86</v>
+        <v>330.56</v>
       </c>
       <c r="N123" t="n">
         <v>324.56</v>
@@ -7451,7 +7451,7 @@
         <v>329.85</v>
       </c>
       <c r="M124" t="n">
-        <v>331.39</v>
+        <v>331.05</v>
       </c>
       <c r="N124" t="n">
         <v>325.82</v>
@@ -7508,7 +7508,7 @@
         <v>338.5</v>
       </c>
       <c r="M125" t="n">
-        <v>332.95</v>
+        <v>332.78</v>
       </c>
       <c r="N125" t="n">
         <v>323.76</v>
@@ -7565,7 +7565,7 @@
         <v>337.01</v>
       </c>
       <c r="M126" t="n">
-        <v>329.83</v>
+        <v>329.78</v>
       </c>
       <c r="N126" t="n">
         <v>322.94</v>
@@ -7679,7 +7679,7 @@
         <v>339.7</v>
       </c>
       <c r="M128" t="n">
-        <v>325.86</v>
+        <v>325.67</v>
       </c>
       <c r="N128" t="n">
         <v>317.6</v>
@@ -7736,7 +7736,7 @@
         <v>341.37</v>
       </c>
       <c r="M129" t="n">
-        <v>332.52</v>
+        <v>332.18</v>
       </c>
       <c r="N129" t="n">
         <v>317.6</v>
@@ -7793,7 +7793,7 @@
         <v>341.51</v>
       </c>
       <c r="M130" t="n">
-        <v>334.24</v>
+        <v>333.97</v>
       </c>
       <c r="N130" t="n">
         <v>319.92</v>
@@ -7850,7 +7850,7 @@
         <v>341.51</v>
       </c>
       <c r="M131" t="n">
-        <v>335.19</v>
+        <v>334.88</v>
       </c>
       <c r="N131" t="n">
         <v>319.92</v>
@@ -7907,7 +7907,7 @@
         <v>333.74</v>
       </c>
       <c r="M132" t="n">
-        <v>333.05</v>
+        <v>332.9</v>
       </c>
       <c r="N132" t="n">
         <v>312.24</v>
@@ -7964,7 +7964,7 @@
         <v>328.5</v>
       </c>
       <c r="M133" t="n">
-        <v>331.34</v>
+        <v>331.19</v>
       </c>
       <c r="N133" t="n">
         <v>311.35</v>
@@ -8021,7 +8021,7 @@
         <v>325.12</v>
       </c>
       <c r="M134" t="n">
-        <v>332.25</v>
+        <v>332.17</v>
       </c>
       <c r="N134" t="n">
         <v>313.3</v>
@@ -8078,7 +8078,7 @@
         <v>321.22</v>
       </c>
       <c r="M135" t="n">
-        <v>329.1</v>
+        <v>328.96</v>
       </c>
       <c r="N135" t="n">
         <v>312.85</v>
@@ -8135,7 +8135,7 @@
         <v>320.56</v>
       </c>
       <c r="M136" t="n">
-        <v>327.17</v>
+        <v>327.06</v>
       </c>
       <c r="N136" t="n">
         <v>314.1</v>
@@ -8192,7 +8192,7 @@
         <v>318.84</v>
       </c>
       <c r="M137" t="n">
-        <v>325.11</v>
+        <v>325.05</v>
       </c>
       <c r="N137" t="n">
         <v>313.53</v>
@@ -8249,7 +8249,7 @@
         <v>317.1</v>
       </c>
       <c r="M138" t="n">
-        <v>324.17</v>
+        <v>324.02</v>
       </c>
       <c r="N138" t="n">
         <v>318.07</v>
@@ -8306,7 +8306,7 @@
         <v>316.57</v>
       </c>
       <c r="M139" t="n">
-        <v>323.06</v>
+        <v>322.98</v>
       </c>
       <c r="N139" t="n">
         <v>318.07</v>
@@ -8363,7 +8363,7 @@
         <v>315.14</v>
       </c>
       <c r="M140" t="n">
-        <v>320.56</v>
+        <v>320.54</v>
       </c>
       <c r="N140" t="n">
         <v>318.07</v>
@@ -8420,7 +8420,7 @@
         <v>313.63</v>
       </c>
       <c r="M141" t="n">
-        <v>322</v>
+        <v>321.87</v>
       </c>
       <c r="N141" t="n">
         <v>330.41</v>
@@ -8477,7 +8477,7 @@
         <v>313.63</v>
       </c>
       <c r="M142" t="n">
-        <v>322</v>
+        <v>321.87</v>
       </c>
       <c r="N142" t="n">
         <v>330.41</v>
@@ -8534,7 +8534,7 @@
         <v>304.19</v>
       </c>
       <c r="M143" t="n">
-        <v>315.02</v>
+        <v>315</v>
       </c>
       <c r="N143" t="n">
         <v>330.41</v>
@@ -8591,7 +8591,7 @@
         <v>307.82</v>
       </c>
       <c r="M144" t="n">
-        <v>316.59</v>
+        <v>316.5</v>
       </c>
       <c r="N144" t="n">
         <v>329.71</v>
@@ -8648,7 +8648,7 @@
         <v>306.93</v>
       </c>
       <c r="M145" t="n">
-        <v>309.9</v>
+        <v>309.88</v>
       </c>
       <c r="N145" t="n">
         <v>331.77</v>
@@ -8705,7 +8705,7 @@
         <v>312.43</v>
       </c>
       <c r="M146" t="n">
-        <v>313.25</v>
+        <v>313.23</v>
       </c>
       <c r="N146" t="n">
         <v>333.86</v>
@@ -8762,7 +8762,7 @@
         <v>343.02</v>
       </c>
       <c r="M147" t="n">
-        <v>343.03</v>
+        <v>342.94</v>
       </c>
       <c r="N147" t="n">
         <v>346.87</v>
@@ -8819,7 +8819,7 @@
         <v>337.38</v>
       </c>
       <c r="M148" t="n">
-        <v>338.58</v>
+        <v>338.6</v>
       </c>
       <c r="N148" t="n">
         <v>334.12</v>
@@ -8876,7 +8876,7 @@
         <v>339.45</v>
       </c>
       <c r="M149" t="n">
-        <v>340.92</v>
+        <v>340.89</v>
       </c>
       <c r="N149" t="n">
         <v>332.97</v>
@@ -8933,7 +8933,7 @@
         <v>335.38</v>
       </c>
       <c r="M150" t="n">
-        <v>337.19</v>
+        <v>337.02</v>
       </c>
       <c r="N150" t="n">
         <v>329.22</v>
@@ -8990,7 +8990,7 @@
         <v>333.63</v>
       </c>
       <c r="M151" t="n">
-        <v>337.87</v>
+        <v>337.83</v>
       </c>
       <c r="N151" t="n">
         <v>330.11</v>
@@ -9047,7 +9047,7 @@
         <v>333.63</v>
       </c>
       <c r="M152" t="n">
-        <v>337.87</v>
+        <v>337.83</v>
       </c>
       <c r="N152" t="n">
         <v>330.11</v>
@@ -9104,7 +9104,7 @@
         <v>326.87</v>
       </c>
       <c r="M153" t="n">
-        <v>330.65</v>
+        <v>330.47</v>
       </c>
       <c r="N153" t="n">
         <v>330.11</v>
@@ -9161,7 +9161,7 @@
         <v>320.06</v>
       </c>
       <c r="M154" t="n">
-        <v>321.73</v>
+        <v>321.49</v>
       </c>
       <c r="N154" t="n">
         <v>325.89</v>
@@ -9218,7 +9218,7 @@
         <v>315.71</v>
       </c>
       <c r="M155" t="n">
-        <v>315.7</v>
+        <v>315.54</v>
       </c>
       <c r="N155" t="n">
         <v>320.13</v>
@@ -9275,7 +9275,7 @@
         <v>306.82</v>
       </c>
       <c r="M156" t="n">
-        <v>304.58</v>
+        <v>304.33</v>
       </c>
       <c r="N156" t="n">
         <v>310.93</v>
@@ -9332,7 +9332,7 @@
         <v>302.89</v>
       </c>
       <c r="M157" t="n">
-        <v>300.52</v>
+        <v>300.24</v>
       </c>
       <c r="N157" t="n">
         <v>308.68</v>
@@ -9389,7 +9389,7 @@
         <v>301.7</v>
       </c>
       <c r="M158" t="n">
-        <v>301.56</v>
+        <v>301.28</v>
       </c>
       <c r="N158" t="n">
         <v>308.03</v>
@@ -9446,7 +9446,7 @@
         <v>301.7</v>
       </c>
       <c r="M159" t="n">
-        <v>301.75</v>
+        <v>301.53</v>
       </c>
       <c r="N159" t="n">
         <v>306.12</v>
@@ -9503,7 +9503,7 @@
         <v>301.7</v>
       </c>
       <c r="M160" t="n">
-        <v>303.96</v>
+        <v>303.8</v>
       </c>
       <c r="N160" t="n">
         <v>306.64</v>
@@ -9560,7 +9560,7 @@
         <v>297.8</v>
       </c>
       <c r="M161" t="n">
-        <v>300.38</v>
+        <v>300.14</v>
       </c>
       <c r="N161" t="n">
         <v>302.64</v>
@@ -9617,7 +9617,7 @@
         <v>298.23</v>
       </c>
       <c r="M162" t="n">
-        <v>298.34</v>
+        <v>298.19</v>
       </c>
       <c r="N162" t="n">
         <v>302.64</v>
@@ -9674,7 +9674,7 @@
         <v>300.94</v>
       </c>
       <c r="M163" t="n">
-        <v>299.65</v>
+        <v>299.44</v>
       </c>
       <c r="N163" t="n">
         <v>302.09</v>
@@ -9731,7 +9731,7 @@
         <v>303.11</v>
       </c>
       <c r="M164" t="n">
-        <v>300.08</v>
+        <v>299.93</v>
       </c>
       <c r="N164" t="n">
         <v>300.43</v>
@@ -9788,7 +9788,7 @@
         <v>301.54</v>
       </c>
       <c r="M165" t="n">
-        <v>298.15</v>
+        <v>297.95</v>
       </c>
       <c r="N165" t="n">
         <v>298.71</v>
@@ -9845,7 +9845,7 @@
         <v>298.99</v>
       </c>
       <c r="M166" t="n">
-        <v>293.85</v>
+        <v>293.65</v>
       </c>
       <c r="N166" t="n">
         <v>295.63</v>
@@ -9902,7 +9902,7 @@
         <v>301.75</v>
       </c>
       <c r="M167" t="n">
-        <v>296</v>
+        <v>295.87</v>
       </c>
       <c r="N167" t="n">
         <v>296.22</v>
@@ -9959,7 +9959,7 @@
         <v>318.89</v>
       </c>
       <c r="M168" t="n">
-        <v>310.08</v>
+        <v>310.19</v>
       </c>
       <c r="N168" t="n">
         <v>299.11</v>
@@ -10016,7 +10016,7 @@
         <v>324.46</v>
       </c>
       <c r="M169" t="n">
-        <v>307.58</v>
+        <v>307.62</v>
       </c>
       <c r="N169" t="n">
         <v>297.54</v>
@@ -10073,7 +10073,7 @@
         <v>332.03</v>
       </c>
       <c r="M170" t="n">
-        <v>321.88</v>
+        <v>321.59</v>
       </c>
       <c r="N170" t="n">
         <v>306.93</v>
@@ -10130,7 +10130,7 @@
         <v>335.01</v>
       </c>
       <c r="M171" t="n">
-        <v>329.44</v>
+        <v>329.09</v>
       </c>
       <c r="N171" t="n">
         <v>318.64</v>
@@ -10187,7 +10187,7 @@
         <v>332.85</v>
       </c>
       <c r="M172" t="n">
-        <v>331.54</v>
+        <v>331.22</v>
       </c>
       <c r="N172" t="n">
         <v>324.22</v>
@@ -10244,7 +10244,7 @@
         <v>332.56</v>
       </c>
       <c r="M173" t="n">
-        <v>333.88</v>
+        <v>333.61</v>
       </c>
       <c r="N173" t="n">
         <v>328.43</v>
@@ -10301,7 +10301,7 @@
         <v>332.56</v>
       </c>
       <c r="M174" t="n">
-        <v>333.88</v>
+        <v>333.61</v>
       </c>
       <c r="N174" t="n">
         <v>328.43</v>
@@ -10358,7 +10358,7 @@
         <v>326.37</v>
       </c>
       <c r="M175" t="n">
-        <v>331.46</v>
+        <v>331.32</v>
       </c>
       <c r="N175" t="n">
         <v>328.43</v>
@@ -10415,7 +10415,7 @@
         <v>326.37</v>
       </c>
       <c r="M176" t="n">
-        <v>331.46</v>
+        <v>331.32</v>
       </c>
       <c r="N176" t="n">
         <v>328.43</v>
@@ -10472,7 +10472,7 @@
         <v>324.31</v>
       </c>
       <c r="M177" t="n">
-        <v>337.36</v>
+        <v>337.06</v>
       </c>
       <c r="N177" t="n">
         <v>338.95</v>
@@ -10529,7 +10529,7 @@
         <v>326.45</v>
       </c>
       <c r="M178" t="n">
-        <v>338.7</v>
+        <v>338.26</v>
       </c>
       <c r="N178" t="n">
         <v>340.48</v>
@@ -10586,7 +10586,7 @@
         <v>320.96</v>
       </c>
       <c r="M179" t="n">
-        <v>335.51</v>
+        <v>335.24</v>
       </c>
       <c r="N179" t="n">
         <v>332.57</v>
@@ -10643,7 +10643,7 @@
         <v>317.66</v>
       </c>
       <c r="M180" t="n">
-        <v>334.77</v>
+        <v>334.63</v>
       </c>
       <c r="N180" t="n">
         <v>330.78</v>
@@ -10700,7 +10700,7 @@
         <v>313.28</v>
       </c>
       <c r="M181" t="n">
-        <v>331.76</v>
+        <v>331.53</v>
       </c>
       <c r="N181" t="n">
         <v>329.84</v>
@@ -10757,7 +10757,7 @@
         <v>311.14</v>
       </c>
       <c r="M182" t="n">
-        <v>330.18</v>
+        <v>330.03</v>
       </c>
       <c r="N182" t="n">
         <v>325.78</v>
@@ -10814,7 +10814,7 @@
         <v>309.39</v>
       </c>
       <c r="M183" t="n">
-        <v>327.25</v>
+        <v>327.14</v>
       </c>
       <c r="N183" t="n">
         <v>323.95</v>
@@ -10871,7 +10871,7 @@
         <v>307.71</v>
       </c>
       <c r="M184" t="n">
-        <v>325.12</v>
+        <v>325.06</v>
       </c>
       <c r="N184" t="n">
         <v>320.68</v>
@@ -10928,7 +10928,7 @@
         <v>307.71</v>
       </c>
       <c r="M185" t="n">
-        <v>327.86</v>
+        <v>327.79</v>
       </c>
       <c r="N185" t="n">
         <v>323.23</v>
@@ -10985,7 +10985,7 @@
         <v>307.44</v>
       </c>
       <c r="M186" t="n">
-        <v>328.17</v>
+        <v>328.11</v>
       </c>
       <c r="N186" t="n">
         <v>323.7</v>
@@ -11042,7 +11042,7 @@
         <v>307.44</v>
       </c>
       <c r="M187" t="n">
-        <v>326.98</v>
+        <v>327.03</v>
       </c>
       <c r="N187" t="n">
         <v>321.13</v>
@@ -11099,7 +11099,7 @@
         <v>307.44</v>
       </c>
       <c r="M188" t="n">
-        <v>326.98</v>
+        <v>327.03</v>
       </c>
       <c r="N188" t="n">
         <v>321.13</v>
@@ -11156,7 +11156,7 @@
         <v>307.03</v>
       </c>
       <c r="M189" t="n">
-        <v>325.51</v>
+        <v>325.56</v>
       </c>
       <c r="N189" t="n">
         <v>318.47</v>
@@ -11213,7 +11213,7 @@
         <v>310.22</v>
       </c>
       <c r="M190" t="n">
-        <v>325.8</v>
+        <v>325.81</v>
       </c>
       <c r="N190" t="n">
         <v>318.98</v>
@@ -11270,7 +11270,7 @@
         <v>307.68</v>
       </c>
       <c r="M191" t="n">
-        <v>321.84</v>
+        <v>321.86</v>
       </c>
       <c r="N191" t="n">
         <v>316.53</v>
@@ -11327,7 +11327,7 @@
         <v>332.62</v>
       </c>
       <c r="M192" t="n">
-        <v>331.43</v>
+        <v>331.19</v>
       </c>
       <c r="N192" t="n">
         <v>324.96</v>
@@ -11384,7 +11384,7 @@
         <v>334.7</v>
       </c>
       <c r="M193" t="n">
-        <v>331.99</v>
+        <v>331.71</v>
       </c>
       <c r="N193" t="n">
         <v>324.96</v>
@@ -11441,7 +11441,7 @@
         <v>340.8</v>
       </c>
       <c r="M194" t="n">
-        <v>327.18</v>
+        <v>326.81</v>
       </c>
       <c r="N194" t="n">
         <v>317.27</v>
@@ -11498,7 +11498,7 @@
         <v>343.83</v>
       </c>
       <c r="M195" t="n">
-        <v>328.19</v>
+        <v>327.82</v>
       </c>
       <c r="N195" t="n">
         <v>323.67</v>
@@ -11555,7 +11555,7 @@
         <v>346.05</v>
       </c>
       <c r="M196" t="n">
-        <v>328.84</v>
+        <v>328.58</v>
       </c>
       <c r="N196" t="n">
         <v>327.66</v>
@@ -11612,7 +11612,7 @@
         <v>352.15</v>
       </c>
       <c r="M197" t="n">
-        <v>333.4</v>
+        <v>333.07</v>
       </c>
       <c r="N197" t="n">
         <v>338.52</v>
@@ -11669,7 +11669,7 @@
         <v>357.12</v>
       </c>
       <c r="M198" t="n">
-        <v>336.43</v>
+        <v>336.2</v>
       </c>
       <c r="N198" t="n">
         <v>338.52</v>
@@ -11726,7 +11726,7 @@
         <v>357.12</v>
       </c>
       <c r="M199" t="n">
-        <v>335.82</v>
+        <v>335.61</v>
       </c>
       <c r="N199" t="n">
         <v>337.54</v>
@@ -11783,7 +11783,7 @@
         <v>354.52</v>
       </c>
       <c r="M200" t="n">
-        <v>335.51</v>
+        <v>335.27</v>
       </c>
       <c r="N200" t="n">
         <v>337.57</v>
@@ -11840,7 +11840,7 @@
         <v>346.47</v>
       </c>
       <c r="M201" t="n">
-        <v>332.55</v>
+        <v>332.45</v>
       </c>
       <c r="N201" t="n">
         <v>338.04</v>
@@ -11897,7 +11897,7 @@
         <v>342.18</v>
       </c>
       <c r="M202" t="n">
-        <v>328.03</v>
+        <v>327.98</v>
       </c>
       <c r="N202" t="n">
         <v>334.76</v>
@@ -11954,7 +11954,7 @@
         <v>341.41</v>
       </c>
       <c r="M203" t="n">
-        <v>326.81</v>
+        <v>326.69</v>
       </c>
       <c r="N203" t="n">
         <v>333.15</v>
@@ -12011,7 +12011,7 @@
         <v>341.41</v>
       </c>
       <c r="M204" t="n">
-        <v>324.93</v>
+        <v>324.72</v>
       </c>
       <c r="N204" t="n">
         <v>331.89</v>
@@ -12068,7 +12068,7 @@
         <v>336.81</v>
       </c>
       <c r="M205" t="n">
-        <v>322.78</v>
+        <v>322.69</v>
       </c>
       <c r="N205" t="n">
         <v>331.39</v>
@@ -12125,7 +12125,7 @@
         <v>336.81</v>
       </c>
       <c r="M206" t="n">
-        <v>322.78</v>
+        <v>322.69</v>
       </c>
       <c r="N206" t="n">
         <v>331.39</v>
@@ -12182,7 +12182,7 @@
         <v>336.81</v>
       </c>
       <c r="M207" t="n">
-        <v>322.78</v>
+        <v>322.69</v>
       </c>
       <c r="N207" t="n">
         <v>331.39</v>
@@ -12296,7 +12296,7 @@
         <v>335.46</v>
       </c>
       <c r="M209" t="n">
-        <v>321.94</v>
+        <v>321.95</v>
       </c>
       <c r="N209" t="n">
         <v>327.7</v>
@@ -12353,7 +12353,7 @@
         <v>321.7</v>
       </c>
       <c r="M210" t="n">
-        <v>310.97</v>
+        <v>310.96</v>
       </c>
       <c r="N210" t="n">
         <v>319.17</v>
@@ -12410,7 +12410,7 @@
         <v>333.98</v>
       </c>
       <c r="M211" t="n">
-        <v>322.28</v>
+        <v>322.16</v>
       </c>
       <c r="N211" t="n">
         <v>322.42</v>
@@ -12467,7 +12467,7 @@
         <v>334.31</v>
       </c>
       <c r="M212" t="n">
-        <v>328.01</v>
+        <v>328.36</v>
       </c>
       <c r="N212" t="n">
         <v>320.76</v>
@@ -12524,7 +12524,7 @@
         <v>343.83</v>
       </c>
       <c r="M213" t="n">
-        <v>334.41</v>
+        <v>334.7</v>
       </c>
       <c r="N213" t="n">
         <v>324.94</v>
@@ -12581,7 +12581,7 @@
         <v>341.28</v>
       </c>
       <c r="M214" t="n">
-        <v>334.44</v>
+        <v>334.6</v>
       </c>
       <c r="N214" t="n">
         <v>325.83</v>
@@ -12638,7 +12638,7 @@
         <v>340.22</v>
       </c>
       <c r="M215" t="n">
-        <v>335.27</v>
+        <v>335.48</v>
       </c>
       <c r="N215" t="n">
         <v>327.41</v>
@@ -12695,7 +12695,7 @@
         <v>341.49</v>
       </c>
       <c r="M216" t="n">
-        <v>341.03</v>
+        <v>340.96</v>
       </c>
       <c r="N216" t="n">
         <v>331.87</v>
@@ -12752,7 +12752,7 @@
         <v>337.21</v>
       </c>
       <c r="M217" t="n">
-        <v>337.45</v>
+        <v>337.49</v>
       </c>
       <c r="N217" t="n">
         <v>329.19</v>
@@ -12809,7 +12809,7 @@
         <v>330.27</v>
       </c>
       <c r="M218" t="n">
-        <v>329.15</v>
+        <v>328.98</v>
       </c>
       <c r="N218" t="n">
         <v>328.95</v>
@@ -12866,7 +12866,7 @@
         <v>329.84</v>
       </c>
       <c r="M219" t="n">
-        <v>328.13</v>
+        <v>327.91</v>
       </c>
       <c r="N219" t="n">
         <v>330.82</v>
@@ -12923,7 +12923,7 @@
         <v>326.93</v>
       </c>
       <c r="M220" t="n">
-        <v>323.69</v>
+        <v>323.55</v>
       </c>
       <c r="N220" t="n">
         <v>328.73</v>
@@ -12980,7 +12980,7 @@
         <v>326.93</v>
       </c>
       <c r="M221" t="n">
-        <v>323.69</v>
+        <v>323.55</v>
       </c>
       <c r="N221" t="n">
         <v>328.73</v>
@@ -13037,7 +13037,7 @@
         <v>322.74</v>
       </c>
       <c r="M222" t="n">
-        <v>318.32</v>
+        <v>318.13</v>
       </c>
       <c r="N222" t="n">
         <v>325.93</v>
@@ -13094,7 +13094,7 @@
         <v>322.74</v>
       </c>
       <c r="M223" t="n">
-        <v>318.32</v>
+        <v>318.13</v>
       </c>
       <c r="N223" t="n">
         <v>326.27</v>
@@ -13151,7 +13151,7 @@
         <v>314.04</v>
       </c>
       <c r="M224" t="n">
-        <v>315.12</v>
+        <v>314.85</v>
       </c>
       <c r="N224" t="n">
         <v>327.81</v>
@@ -13208,7 +13208,7 @@
         <v>310.86</v>
       </c>
       <c r="M225" t="n">
-        <v>314.76</v>
+        <v>314.45</v>
       </c>
       <c r="N225" t="n">
         <v>328.41</v>
@@ -13265,7 +13265,7 @@
         <v>309.55</v>
       </c>
       <c r="M226" t="n">
-        <v>312.68</v>
+        <v>312.45</v>
       </c>
       <c r="N226" t="n">
         <v>327.69</v>
@@ -13322,7 +13322,7 @@
         <v>308</v>
       </c>
       <c r="M227" t="n">
-        <v>314.4</v>
+        <v>314.13</v>
       </c>
       <c r="N227" t="n">
         <v>329.22</v>
@@ -13379,7 +13379,7 @@
         <v>308</v>
       </c>
       <c r="M228" t="n">
-        <v>314.4</v>
+        <v>314.13</v>
       </c>
       <c r="N228" t="n">
         <v>329.22</v>
@@ -13436,7 +13436,7 @@
         <v>309.85</v>
       </c>
       <c r="M229" t="n">
-        <v>316.63</v>
+        <v>316.33</v>
       </c>
       <c r="N229" t="n">
         <v>331.47</v>
@@ -13493,7 +13493,7 @@
         <v>312.72</v>
       </c>
       <c r="M230" t="n">
-        <v>318.17</v>
+        <v>317.85</v>
       </c>
       <c r="N230" t="n">
         <v>333.4</v>
@@ -13550,7 +13550,7 @@
         <v>311.18</v>
       </c>
       <c r="M231" t="n">
-        <v>315.4</v>
+        <v>315.12</v>
       </c>
       <c r="N231" t="n">
         <v>331.79</v>
@@ -13607,7 +13607,7 @@
         <v>308.09</v>
       </c>
       <c r="M232" t="n">
-        <v>309.58</v>
+        <v>309.35</v>
       </c>
       <c r="N232" t="n">
         <v>328.65</v>
@@ -13664,7 +13664,7 @@
         <v>309.15</v>
       </c>
       <c r="M233" t="n">
-        <v>311.11</v>
+        <v>311.01</v>
       </c>
       <c r="N233" t="n">
         <v>326.1</v>
@@ -13721,7 +13721,7 @@
         <v>319.91</v>
       </c>
       <c r="M234" t="n">
-        <v>321.2</v>
+        <v>321.11</v>
       </c>
       <c r="N234" t="n">
         <v>329.02</v>
@@ -13778,7 +13778,7 @@
         <v>329.28</v>
       </c>
       <c r="M235" t="n">
-        <v>327.12</v>
+        <v>327.01</v>
       </c>
       <c r="N235" t="n">
         <v>329.58</v>
@@ -13892,7 +13892,7 @@
         <v>339.36</v>
       </c>
       <c r="M237" t="n">
-        <v>322.97</v>
+        <v>322.89</v>
       </c>
       <c r="N237" t="n">
         <v>321.12</v>
@@ -13949,7 +13949,7 @@
         <v>336.66</v>
       </c>
       <c r="M238" t="n">
-        <v>319.61</v>
+        <v>319.65</v>
       </c>
       <c r="N238" t="n">
         <v>313.27</v>
@@ -14006,7 +14006,7 @@
         <v>349.4</v>
       </c>
       <c r="M239" t="n">
-        <v>334.6</v>
+        <v>334.23</v>
       </c>
       <c r="N239" t="n">
         <v>328.12</v>
@@ -14063,7 +14063,7 @@
         <v>356.97</v>
       </c>
       <c r="M240" t="n">
-        <v>338.4</v>
+        <v>338.21</v>
       </c>
       <c r="N240" t="n">
         <v>328.12</v>
@@ -14120,7 +14120,7 @@
         <v>353.62</v>
       </c>
       <c r="M241" t="n">
-        <v>338.27</v>
+        <v>338.04</v>
       </c>
       <c r="N241" t="n">
         <v>327.69</v>
@@ -14177,7 +14177,7 @@
         <v>345.68</v>
       </c>
       <c r="M242" t="n">
-        <v>335.79</v>
+        <v>335.49</v>
       </c>
       <c r="N242" t="n">
         <v>325.6</v>
@@ -14234,7 +14234,7 @@
         <v>338.49</v>
       </c>
       <c r="M243" t="n">
-        <v>334</v>
+        <v>333.82</v>
       </c>
       <c r="N243" t="n">
         <v>324.59</v>
@@ -14291,7 +14291,7 @@
         <v>332.33</v>
       </c>
       <c r="M244" t="n">
-        <v>332.26</v>
+        <v>332.14</v>
       </c>
       <c r="N244" t="n">
         <v>323.38</v>
@@ -14348,7 +14348,7 @@
         <v>329.06</v>
       </c>
       <c r="M245" t="n">
-        <v>329</v>
+        <v>328.93</v>
       </c>
       <c r="N245" t="n">
         <v>321.42</v>
@@ -14405,7 +14405,7 @@
         <v>324.77</v>
       </c>
       <c r="M246" t="n">
-        <v>329.12</v>
+        <v>329.06</v>
       </c>
       <c r="N246" t="n">
         <v>322.81</v>
@@ -14462,7 +14462,7 @@
         <v>322.24</v>
       </c>
       <c r="M247" t="n">
-        <v>326.11</v>
+        <v>326.08</v>
       </c>
       <c r="N247" t="n">
         <v>321.69</v>
@@ -14519,7 +14519,7 @@
         <v>320.32</v>
       </c>
       <c r="M248" t="n">
-        <v>325.03</v>
+        <v>325.06</v>
       </c>
       <c r="N248" t="n">
         <v>320.87</v>
@@ -14576,7 +14576,7 @@
         <v>318.24</v>
       </c>
       <c r="M249" t="n">
-        <v>319.86</v>
+        <v>319.93</v>
       </c>
       <c r="N249" t="n">
         <v>320.87</v>
@@ -14633,7 +14633,7 @@
         <v>319.3</v>
       </c>
       <c r="M250" t="n">
-        <v>318.71</v>
+        <v>318.74</v>
       </c>
       <c r="N250" t="n">
         <v>319.87</v>
@@ -14690,7 +14690,7 @@
         <v>316.1</v>
       </c>
       <c r="M251" t="n">
-        <v>318.37</v>
+        <v>318.34</v>
       </c>
       <c r="N251" t="n">
         <v>319.31</v>
@@ -14747,7 +14747,7 @@
         <v>314.2</v>
       </c>
       <c r="M252" t="n">
-        <v>319.34</v>
+        <v>319.33</v>
       </c>
       <c r="N252" t="n">
         <v>320.16</v>
@@ -14804,7 +14804,7 @@
         <v>314.2</v>
       </c>
       <c r="M253" t="n">
-        <v>319.34</v>
+        <v>319.33</v>
       </c>
       <c r="N253" t="n">
         <v>320.16</v>
@@ -14861,7 +14861,7 @@
         <v>312.94</v>
       </c>
       <c r="M254" t="n">
-        <v>317.57</v>
+        <v>317.62</v>
       </c>
       <c r="N254" t="n">
         <v>319</v>
@@ -14975,7 +14975,7 @@
         <v>308.98</v>
       </c>
       <c r="M256" t="n">
-        <v>317.6</v>
+        <v>317.67</v>
       </c>
       <c r="N256" t="n">
         <v>318.64</v>
@@ -15032,7 +15032,7 @@
         <v>309.07</v>
       </c>
       <c r="M257" t="n">
-        <v>317.68</v>
+        <v>317.76</v>
       </c>
       <c r="N257" t="n">
         <v>318.67</v>
@@ -15089,7 +15089,7 @@
         <v>309.27</v>
       </c>
       <c r="M258" t="n">
-        <v>317.43</v>
+        <v>317.5</v>
       </c>
       <c r="N258" t="n">
         <v>317.76</v>
@@ -15146,7 +15146,7 @@
         <v>309.72</v>
       </c>
       <c r="M259" t="n">
-        <v>317.7</v>
+        <v>317.77</v>
       </c>
       <c r="N259" t="n">
         <v>316.9</v>
@@ -15203,7 +15203,7 @@
         <v>310.04</v>
       </c>
       <c r="M260" t="n">
-        <v>317.58</v>
+        <v>317.68</v>
       </c>
       <c r="N260" t="n">
         <v>315.91</v>
@@ -15260,7 +15260,7 @@
         <v>306.58</v>
       </c>
       <c r="M261" t="n">
-        <v>315.78</v>
+        <v>315.93</v>
       </c>
       <c r="N261" t="n">
         <v>312.69</v>
@@ -15317,7 +15317,7 @@
         <v>300.64</v>
       </c>
       <c r="M262" t="n">
-        <v>313.68</v>
+        <v>313.81</v>
       </c>
       <c r="N262" t="n">
         <v>312.69</v>
@@ -15374,7 +15374,7 @@
         <v>301.55</v>
       </c>
       <c r="M263" t="n">
-        <v>314.33</v>
+        <v>314.37</v>
       </c>
       <c r="N263" t="n">
         <v>315.39</v>
@@ -15431,7 +15431,7 @@
         <v>304.26</v>
       </c>
       <c r="M264" t="n">
-        <v>314.91</v>
+        <v>314.9</v>
       </c>
       <c r="N264" t="n">
         <v>316.94</v>
@@ -15488,7 +15488,7 @@
         <v>306.44</v>
       </c>
       <c r="M265" t="n">
-        <v>314.1</v>
+        <v>314.11</v>
       </c>
       <c r="N265" t="n">
         <v>315.2</v>
@@ -15545,7 +15545,7 @@
         <v>311.38</v>
       </c>
       <c r="M266" t="n">
-        <v>321.54</v>
+        <v>321.5</v>
       </c>
       <c r="N266" t="n">
         <v>316.63</v>
@@ -15602,7 +15602,7 @@
         <v>316.62</v>
       </c>
       <c r="M267" t="n">
-        <v>324.99</v>
+        <v>324.97</v>
       </c>
       <c r="N267" t="n">
         <v>319.04</v>
@@ -15659,7 +15659,7 @@
         <v>322.05</v>
       </c>
       <c r="M268" t="n">
-        <v>328.34</v>
+        <v>328.3</v>
       </c>
       <c r="N268" t="n">
         <v>320.11</v>
@@ -15716,7 +15716,7 @@
         <v>327.18</v>
       </c>
       <c r="M269" t="n">
-        <v>334.36</v>
+        <v>334.16</v>
       </c>
       <c r="N269" t="n">
         <v>333.31</v>
@@ -15773,7 +15773,7 @@
         <v>337.2</v>
       </c>
       <c r="M270" t="n">
-        <v>336.52</v>
+        <v>336.43</v>
       </c>
       <c r="N270" t="n">
         <v>331.77</v>
@@ -15830,7 +15830,7 @@
         <v>329.74</v>
       </c>
       <c r="M271" t="n">
-        <v>331.56</v>
+        <v>331.58</v>
       </c>
       <c r="N271" t="n">
         <v>328.88</v>
@@ -15887,7 +15887,7 @@
         <v>329.74</v>
       </c>
       <c r="M272" t="n">
-        <v>331.56</v>
+        <v>331.58</v>
       </c>
       <c r="N272" t="n">
         <v>328.88</v>
@@ -15944,7 +15944,7 @@
         <v>325.06</v>
       </c>
       <c r="M273" t="n">
-        <v>327.83</v>
+        <v>327.95</v>
       </c>
       <c r="N273" t="n">
         <v>327.12</v>
@@ -16001,7 +16001,7 @@
         <v>325.06</v>
       </c>
       <c r="M274" t="n">
-        <v>327.83</v>
+        <v>327.95</v>
       </c>
       <c r="N274" t="n">
         <v>327.12</v>
@@ -16058,7 +16058,7 @@
         <v>319.84</v>
       </c>
       <c r="M275" t="n">
-        <v>322.93</v>
+        <v>322.96</v>
       </c>
       <c r="N275" t="n">
         <v>322.97</v>
@@ -16115,7 +16115,7 @@
         <v>316.23</v>
       </c>
       <c r="M276" t="n">
-        <v>321.15</v>
+        <v>321.25</v>
       </c>
       <c r="N276" t="n">
         <v>320.89</v>
@@ -16172,7 +16172,7 @@
         <v>311.5</v>
       </c>
       <c r="M277" t="n">
-        <v>313.34</v>
+        <v>313.35</v>
       </c>
       <c r="N277" t="n">
         <v>322.82</v>
@@ -16229,7 +16229,7 @@
         <v>304.3</v>
       </c>
       <c r="M278" t="n">
-        <v>306.53</v>
+        <v>306.52</v>
       </c>
       <c r="N278" t="n">
         <v>321.37</v>
@@ -16286,7 +16286,7 @@
         <v>301.63</v>
       </c>
       <c r="M279" t="n">
-        <v>303.77</v>
+        <v>303.79</v>
       </c>
       <c r="N279" t="n">
         <v>317.65</v>
@@ -16343,7 +16343,7 @@
         <v>301.63</v>
       </c>
       <c r="M280" t="n">
-        <v>303.77</v>
+        <v>303.79</v>
       </c>
       <c r="N280" t="n">
         <v>317.65</v>
@@ -16400,7 +16400,7 @@
         <v>301.63</v>
       </c>
       <c r="M281" t="n">
-        <v>303.77</v>
+        <v>303.79</v>
       </c>
       <c r="N281" t="n">
         <v>317.65</v>
@@ -16457,7 +16457,7 @@
         <v>295.57</v>
       </c>
       <c r="M282" t="n">
-        <v>294.97</v>
+        <v>295.15</v>
       </c>
       <c r="N282" t="n">
         <v>312.58</v>
@@ -16514,7 +16514,7 @@
         <v>297.2</v>
       </c>
       <c r="M283" t="n">
-        <v>294.97</v>
+        <v>295.15</v>
       </c>
       <c r="N283" t="n">
         <v>315.38</v>
@@ -16571,7 +16571,7 @@
         <v>301.83</v>
       </c>
       <c r="M284" t="n">
-        <v>294.97</v>
+        <v>295.15</v>
       </c>
       <c r="N284" t="n">
         <v>318.86</v>
@@ -16628,7 +16628,7 @@
         <v>298.99</v>
       </c>
       <c r="M285" t="n">
-        <v>287.81</v>
+        <v>287.91</v>
       </c>
       <c r="N285" t="n">
         <v>318.86</v>
@@ -16685,7 +16685,7 @@
         <v>301.55</v>
       </c>
       <c r="M286" t="n">
-        <v>292.26</v>
+        <v>292.3</v>
       </c>
       <c r="N286" t="n">
         <v>318.02</v>
@@ -16742,7 +16742,7 @@
         <v>304.92</v>
       </c>
       <c r="M287" t="n">
-        <v>296.29</v>
+        <v>296.32</v>
       </c>
       <c r="N287" t="n">
         <v>317.54</v>
@@ -16799,7 +16799,7 @@
         <v>306.52</v>
       </c>
       <c r="M288" t="n">
-        <v>298.83</v>
+        <v>298.88</v>
       </c>
       <c r="N288" t="n">
         <v>315.56</v>
@@ -16856,7 +16856,7 @@
         <v>308.18</v>
       </c>
       <c r="M289" t="n">
-        <v>300.57</v>
+        <v>300.68</v>
       </c>
       <c r="N289" t="n">
         <v>314.21</v>
@@ -16913,7 +16913,7 @@
         <v>310.39</v>
       </c>
       <c r="M290" t="n">
-        <v>301.3</v>
+        <v>301.44</v>
       </c>
       <c r="N290" t="n">
         <v>314.88</v>
@@ -16970,7 +16970,7 @@
         <v>311.42</v>
       </c>
       <c r="M291" t="n">
-        <v>300.89</v>
+        <v>300.96</v>
       </c>
       <c r="N291" t="n">
         <v>314.59</v>
@@ -17027,7 +17027,7 @@
         <v>315.99</v>
       </c>
       <c r="M292" t="n">
-        <v>305.25</v>
+        <v>305.44</v>
       </c>
       <c r="N292" t="n">
         <v>316</v>
@@ -17084,7 +17084,7 @@
         <v>328.61</v>
       </c>
       <c r="M293" t="n">
-        <v>319.93</v>
+        <v>320.04</v>
       </c>
       <c r="N293" t="n">
         <v>315.58</v>
@@ -17141,7 +17141,7 @@
         <v>333.79</v>
       </c>
       <c r="M294" t="n">
-        <v>326.23</v>
+        <v>326.45</v>
       </c>
       <c r="N294" t="n">
         <v>313.05</v>
@@ -17198,7 +17198,7 @@
         <v>334.42</v>
       </c>
       <c r="M295" t="n">
-        <v>327.85</v>
+        <v>328.09</v>
       </c>
       <c r="N295" t="n">
         <v>313.46</v>
@@ -17255,7 +17255,7 @@
         <v>337.77</v>
       </c>
       <c r="M296" t="n">
-        <v>329.69</v>
+        <v>329.92</v>
       </c>
       <c r="N296" t="n">
         <v>319.99</v>
@@ -17312,7 +17312,7 @@
         <v>332.06</v>
       </c>
       <c r="M297" t="n">
-        <v>328.98</v>
+        <v>329.19</v>
       </c>
       <c r="N297" t="n">
         <v>318.92</v>
@@ -17369,7 +17369,7 @@
         <v>336.35</v>
       </c>
       <c r="M298" t="n">
-        <v>332.97</v>
+        <v>332.91</v>
       </c>
       <c r="N298" t="n">
         <v>321.5</v>
@@ -17426,7 +17426,7 @@
         <v>336.35</v>
       </c>
       <c r="M299" t="n">
-        <v>332.58</v>
+        <v>332.44</v>
       </c>
       <c r="N299" t="n">
         <v>322.87</v>
@@ -17483,7 +17483,7 @@
         <v>335.11</v>
       </c>
       <c r="M300" t="n">
-        <v>332.94</v>
+        <v>332.89</v>
       </c>
       <c r="N300" t="n">
         <v>322.47</v>
@@ -17540,7 +17540,7 @@
         <v>326.57</v>
       </c>
       <c r="M301" t="n">
-        <v>328.19</v>
+        <v>328.01</v>
       </c>
       <c r="N301" t="n">
         <v>320.17</v>
@@ -17597,7 +17597,7 @@
         <v>320.48</v>
       </c>
       <c r="M302" t="n">
-        <v>322.83</v>
+        <v>322.63</v>
       </c>
       <c r="N302" t="n">
         <v>315.2</v>
@@ -17654,7 +17654,7 @@
         <v>316.43</v>
       </c>
       <c r="M303" t="n">
-        <v>321.05</v>
+        <v>320.82</v>
       </c>
       <c r="N303" t="n">
         <v>314.66</v>
@@ -17711,7 +17711,7 @@
         <v>316.43</v>
       </c>
       <c r="M304" t="n">
-        <v>321.05</v>
+        <v>320.82</v>
       </c>
       <c r="N304" t="n">
         <v>314.66</v>
@@ -17768,7 +17768,7 @@
         <v>316.43</v>
       </c>
       <c r="M305" t="n">
-        <v>322.57</v>
+        <v>322.37</v>
       </c>
       <c r="N305" t="n">
         <v>317.03</v>
@@ -17825,7 +17825,7 @@
         <v>312.5</v>
       </c>
       <c r="M306" t="n">
-        <v>323.78</v>
+        <v>323.55</v>
       </c>
       <c r="N306" t="n">
         <v>319.28</v>
@@ -17882,7 +17882,7 @@
         <v>310.89</v>
       </c>
       <c r="M307" t="n">
-        <v>323.78</v>
+        <v>323.55</v>
       </c>
       <c r="N307" t="n">
         <v>319.28</v>
@@ -17939,7 +17939,7 @@
         <v>311.18</v>
       </c>
       <c r="M308" t="n">
-        <v>324.73</v>
+        <v>324.56</v>
       </c>
       <c r="N308" t="n">
         <v>318.96</v>
@@ -17996,7 +17996,7 @@
         <v>313.33</v>
       </c>
       <c r="M309" t="n">
-        <v>326.62</v>
+        <v>326.41</v>
       </c>
       <c r="N309" t="n">
         <v>320.95</v>
@@ -18053,7 +18053,7 @@
         <v>311.57</v>
       </c>
       <c r="M310" t="n">
-        <v>326.62</v>
+        <v>326.41</v>
       </c>
       <c r="N310" t="n">
         <v>320.95</v>
@@ -18110,7 +18110,7 @@
         <v>306.28</v>
       </c>
       <c r="M311" t="n">
-        <v>325.2</v>
+        <v>325.01</v>
       </c>
       <c r="N311" t="n">
         <v>319.05</v>
@@ -18167,7 +18167,7 @@
         <v>305.79</v>
       </c>
       <c r="M312" t="n">
-        <v>325.2</v>
+        <v>325.01</v>
       </c>
       <c r="N312" t="n">
         <v>319.05</v>
@@ -18224,7 +18224,7 @@
         <v>302.71</v>
       </c>
       <c r="M313" t="n">
-        <v>324.26</v>
+        <v>324.05</v>
       </c>
       <c r="N313" t="n">
         <v>321.53</v>
@@ -18281,7 +18281,7 @@
         <v>303.69</v>
       </c>
       <c r="M314" t="n">
-        <v>325.09</v>
+        <v>324.73</v>
       </c>
       <c r="N314" t="n">
         <v>324.8</v>
@@ -18338,7 +18338,7 @@
         <v>300.22</v>
       </c>
       <c r="M315" t="n">
-        <v>322.66</v>
+        <v>322.49</v>
       </c>
       <c r="N315" t="n">
         <v>319.99</v>
@@ -18395,7 +18395,7 @@
         <v>301.47</v>
       </c>
       <c r="M316" t="n">
-        <v>325.62</v>
+        <v>325.37</v>
       </c>
       <c r="N316" t="n">
         <v>322.48</v>
@@ -18452,7 +18452,7 @@
         <v>305.09</v>
       </c>
       <c r="M317" t="n">
-        <v>328.3</v>
+        <v>327.97</v>
       </c>
       <c r="N317" t="n">
         <v>325.76</v>
@@ -18509,7 +18509,7 @@
         <v>306.41</v>
       </c>
       <c r="M318" t="n">
-        <v>327.74</v>
+        <v>327.39</v>
       </c>
       <c r="N318" t="n">
         <v>325.26</v>
@@ -18566,7 +18566,7 @@
         <v>313.06</v>
       </c>
       <c r="M319" t="n">
-        <v>338.21</v>
+        <v>337.95</v>
       </c>
       <c r="N319" t="n">
         <v>334.36</v>
@@ -18623,7 +18623,7 @@
         <v>321.43</v>
       </c>
       <c r="M320" t="n">
-        <v>341.32</v>
+        <v>341.01</v>
       </c>
       <c r="N320" t="n">
         <v>335.96</v>
@@ -18680,7 +18680,7 @@
         <v>327.38</v>
       </c>
       <c r="M321" t="n">
-        <v>336.98</v>
+        <v>336.54</v>
       </c>
       <c r="N321" t="n">
         <v>344.52</v>
@@ -18737,7 +18737,7 @@
         <v>334.88</v>
       </c>
       <c r="M322" t="n">
-        <v>337.42</v>
+        <v>337.07</v>
       </c>
       <c r="N322" t="n">
         <v>343.41</v>
@@ -18794,7 +18794,7 @@
         <v>335.24</v>
       </c>
       <c r="M323" t="n">
-        <v>337.03</v>
+        <v>336.68</v>
       </c>
       <c r="N323" t="n">
         <v>342.48</v>
@@ -18851,7 +18851,7 @@
         <v>335.91</v>
       </c>
       <c r="M324" t="n">
-        <v>337.37</v>
+        <v>337.05</v>
       </c>
       <c r="N324" t="n">
         <v>341.85</v>
@@ -18908,7 +18908,7 @@
         <v>337.31</v>
       </c>
       <c r="M325" t="n">
-        <v>337.87</v>
+        <v>337.58</v>
       </c>
       <c r="N325" t="n">
         <v>341.6</v>
@@ -18965,7 +18965,7 @@
         <v>337.31</v>
       </c>
       <c r="M326" t="n">
-        <v>337.87</v>
+        <v>337.58</v>
       </c>
       <c r="N326" t="n">
         <v>341.6</v>
@@ -19022,7 +19022,7 @@
         <v>333.17</v>
       </c>
       <c r="M327" t="n">
-        <v>337</v>
+        <v>336.75</v>
       </c>
       <c r="N327" t="n">
         <v>341.09</v>
@@ -19079,7 +19079,7 @@
         <v>333.2</v>
       </c>
       <c r="M328" t="n">
-        <v>333.49</v>
+        <v>333.14</v>
       </c>
       <c r="N328" t="n">
         <v>339.18</v>
@@ -19136,7 +19136,7 @@
         <v>329.88</v>
       </c>
       <c r="M329" t="n">
-        <v>329.99</v>
+        <v>329.73</v>
       </c>
       <c r="N329" t="n">
         <v>336.25</v>
@@ -19193,7 +19193,7 @@
         <v>327.01</v>
       </c>
       <c r="M330" t="n">
-        <v>327.14</v>
+        <v>326.96</v>
       </c>
       <c r="N330" t="n">
         <v>334.54</v>
@@ -19250,7 +19250,7 @@
         <v>323.41</v>
       </c>
       <c r="M331" t="n">
-        <v>323.38</v>
+        <v>323.16</v>
       </c>
       <c r="N331" t="n">
         <v>330.87</v>
@@ -19307,7 +19307,7 @@
         <v>317.48</v>
       </c>
       <c r="M332" t="n">
-        <v>320.31</v>
+        <v>320.23</v>
       </c>
       <c r="N332" t="n">
         <v>328.75</v>
@@ -19364,7 +19364,7 @@
         <v>316.13</v>
       </c>
       <c r="M333" t="n">
-        <v>320.31</v>
+        <v>320.23</v>
       </c>
       <c r="N333" t="n">
         <v>327.69</v>
@@ -19421,7 +19421,7 @@
         <v>313.3</v>
       </c>
       <c r="M334" t="n">
-        <v>317.86</v>
+        <v>317.75</v>
       </c>
       <c r="N334" t="n">
         <v>325.06</v>
@@ -19478,7 +19478,7 @@
         <v>309.01</v>
       </c>
       <c r="M335" t="n">
-        <v>312.89</v>
+        <v>312.85</v>
       </c>
       <c r="N335" t="n">
         <v>321.35</v>
@@ -19535,7 +19535,7 @@
         <v>308.4</v>
       </c>
       <c r="M336" t="n">
-        <v>313.71</v>
+        <v>313.66</v>
       </c>
       <c r="N336" t="n">
         <v>320.55</v>
@@ -19592,7 +19592,7 @@
         <v>308.4</v>
       </c>
       <c r="M337" t="n">
-        <v>313.71</v>
+        <v>313.66</v>
       </c>
       <c r="N337" t="n">
         <v>320.55</v>
@@ -19649,7 +19649,7 @@
         <v>308.4</v>
       </c>
       <c r="M338" t="n">
-        <v>313.71</v>
+        <v>313.66</v>
       </c>
       <c r="N338" t="n">
         <v>320.55</v>
@@ -19706,7 +19706,7 @@
         <v>308.4</v>
       </c>
       <c r="M339" t="n">
-        <v>313.71</v>
+        <v>313.66</v>
       </c>
       <c r="N339" t="n">
         <v>320.55</v>
@@ -19763,7 +19763,7 @@
         <v>304.25</v>
       </c>
       <c r="M340" t="n">
-        <v>313.68</v>
+        <v>313.71</v>
       </c>
       <c r="N340" t="n">
         <v>314.26</v>
@@ -19820,7 +19820,7 @@
         <v>304.25</v>
       </c>
       <c r="M341" t="n">
-        <v>313.68</v>
+        <v>313.71</v>
       </c>
       <c r="N341" t="n">
         <v>314.26</v>
@@ -19877,7 +19877,7 @@
         <v>304.31</v>
       </c>
       <c r="M342" t="n">
-        <v>312.39</v>
+        <v>312.49</v>
       </c>
       <c r="N342" t="n">
         <v>311.43</v>
@@ -19934,7 +19934,7 @@
         <v>302.79</v>
       </c>
       <c r="M343" t="n">
-        <v>310.23</v>
+        <v>310.3</v>
       </c>
       <c r="N343" t="n">
         <v>311.43</v>
@@ -19991,7 +19991,7 @@
         <v>299.93</v>
       </c>
       <c r="M344" t="n">
-        <v>305.13</v>
+        <v>305.11</v>
       </c>
       <c r="N344" t="n">
         <v>303.87</v>
@@ -20048,7 +20048,7 @@
         <v>301.24</v>
       </c>
       <c r="M345" t="n">
-        <v>305.32</v>
+        <v>305.35</v>
       </c>
       <c r="N345" t="n">
         <v>301.42</v>
@@ -20105,7 +20105,7 @@
         <v>301.24</v>
       </c>
       <c r="M346" t="n">
-        <v>305.32</v>
+        <v>305.35</v>
       </c>
       <c r="N346" t="n">
         <v>301.42</v>
@@ -20162,7 +20162,7 @@
         <v>301.24</v>
       </c>
       <c r="M347" t="n">
-        <v>305.32</v>
+        <v>305.35</v>
       </c>
       <c r="N347" t="n">
         <v>301.28</v>
@@ -20219,7 +20219,7 @@
         <v>297.82</v>
       </c>
       <c r="M348" t="n">
-        <v>300.95</v>
+        <v>301.04</v>
       </c>
       <c r="N348" t="n">
         <v>297.64</v>
@@ -20276,7 +20276,7 @@
         <v>300.17</v>
       </c>
       <c r="M349" t="n">
-        <v>302.77</v>
+        <v>302.85</v>
       </c>
       <c r="N349" t="n">
         <v>298.77</v>
@@ -20333,7 +20333,7 @@
         <v>300.17</v>
       </c>
       <c r="M350" t="n">
-        <v>302.77</v>
+        <v>302.85</v>
       </c>
       <c r="N350" t="n">
         <v>298.77</v>
@@ -20390,7 +20390,7 @@
         <v>308.77</v>
       </c>
       <c r="M351" t="n">
-        <v>308.76</v>
+        <v>308.73</v>
       </c>
       <c r="N351" t="n">
         <v>296.14</v>
@@ -20447,7 +20447,7 @@
         <v>308.91</v>
       </c>
       <c r="M352" t="n">
-        <v>309.41</v>
+        <v>309.44</v>
       </c>
       <c r="N352" t="n">
         <v>299.46</v>
@@ -20504,7 +20504,7 @@
         <v>309.85</v>
       </c>
       <c r="M353" t="n">
-        <v>312.02</v>
+        <v>312.09</v>
       </c>
       <c r="N353" t="n">
         <v>303.81</v>
@@ -20561,7 +20561,7 @@
         <v>312.61</v>
       </c>
       <c r="M354" t="n">
-        <v>313.74</v>
+        <v>313.88</v>
       </c>
       <c r="N354" t="n">
         <v>306.8</v>
@@ -20618,7 +20618,7 @@
         <v>314.82</v>
       </c>
       <c r="M355" t="n">
-        <v>317.29</v>
+        <v>317.41</v>
       </c>
       <c r="N355" t="n">
         <v>310.72</v>
@@ -20675,7 +20675,7 @@
         <v>317.27</v>
       </c>
       <c r="M356" t="n">
-        <v>320.19</v>
+        <v>320.26</v>
       </c>
       <c r="N356" t="n">
         <v>316.5</v>
@@ -20732,7 +20732,7 @@
         <v>317.27</v>
       </c>
       <c r="M357" t="n">
-        <v>320.19</v>
+        <v>320.26</v>
       </c>
       <c r="N357" t="n">
         <v>316.5</v>
@@ -20789,7 +20789,7 @@
         <v>318.19</v>
       </c>
       <c r="M358" t="n">
-        <v>321.18</v>
+        <v>321.25</v>
       </c>
       <c r="N358" t="n">
         <v>316.5</v>
@@ -20846,7 +20846,7 @@
         <v>318.19</v>
       </c>
       <c r="M359" t="n">
-        <v>321.18</v>
+        <v>321.25</v>
       </c>
       <c r="N359" t="n">
         <v>316.5</v>
@@ -20903,7 +20903,7 @@
         <v>324.06</v>
       </c>
       <c r="M360" t="n">
-        <v>327.38</v>
+        <v>327.35</v>
       </c>
       <c r="N360" t="n">
         <v>320.99</v>
@@ -20960,7 +20960,7 @@
         <v>329.6</v>
       </c>
       <c r="M361" t="n">
-        <v>334.72</v>
+        <v>334.74</v>
       </c>
       <c r="N361" t="n">
         <v>328.7</v>
@@ -21017,7 +21017,7 @@
         <v>331.79</v>
       </c>
       <c r="M362" t="n">
-        <v>336.76</v>
+        <v>336.84</v>
       </c>
       <c r="N362" t="n">
         <v>330.28</v>
@@ -21074,7 +21074,7 @@
         <v>332.53</v>
       </c>
       <c r="M363" t="n">
-        <v>339.16</v>
+        <v>339.22</v>
       </c>
       <c r="N363" t="n">
         <v>337.48</v>
@@ -21131,7 +21131,7 @@
         <v>330.69</v>
       </c>
       <c r="M364" t="n">
-        <v>338.84</v>
+        <v>338.93</v>
       </c>
       <c r="N364" t="n">
         <v>335.12</v>
@@ -21188,7 +21188,7 @@
         <v>328.49</v>
       </c>
       <c r="M365" t="n">
-        <v>337.78</v>
+        <v>337.84</v>
       </c>
       <c r="N365" t="n">
         <v>332.99</v>
@@ -21245,7 +21245,7 @@
         <v>326.4</v>
       </c>
       <c r="M366" t="n">
-        <v>336.72</v>
+        <v>336.78</v>
       </c>
       <c r="N366" t="n">
         <v>331.01</v>
@@ -21302,7 +21302,7 @@
         <v>323.17</v>
       </c>
       <c r="M367" t="n">
-        <v>338.3</v>
+        <v>338.34</v>
       </c>
       <c r="N367" t="n">
         <v>332.01</v>
@@ -21359,7 +21359,7 @@
         <v>323.17</v>
       </c>
       <c r="M368" t="n">
-        <v>338.3</v>
+        <v>338.34</v>
       </c>
       <c r="N368" t="n">
         <v>332.01</v>
@@ -21416,7 +21416,7 @@
         <v>321.32</v>
       </c>
       <c r="M369" t="n">
-        <v>338.04</v>
+        <v>338.11</v>
       </c>
       <c r="N369" t="n">
         <v>332.27</v>
@@ -21473,7 +21473,7 @@
         <v>318.66</v>
       </c>
       <c r="M370" t="n">
-        <v>336.16</v>
+        <v>336.17</v>
       </c>
       <c r="N370" t="n">
         <v>330</v>
@@ -21530,7 +21530,7 @@
         <v>317.21</v>
       </c>
       <c r="M371" t="n">
-        <v>333.85</v>
+        <v>333.9</v>
       </c>
       <c r="N371" t="n">
         <v>328.45</v>
@@ -21587,7 +21587,7 @@
         <v>316.69</v>
       </c>
       <c r="M372" t="n">
-        <v>334.97</v>
+        <v>335.08</v>
       </c>
       <c r="N372" t="n">
         <v>328.45</v>
@@ -21644,7 +21644,7 @@
         <v>317.83</v>
       </c>
       <c r="M373" t="n">
-        <v>336.54</v>
+        <v>336.65</v>
       </c>
       <c r="N373" t="n">
         <v>329.86</v>
@@ -21701,7 +21701,7 @@
         <v>319.22</v>
       </c>
       <c r="M374" t="n">
-        <v>336.06</v>
+        <v>336.18</v>
       </c>
       <c r="N374" t="n">
         <v>329.81</v>
@@ -21758,7 +21758,7 @@
         <v>318.76</v>
       </c>
       <c r="M375" t="n">
-        <v>334.54</v>
+        <v>334.63</v>
       </c>
       <c r="N375" t="n">
         <v>327.45</v>
@@ -21815,7 +21815,7 @@
         <v>317.81</v>
       </c>
       <c r="M376" t="n">
-        <v>332.46</v>
+        <v>332.59</v>
       </c>
       <c r="N376" t="n">
         <v>322.88</v>
@@ -21872,7 +21872,7 @@
         <v>319.21</v>
       </c>
       <c r="M377" t="n">
-        <v>332.56</v>
+        <v>332.71</v>
       </c>
       <c r="N377" t="n">
         <v>323.05</v>
@@ -21929,7 +21929,7 @@
         <v>319.72</v>
       </c>
       <c r="M378" t="n">
-        <v>331.66</v>
+        <v>331.77</v>
       </c>
       <c r="N378" t="n">
         <v>320.86</v>
@@ -21986,7 +21986,7 @@
         <v>320.4</v>
       </c>
       <c r="M379" t="n">
-        <v>331.35</v>
+        <v>331.45</v>
       </c>
       <c r="N379" t="n">
         <v>318.93</v>
@@ -22043,7 +22043,7 @@
         <v>321.51</v>
       </c>
       <c r="M380" t="n">
-        <v>331.36</v>
+        <v>331.43</v>
       </c>
       <c r="N380" t="n">
         <v>318.65</v>
@@ -22100,7 +22100,7 @@
         <v>320.62</v>
       </c>
       <c r="M381" t="n">
-        <v>329.76</v>
+        <v>329.91</v>
       </c>
       <c r="N381" t="n">
         <v>315.57</v>
@@ -22157,7 +22157,7 @@
         <v>318.65</v>
       </c>
       <c r="M382" t="n">
-        <v>326.88</v>
+        <v>327</v>
       </c>
       <c r="N382" t="n">
         <v>313.68</v>
@@ -22214,7 +22214,7 @@
         <v>318.65</v>
       </c>
       <c r="M383" t="n">
-        <v>326.54</v>
+        <v>326.7</v>
       </c>
       <c r="N383" t="n">
         <v>312.36</v>
@@ -22271,7 +22271,7 @@
         <v>319.15</v>
       </c>
       <c r="M384" t="n">
-        <v>326.22</v>
+        <v>326.3</v>
       </c>
       <c r="N384" t="n">
         <v>313.48</v>
@@ -22328,7 +22328,7 @@
         <v>320.73</v>
       </c>
       <c r="M385" t="n">
-        <v>325.5</v>
+        <v>325.52</v>
       </c>
       <c r="N385" t="n">
         <v>313.14</v>
@@ -22385,7 +22385,7 @@
         <v>327.78</v>
       </c>
       <c r="M386" t="n">
-        <v>325.51</v>
+        <v>325.54</v>
       </c>
       <c r="N386" t="n">
         <v>313.03</v>
@@ -22442,7 +22442,7 @@
         <v>327.78</v>
       </c>
       <c r="M387" t="n">
-        <v>325.51</v>
+        <v>325.54</v>
       </c>
       <c r="N387" t="n">
         <v>314.47</v>
@@ -22499,7 +22499,7 @@
         <v>334.02</v>
       </c>
       <c r="M388" t="n">
-        <v>329.1</v>
+        <v>329.2</v>
       </c>
       <c r="N388" t="n">
         <v>316.44</v>
@@ -22556,7 +22556,7 @@
         <v>336.96</v>
       </c>
       <c r="M389" t="n">
-        <v>329.17</v>
+        <v>329.21</v>
       </c>
       <c r="N389" t="n">
         <v>317.25</v>
@@ -22613,7 +22613,7 @@
         <v>336.04</v>
       </c>
       <c r="M390" t="n">
-        <v>326.78</v>
+        <v>326.71</v>
       </c>
       <c r="N390" t="n">
         <v>314.16</v>
@@ -22670,7 +22670,7 @@
         <v>335.97</v>
       </c>
       <c r="M391" t="n">
-        <v>326.57</v>
+        <v>326.45</v>
       </c>
       <c r="N391" t="n">
         <v>314.62</v>
@@ -22727,7 +22727,7 @@
         <v>335.08</v>
       </c>
       <c r="M392" t="n">
-        <v>325.95</v>
+        <v>325.86</v>
       </c>
       <c r="N392" t="n">
         <v>312.74</v>
@@ -22784,7 +22784,7 @@
         <v>334.86</v>
       </c>
       <c r="M393" t="n">
-        <v>325.71</v>
+        <v>325.56</v>
       </c>
       <c r="N393" t="n">
         <v>308.81</v>
@@ -22841,7 +22841,7 @@
         <v>333.77</v>
       </c>
       <c r="M394" t="n">
-        <v>326.28</v>
+        <v>326.16</v>
       </c>
       <c r="N394" t="n">
         <v>310.31</v>
@@ -22898,7 +22898,7 @@
         <v>334.29</v>
       </c>
       <c r="M395" t="n">
-        <v>326.63</v>
+        <v>326.48</v>
       </c>
       <c r="N395" t="n">
         <v>313.46</v>
@@ -22955,7 +22955,7 @@
         <v>330.71</v>
       </c>
       <c r="M396" t="n">
-        <v>323.99</v>
+        <v>323.85</v>
       </c>
       <c r="N396" t="n">
         <v>314.48</v>
@@ -23012,7 +23012,7 @@
         <v>327.62</v>
       </c>
       <c r="M397" t="n">
-        <v>321.92</v>
+        <v>321.82</v>
       </c>
       <c r="N397" t="n">
         <v>313.35</v>
@@ -23069,7 +23069,7 @@
         <v>324.48</v>
       </c>
       <c r="M398" t="n">
-        <v>319.95</v>
+        <v>319.97</v>
       </c>
       <c r="N398" t="n">
         <v>312.81</v>
@@ -23126,7 +23126,7 @@
         <v>321.62</v>
       </c>
       <c r="M399" t="n">
-        <v>319.5</v>
+        <v>319.53</v>
       </c>
       <c r="N399" t="n">
         <v>312.37</v>
@@ -23297,7 +23297,7 @@
         <v>318.42</v>
       </c>
       <c r="M402" t="n">
-        <v>318.68</v>
+        <v>318.62</v>
       </c>
       <c r="N402" t="n">
         <v>311.1</v>
@@ -23354,7 +23354,7 @@
         <v>318.42</v>
       </c>
       <c r="M403" t="n">
-        <v>318.68</v>
+        <v>318.62</v>
       </c>
       <c r="N403" t="n">
         <v>311.1</v>
@@ -23411,7 +23411,7 @@
         <v>318.64</v>
       </c>
       <c r="M404" t="n">
-        <v>318.68</v>
+        <v>318.62</v>
       </c>
       <c r="N404" t="n">
         <v>311.1</v>
@@ -23468,7 +23468,7 @@
         <v>313.49</v>
       </c>
       <c r="M405" t="n">
-        <v>317.37</v>
+        <v>317.55</v>
       </c>
       <c r="N405" t="n">
         <v>306.64</v>
@@ -23525,7 +23525,7 @@
         <v>313.14</v>
       </c>
       <c r="M406" t="n">
-        <v>318.01</v>
+        <v>318.22</v>
       </c>
       <c r="N406" t="n">
         <v>308.53</v>
@@ -23582,7 +23582,7 @@
         <v>311.67</v>
       </c>
       <c r="M407" t="n">
-        <v>317.27</v>
+        <v>317.42</v>
       </c>
       <c r="N407" t="n">
         <v>307.9</v>
@@ -23639,7 +23639,7 @@
         <v>308.3</v>
       </c>
       <c r="M408" t="n">
-        <v>316.73</v>
+        <v>316.9</v>
       </c>
       <c r="N408" t="n">
         <v>305.07</v>
@@ -23696,7 +23696,7 @@
         <v>312.3</v>
       </c>
       <c r="M409" t="n">
-        <v>320.61</v>
+        <v>320.66</v>
       </c>
       <c r="N409" t="n">
         <v>309.08</v>
@@ -23753,7 +23753,7 @@
         <v>315.76</v>
       </c>
       <c r="M410" t="n">
-        <v>323.44</v>
+        <v>323.36</v>
       </c>
       <c r="N410" t="n">
         <v>312.02</v>
@@ -23810,7 +23810,7 @@
         <v>333.34</v>
       </c>
       <c r="M411" t="n">
-        <v>336.44</v>
+        <v>336.11</v>
       </c>
       <c r="N411" t="n">
         <v>311.33</v>
@@ -23867,7 +23867,7 @@
         <v>345.17</v>
       </c>
       <c r="M412" t="n">
-        <v>347.27</v>
+        <v>346.78</v>
       </c>
       <c r="N412" t="n">
         <v>330.16</v>
@@ -23924,7 +23924,7 @@
         <v>355.92</v>
       </c>
       <c r="M413" t="n">
-        <v>355.98</v>
+        <v>355.57</v>
       </c>
       <c r="N413" t="n">
         <v>344.21</v>
@@ -23981,7 +23981,7 @@
         <v>355.92</v>
       </c>
       <c r="M414" t="n">
-        <v>355.98</v>
+        <v>355.57</v>
       </c>
       <c r="N414" t="n">
         <v>344.21</v>
@@ -24038,7 +24038,7 @@
         <v>365.2</v>
       </c>
       <c r="M415" t="n">
-        <v>367.01</v>
+        <v>366.96</v>
       </c>
       <c r="N415" t="n">
         <v>355.63</v>
@@ -24095,7 +24095,7 @@
         <v>363.1</v>
       </c>
       <c r="M416" t="n">
-        <v>364.84</v>
+        <v>364.93</v>
       </c>
       <c r="N416" t="n">
         <v>352.44</v>
@@ -24152,7 +24152,7 @@
         <v>363.1</v>
       </c>
       <c r="M417" t="n">
-        <v>369.04</v>
+        <v>369</v>
       </c>
       <c r="N417" t="n">
         <v>356.32</v>
@@ -24209,7 +24209,7 @@
         <v>357.84</v>
       </c>
       <c r="M418" t="n">
-        <v>363.17</v>
+        <v>363.03</v>
       </c>
       <c r="N418" t="n">
         <v>351.47</v>
@@ -24266,7 +24266,7 @@
         <v>355.34</v>
       </c>
       <c r="M419" t="n">
-        <v>360.69</v>
+        <v>360.5</v>
       </c>
       <c r="N419" t="n">
         <v>349.73</v>
@@ -24323,7 +24323,7 @@
         <v>348.21</v>
       </c>
       <c r="M420" t="n">
-        <v>353.85</v>
+        <v>353.71</v>
       </c>
       <c r="N420" t="n">
         <v>345.73</v>
@@ -24380,7 +24380,7 @@
         <v>341.06</v>
       </c>
       <c r="M421" t="n">
-        <v>345.05</v>
+        <v>344.9</v>
       </c>
       <c r="N421" t="n">
         <v>341.69</v>
@@ -24437,7 +24437,7 @@
         <v>336.09</v>
       </c>
       <c r="M422" t="n">
-        <v>340.75</v>
+        <v>340.63</v>
       </c>
       <c r="N422" t="n">
         <v>339.27</v>
@@ -24494,7 +24494,7 @@
         <v>336.09</v>
       </c>
       <c r="M423" t="n">
-        <v>340.75</v>
+        <v>340.63</v>
       </c>
       <c r="N423" t="n">
         <v>339.27</v>
@@ -24551,7 +24551,7 @@
         <v>333.19</v>
       </c>
       <c r="M424" t="n">
-        <v>339.15</v>
+        <v>339.02</v>
       </c>
       <c r="N424" t="n">
         <v>338.29</v>
@@ -24608,7 +24608,7 @@
         <v>333.65</v>
       </c>
       <c r="M425" t="n">
-        <v>340.22</v>
+        <v>340.06</v>
       </c>
       <c r="N425" t="n">
         <v>340.49</v>
@@ -24665,7 +24665,7 @@
         <v>331.44</v>
       </c>
       <c r="M426" t="n">
-        <v>340.22</v>
+        <v>340.06</v>
       </c>
       <c r="N426" t="n">
         <v>340.49</v>
@@ -24722,7 +24722,7 @@
         <v>326.51</v>
       </c>
       <c r="M427" t="n">
-        <v>337.44</v>
+        <v>337.35</v>
       </c>
       <c r="N427" t="n">
         <v>340.49</v>
@@ -24779,7 +24779,7 @@
         <v>327.21</v>
       </c>
       <c r="M428" t="n">
-        <v>337.58</v>
+        <v>337.43</v>
       </c>
       <c r="N428" t="n">
         <v>341.95</v>
@@ -24836,7 +24836,7 @@
         <v>327.21</v>
       </c>
       <c r="M429" t="n">
-        <v>337.58</v>
+        <v>337.43</v>
       </c>
       <c r="N429" t="n">
         <v>341.95</v>
@@ -24893,7 +24893,7 @@
         <v>326.05</v>
       </c>
       <c r="M430" t="n">
-        <v>335.36</v>
+        <v>335.26</v>
       </c>
       <c r="N430" t="n">
         <v>340.71</v>
@@ -24950,7 +24950,7 @@
         <v>326.05</v>
       </c>
       <c r="M431" t="n">
-        <v>334.03</v>
+        <v>333.87</v>
       </c>
       <c r="N431" t="n">
         <v>339.66</v>
@@ -25007,7 +25007,7 @@
         <v>324.83</v>
       </c>
       <c r="M432" t="n">
-        <v>333.36</v>
+        <v>333.16</v>
       </c>
       <c r="N432" t="n">
         <v>338.92</v>
@@ -25064,7 +25064,7 @@
         <v>322.05</v>
       </c>
       <c r="M433" t="n">
-        <v>331.54</v>
+        <v>331.37</v>
       </c>
       <c r="N433" t="n">
         <v>337.17</v>
@@ -25121,7 +25121,7 @@
         <v>318.75</v>
       </c>
       <c r="M434" t="n">
-        <v>329.05</v>
+        <v>328.84</v>
       </c>
       <c r="N434" t="n">
         <v>335.63</v>
@@ -25163,7 +25163,7 @@
         <v>337.22</v>
       </c>
       <c r="H435" t="n">
-        <v>325.17</v>
+        <v>327.32</v>
       </c>
       <c r="I435" t="n">
         <v>315.21</v>
@@ -25178,7 +25178,7 @@
         <v>313.71</v>
       </c>
       <c r="M435" t="n">
-        <v>324.28</v>
+        <v>323.93</v>
       </c>
       <c r="N435" t="n">
         <v>333.94</v>
@@ -25192,6 +25192,63 @@
       <c r="Q435" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>385.39</v>
+      </c>
+      <c r="C436" t="n">
+        <v>313.93</v>
+      </c>
+      <c r="D436" t="n">
+        <v>325.49</v>
+      </c>
+      <c r="E436" t="n">
+        <v>332.25</v>
+      </c>
+      <c r="F436" t="n">
+        <v>340.56</v>
+      </c>
+      <c r="G436" t="n">
+        <v>338.79</v>
+      </c>
+      <c r="H436" t="n">
+        <v>329.2</v>
+      </c>
+      <c r="I436" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="J436" t="n">
+        <v>307.98</v>
+      </c>
+      <c r="K436" t="n">
+        <v>298.55</v>
+      </c>
+      <c r="L436" t="n">
+        <v>313.48</v>
+      </c>
+      <c r="M436" t="n">
+        <v>319.86</v>
+      </c>
+      <c r="N436" t="n">
+        <v>332.4</v>
+      </c>
+      <c r="O436" t="n">
+        <v>338.09</v>
+      </c>
+      <c r="P436" t="n">
+        <v>331.15</v>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B508"/>
+  <dimension ref="A1:B509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30294,6 +30351,16 @@
       </c>
       <c r="B508" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -30461,34 +30528,34 @@
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0883</v>
+        <v>0.0882</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2230016478020006</v>
+        <v>0.2220289642997613</v>
       </c>
       <c r="J2" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K2" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0213972601047584</v>
+        <v>0.02130302128125738</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357501503656698</v>
+        <v>7.344075412359201</v>
       </c>
       <c r="N2" t="n">
-        <v>95.66937282029328</v>
+        <v>95.45451494725445</v>
       </c>
       <c r="O2" t="n">
-        <v>9.781072171305826</v>
+        <v>9.770082647923427</v>
       </c>
       <c r="P2" t="n">
-        <v>381.5234874526066</v>
+        <v>381.53580780001</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30543,34 +30610,34 @@
         <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1142</v>
+        <v>0.114</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2200248876965082</v>
+        <v>-0.2252715219961469</v>
       </c>
       <c r="J3" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K3" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0157880093145476</v>
+        <v>0.01657382311055644</v>
       </c>
       <c r="M3" t="n">
-        <v>8.968848872277336</v>
+        <v>8.971944794622168</v>
       </c>
       <c r="N3" t="n">
-        <v>126.7365691623817</v>
+        <v>126.7065638810739</v>
       </c>
       <c r="O3" t="n">
-        <v>11.25773374895595</v>
+        <v>11.25640101813515</v>
       </c>
       <c r="P3" t="n">
-        <v>330.4190556496529</v>
+        <v>330.4855083515912</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30621,34 +30688,34 @@
         <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1371</v>
+        <v>0.137</v>
       </c>
       <c r="H4" t="n">
         <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.05883170802748783</v>
+        <v>-0.05688425777402704</v>
       </c>
       <c r="J4" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K4" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001249090789448903</v>
+        <v>0.001172577997870738</v>
       </c>
       <c r="M4" t="n">
-        <v>8.409298648171694</v>
+        <v>8.398664334997033</v>
       </c>
       <c r="N4" t="n">
-        <v>117.2575282830845</v>
+        <v>117.0236406687429</v>
       </c>
       <c r="O4" t="n">
-        <v>10.82855153208796</v>
+        <v>10.81774656149528</v>
       </c>
       <c r="P4" t="n">
-        <v>323.0206205476062</v>
+        <v>322.9961278752812</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30699,34 +30766,34 @@
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1302</v>
+        <v>0.1299</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1426514694122922</v>
+        <v>0.1431886716352726</v>
       </c>
       <c r="J5" t="n">
+        <v>435</v>
+      </c>
+      <c r="K5" t="n">
         <v>434</v>
       </c>
-      <c r="K5" t="n">
-        <v>433</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.00881279317124406</v>
+        <v>0.008916573458684462</v>
       </c>
       <c r="M5" t="n">
-        <v>7.933801007873194</v>
+        <v>7.918034288255362</v>
       </c>
       <c r="N5" t="n">
-        <v>98.23925161500176</v>
+        <v>98.01575838076444</v>
       </c>
       <c r="O5" t="n">
-        <v>9.911571601668514</v>
+        <v>9.900290823039716</v>
       </c>
       <c r="P5" t="n">
-        <v>327.3900834323989</v>
+        <v>327.383370105068</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30777,34 +30844,34 @@
         <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1207</v>
+        <v>0.1208</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2534461446251291</v>
+        <v>0.258078622053247</v>
       </c>
       <c r="J6" t="n">
+        <v>435</v>
+      </c>
+      <c r="K6" t="n">
         <v>434</v>
       </c>
-      <c r="K6" t="n">
-        <v>433</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.03163927049043547</v>
+        <v>0.03282519508775983</v>
       </c>
       <c r="M6" t="n">
-        <v>7.437219844560802</v>
+        <v>7.442726828548843</v>
       </c>
       <c r="N6" t="n">
-        <v>84.38641205505492</v>
+        <v>84.40498238257845</v>
       </c>
       <c r="O6" t="n">
-        <v>9.18620770802919</v>
+        <v>9.18721842466905</v>
       </c>
       <c r="P6" t="n">
-        <v>324.259445937217</v>
+        <v>324.2015546329801</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30855,34 +30922,34 @@
         <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.097</v>
+        <v>0.0963</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5501290498056592</v>
+        <v>0.5535822478133435</v>
       </c>
       <c r="J7" t="n">
+        <v>435</v>
+      </c>
+      <c r="K7" t="n">
         <v>434</v>
       </c>
-      <c r="K7" t="n">
-        <v>433</v>
-      </c>
       <c r="L7" t="n">
-        <v>0.1567612532929775</v>
+        <v>0.1587732829915822</v>
       </c>
       <c r="M7" t="n">
-        <v>6.732571945876336</v>
+        <v>6.731975073615079</v>
       </c>
       <c r="N7" t="n">
-        <v>69.87654451535761</v>
+        <v>69.83390123309697</v>
       </c>
       <c r="O7" t="n">
-        <v>8.359219133110317</v>
+        <v>8.356668070056209</v>
       </c>
       <c r="P7" t="n">
-        <v>317.1575544307846</v>
+        <v>317.1144003864196</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30933,34 +31000,34 @@
         <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.0871</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7613268538917067</v>
+        <v>0.7599202272146012</v>
       </c>
       <c r="J8" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K8" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1716418683594466</v>
+        <v>0.1717547759219535</v>
       </c>
       <c r="M8" t="n">
-        <v>8.629791512728788</v>
+        <v>8.617997402357165</v>
       </c>
       <c r="N8" t="n">
-        <v>119.7519664707313</v>
+        <v>119.4552386678824</v>
       </c>
       <c r="O8" t="n">
-        <v>10.94312416409187</v>
+        <v>10.92955802710624</v>
       </c>
       <c r="P8" t="n">
-        <v>314.2638254767695</v>
+        <v>314.2814726940833</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31011,34 +31078,34 @@
         <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.0862</v>
       </c>
       <c r="H9" t="n">
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2383933547961132</v>
+        <v>0.2374972796736482</v>
       </c>
       <c r="J9" t="n">
+        <v>435</v>
+      </c>
+      <c r="K9" t="n">
         <v>434</v>
       </c>
-      <c r="K9" t="n">
-        <v>433</v>
-      </c>
       <c r="L9" t="n">
-        <v>0.01022519808978495</v>
+        <v>0.01019241096356538</v>
       </c>
       <c r="M9" t="n">
-        <v>12.97528286695056</v>
+        <v>12.94890489852705</v>
       </c>
       <c r="N9" t="n">
-        <v>236.3424911956327</v>
+        <v>235.8059058376645</v>
       </c>
       <c r="O9" t="n">
-        <v>15.37343459333771</v>
+        <v>15.35597296942348</v>
       </c>
       <c r="P9" t="n">
-        <v>315.5075744621417</v>
+        <v>315.5187681504927</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31089,34 +31156,34 @@
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0949</v>
+        <v>0.0939</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1560703473064727</v>
+        <v>-0.1626487534809415</v>
       </c>
       <c r="J10" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K10" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00458937282399341</v>
+        <v>0.004994616468851021</v>
       </c>
       <c r="M10" t="n">
-        <v>12.00785973808354</v>
+        <v>12.01068344465226</v>
       </c>
       <c r="N10" t="n">
-        <v>224.6617452008686</v>
+        <v>224.5667327650388</v>
       </c>
       <c r="O10" t="n">
-        <v>14.98872059919954</v>
+        <v>14.98555079952148</v>
       </c>
       <c r="P10" t="n">
-        <v>325.6674992453952</v>
+        <v>325.7501054023178</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31167,34 +31234,34 @@
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0794</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.2606310049548593</v>
+        <v>-0.2694747120446594</v>
       </c>
       <c r="J11" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K11" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L11" t="n">
-        <v>0.009229603787087481</v>
+        <v>0.009878733036521758</v>
       </c>
       <c r="M11" t="n">
-        <v>14.64612222513808</v>
+        <v>14.64549339231542</v>
       </c>
       <c r="N11" t="n">
-        <v>308.9560899284054</v>
+        <v>309.0038354898721</v>
       </c>
       <c r="O11" t="n">
-        <v>17.577146808524</v>
+        <v>17.5785049276061</v>
       </c>
       <c r="P11" t="n">
-        <v>323.6095267993084</v>
+        <v>323.7207522437089</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31245,34 +31312,34 @@
         <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0451</v>
+        <v>0.0448</v>
       </c>
       <c r="H12" t="n">
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1011203097012783</v>
+        <v>-0.1052347233993833</v>
       </c>
       <c r="J12" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001951946025967155</v>
+        <v>0.002121299513527464</v>
       </c>
       <c r="M12" t="n">
-        <v>12.42409353153438</v>
+        <v>12.41245417532398</v>
       </c>
       <c r="N12" t="n">
-        <v>221.5210844522894</v>
+        <v>221.1742613731873</v>
       </c>
       <c r="O12" t="n">
-        <v>14.88358439530913</v>
+        <v>14.87192863663578</v>
       </c>
       <c r="P12" t="n">
-        <v>324.6080382685357</v>
+        <v>324.6597843844316</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31320,37 +31387,37 @@
         <v>0.2145118968853173</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.065</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0446</v>
+        <v>0.0444</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1409</v>
+        <v>0.1389</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.4326907746469474</v>
+        <v>-0.4340240363732534</v>
       </c>
       <c r="J13" t="n">
+        <v>435</v>
+      </c>
+      <c r="K13" t="n">
         <v>434</v>
       </c>
-      <c r="K13" t="n">
-        <v>433</v>
-      </c>
       <c r="L13" t="n">
-        <v>0.0469448292537864</v>
+        <v>0.0477460268827774</v>
       </c>
       <c r="M13" t="n">
-        <v>9.59570826199311</v>
+        <v>9.539817825817734</v>
       </c>
       <c r="N13" t="n">
-        <v>163.2955707538108</v>
+        <v>161.7359873514411</v>
       </c>
       <c r="O13" t="n">
-        <v>12.77871553614881</v>
+        <v>12.71754643598525</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8440150870647</v>
+        <v>334.7901466171074</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31401,34 +31468,34 @@
         <v>0.095</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0541</v>
+        <v>0.0543</v>
       </c>
       <c r="H14" t="n">
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6124930692282902</v>
+        <v>-0.606667254174725</v>
       </c>
       <c r="J14" t="n">
+        <v>435</v>
+      </c>
+      <c r="K14" t="n">
         <v>434</v>
       </c>
-      <c r="K14" t="n">
-        <v>433</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.0958396500934996</v>
+        <v>0.09437531034985203</v>
       </c>
       <c r="M14" t="n">
-        <v>9.585347209014653</v>
+        <v>9.596610352646785</v>
       </c>
       <c r="N14" t="n">
-        <v>152.0517599858383</v>
+        <v>152.0388285771873</v>
       </c>
       <c r="O14" t="n">
-        <v>12.33092697188003</v>
+        <v>12.33040261212858</v>
       </c>
       <c r="P14" t="n">
-        <v>336.3457463427164</v>
+        <v>336.2729707947008</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31482,31 +31549,31 @@
         <v>0.0398</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0896</v>
+        <v>0.089</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.3333500243700347</v>
+        <v>-0.3282465899326486</v>
       </c>
       <c r="J15" t="n">
+        <v>435</v>
+      </c>
+      <c r="K15" t="n">
         <v>434</v>
       </c>
-      <c r="K15" t="n">
-        <v>433</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.04694381709251239</v>
+        <v>0.04565415821959162</v>
       </c>
       <c r="M15" t="n">
-        <v>7.602763990140582</v>
+        <v>7.611298043764863</v>
       </c>
       <c r="N15" t="n">
-        <v>96.92369024142118</v>
+        <v>96.95929252275242</v>
       </c>
       <c r="O15" t="n">
-        <v>9.844982998533881</v>
+        <v>9.846790975884094</v>
       </c>
       <c r="P15" t="n">
-        <v>336.202833320753</v>
+        <v>336.139081685226</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31563,28 +31630,28 @@
         <v>0.035</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.406408324431441</v>
+        <v>-0.4028935480431637</v>
       </c>
       <c r="J16" t="n">
+        <v>435</v>
+      </c>
+      <c r="K16" t="n">
         <v>434</v>
       </c>
-      <c r="K16" t="n">
-        <v>433</v>
-      </c>
       <c r="L16" t="n">
-        <v>0.06765616493317883</v>
+        <v>0.06675912296573272</v>
       </c>
       <c r="M16" t="n">
-        <v>7.441316498387753</v>
+        <v>7.442194620842998</v>
       </c>
       <c r="N16" t="n">
-        <v>97.78737149849616</v>
+        <v>97.68486974633417</v>
       </c>
       <c r="O16" t="n">
-        <v>9.888749743951262</v>
+        <v>9.883565639299118</v>
       </c>
       <c r="P16" t="n">
-        <v>334.4990439273261</v>
+        <v>334.4551376626305</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -31622,7 +31689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q435"/>
+  <dimension ref="A1:Q436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31744,7 +31811,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-45.896492820264044,170.64359803172138</t>
+          <t>-45.896486431221454,170.64359956141132</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -31878,7 +31945,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-45.8962464871533,170.6436570094914</t>
+          <t>-45.896246753363464,170.6436569457549</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -31965,7 +32032,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-45.8962464871533,170.6436570094914</t>
+          <t>-45.896246753363464,170.6436569457549</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -32052,7 +32119,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-45.896266807862105,170.6436521442716</t>
+          <t>-45.89626565428477,170.64365242046324</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -32139,7 +32206,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-45.8962639682871,170.64365282412788</t>
+          <t>-45.89626192734255,170.64365331277455</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -32226,7 +32293,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-45.8962375247445,170.64365915528577</t>
+          <t>-45.89623743600778,170.6436591765313</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -32313,7 +32380,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-45.89625624819251,170.64365467248672</t>
+          <t>-45.89625891029409,170.6436540351217</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -32400,7 +32467,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-45.896212944672506,170.64366504028243</t>
+          <t>-45.89621968866343,170.64366342562687</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -32487,7 +32554,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-45.89611444690607,170.64368862270356</t>
+          <t>-45.89612101342408,170.64368705054497</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -32574,7 +32641,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-45.89618073324166,170.6436727523814</t>
+          <t>-45.89618641239206,170.6436713926732</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -32661,7 +32728,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-45.8962379684281,170.64365904905836</t>
+          <t>-45.89624080800317,170.64365836920277</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -32744,7 +32811,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-45.89644197413255,170.64361020549316</t>
+          <t>-45.896435496353,170.6436117564257</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -32831,7 +32898,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-45.89624249400088,170.6436579655385</t>
+          <t>-45.896239033268756,170.64365879411253</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -32918,7 +32985,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-45.89624142916023,170.64365822048435</t>
+          <t>-45.896240275582855,170.6436584966757</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -33005,7 +33072,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-45.89626796143945,170.64365186807998</t>
+          <t>-45.89626920375352,170.64365157064285</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -33092,7 +33159,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-45.89626796143945,170.64365186807998</t>
+          <t>-45.89626920375352,170.64365157064285</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -33179,7 +33246,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-45.89630230254915,170.64364364606195</t>
+          <t>-45.89629893055393,170.64364445339237</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -33266,7 +33333,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>-45.896316145476824,170.643640331757</t>
+          <t>-45.896311176220756,170.6436415215077</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -33353,7 +33420,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>-45.89631259600821,170.64364118157894</t>
+          <t>-45.89630523086079,170.64364294495914</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -33440,7 +33507,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-45.896320937259446,170.6436391844972</t>
+          <t>-45.89631374958552,170.64364090538683</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -33527,7 +33594,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>-45.896330343351195,170.64363693246804</t>
+          <t>-45.89632599525218,170.6436379735005</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -33614,7 +33681,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>-45.896390861788795,170.64362244297774</t>
+          <t>-45.89639157168247,170.64362227301285</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -33697,7 +33764,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-45.89641402206983,170.64361689787054</t>
+          <t>-45.896416861644475,170.64361621801032</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -33780,7 +33847,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>-45.89634693711664,170.64363295954666</t>
+          <t>-45.8963487118509,170.64363253463515</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -33867,7 +33934,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>-45.896339394496,170.64363476542036</t>
+          <t>-45.89633930575929,170.64363478666593</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -33954,7 +34021,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>-45.896339394496,170.64363476542036</t>
+          <t>-45.89633930575929,170.64363478666593</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -34041,7 +34108,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-45.896356076998046,170.643630771252</t>
+          <t>-45.89635687562847,170.64363058004173</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -34128,7 +34195,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>-45.896350841532005,170.64363202474127</t>
+          <t>-45.896351817635846,170.6436317910399</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -34215,7 +34282,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>-45.896361312464066,170.64362951776246</t>
+          <t>-45.89636219983119,170.64362930530658</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -34302,7 +34369,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-45.89634516238239,170.64363338445816</t>
+          <t>-45.89634578353937,170.64363323573914</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -34389,7 +34456,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>-45.89634516238239,170.64363338445816</t>
+          <t>-45.89634578353937,170.64363323573914</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -34476,7 +34543,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-45.89633974944286,170.64363468043805</t>
+          <t>-45.89633895081244,170.64363487164817</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -34563,7 +34630,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-45.896377107598695,170.64362573604672</t>
+          <t>-45.89637764001896,170.6436256085731</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -34650,7 +34717,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-45.896362022357756,170.64362934779774</t>
+          <t>-45.89636113499064,170.64362956025363</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -34737,7 +34804,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-45.896086672309195,170.64369527250514</t>
+          <t>-45.896085429994955,170.64369556994018</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -34824,7 +34891,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>-45.89605224245662,170.64370351569966</t>
+          <t>-45.896051443826,170.64370370690764</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -34911,7 +34978,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-45.896111163647035,170.64368940878273</t>
+          <t>-45.89611018754301,170.64368964248192</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -34998,7 +35065,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-45.89615988011105,170.64367774505746</t>
+          <t>-45.8961577504296,170.64367825494756</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -35085,7 +35152,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>-45.896180378294765,170.6436728373632</t>
+          <t>-45.896179402190775,170.643673071063</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -35172,7 +35239,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-45.896180378294765,170.6436728373632</t>
+          <t>-45.896179402190775,170.643673071063</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -35259,7 +35326,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-45.89619759321935,170.64366871574677</t>
+          <t>-45.89619590722159,170.64366911941036</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -35346,7 +35413,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-45.89621729277193,170.64366399925453</t>
+          <t>-45.89621534056402,170.64366446665483</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -35433,7 +35500,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-45.89620433721036,170.6436671010922</t>
+          <t>-45.89620371605329,170.6436672498104</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -35520,7 +35587,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>-45.89620433721036,170.6436671010922</t>
+          <t>-45.89620371605329,170.6436672498104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -35694,7 +35761,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-45.896208152889464,170.64366618753743</t>
+          <t>-45.89620744299568,170.64366635750113</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -35781,7 +35848,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-45.89626920375352,170.64365157064285</t>
+          <t>-45.896266896598824,170.6436521230261</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -35868,7 +35935,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>-45.8962852650995,170.64364772520406</t>
+          <t>-45.89628100573705,170.64364874498915</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -35955,7 +36022,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-45.89633779723516,170.64363514784057</t>
+          <t>-45.89633362660962,170.6436361463822</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -36042,7 +36109,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-45.89637426802395,170.6436264159059</t>
+          <t>-45.896369564978265,170.6436275419225</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -36129,7 +36196,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-45.89637666391514,170.64362584227473</t>
+          <t>-45.89637355813026,170.64362658587066</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -36216,7 +36283,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-45.896400977773666,170.64362002097752</t>
+          <t>-45.896399291776206,170.6436204246443</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -36303,7 +36370,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-45.896400977773666,170.64362002097752</t>
+          <t>-45.896399291776206,170.6436204246443</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -36390,7 +36457,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-45.896396185991364,170.6436211682409</t>
+          <t>-45.89639627472808,170.64362114699532</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -36477,7 +36544,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-45.896386247479874,170.64362354774948</t>
+          <t>-45.89638961947486,170.64362274041633</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -36564,7 +36631,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-45.896310288853606,170.64364173396316</t>
+          <t>-45.896315169372954,170.64364056545804</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -36647,7 +36714,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-45.89626813891289,170.643651825589</t>
+          <t>-45.896273108169126,170.64365063584026</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -36734,7 +36801,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-45.89618632365535,170.64367141391867</t>
+          <t>-45.89619067175485,170.64367037289185</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -36821,7 +36888,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-45.89622785244187,170.64366147104326</t>
+          <t>-45.89622794117859,170.64366144979778</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -36908,7 +36975,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-45.8961948423809,170.6436693743558</t>
+          <t>-45.89619599595833,170.6436690981649</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -36995,7 +37062,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-45.896174521670886,170.64367423956193</t>
+          <t>-45.89617523156468,170.64367406959846</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -37082,7 +37149,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-45.89618818712656,170.64367096776434</t>
+          <t>-45.89618863081019,170.64367086153712</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -37161,7 +37228,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-45.89645013790949,170.6436082508927</t>
+          <t>-45.896449073069014,170.64360850584063</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -37240,7 +37307,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-45.896417837748274,170.64361598430835</t>
+          <t>-45.89642023363938,170.6436154106762</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -37319,7 +37386,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-45.89650497719219,170.64359512106034</t>
+          <t>-45.89650364614167,170.64359543974592</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -37398,7 +37465,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-45.89650497719219,170.64359512106034</t>
+          <t>-45.89650364614167,170.64359543974592</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -37477,7 +37544,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-45.89650497719219,170.64359512106034</t>
+          <t>-45.89650364614167,170.64359543974592</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -37564,7 +37631,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>-45.896471434718606,170.64360315193198</t>
+          <t>-45.89646770777703,170.64360404425042</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -37651,7 +37718,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>-45.89628082826361,170.6436487874802</t>
+          <t>-45.89627772247849,170.6436495310734</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -37738,7 +37805,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-45.89632111473288,170.64363914200607</t>
+          <t>-45.89632102599616,170.64363916325163</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -37825,7 +37892,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-45.89633690986803,170.64363536029626</t>
+          <t>-45.89633531260717,170.64363574271647</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -37912,7 +37979,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-45.8962987530805,170.64364449588345</t>
+          <t>-45.896298043186775,170.64364466584772</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -37999,7 +38066,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>-45.89625021409555,170.64365611718063</t>
+          <t>-45.896250746515875,170.64365598970764</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -38086,7 +38153,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-45.89624151789695,170.64365819923887</t>
+          <t>-45.89624417999857,170.64365756187416</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -38173,7 +38240,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-45.89623601622024,170.64365951645902</t>
+          <t>-45.89623282169828,170.6436602812964</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -38260,7 +38327,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-45.896237879691384,170.64365907030384</t>
+          <t>-45.89623406401237,170.64365998385966</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -38347,7 +38414,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-45.896318097684556,170.64363986435487</t>
+          <t>-45.896314991899516,170.64364060794915</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -38434,7 +38501,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-45.89635421352708,170.64363121740922</t>
+          <t>-45.89635119647886,170.64363193975896</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -38521,7 +38588,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-45.8963755103379,170.64362611846752</t>
+          <t>-45.89637595402146,170.6436260122395</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -38608,7 +38675,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>-45.896295114875116,170.64364536695038</t>
+          <t>-45.89629422750796,170.64364557940567</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -38695,7 +38762,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>-45.89629813192348,170.6436446446022</t>
+          <t>-45.89629777697662,170.64364472958434</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -38782,7 +38849,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-45.89628748351744,170.64364719406592</t>
+          <t>-45.89628588625653,170.64364757648536</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -38869,7 +38936,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-45.896224036762824,170.6436623845987</t>
+          <t>-45.89622519034021,170.64366210840754</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -38956,7 +39023,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>-45.89619280143624,170.64366986300112</t>
+          <t>-45.89619173659556,170.6436701179465</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -39043,7 +39110,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>-45.89605108887906,170.64370379188895</t>
+          <t>-45.89605721171375,170.64370232596093</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -39130,7 +39197,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-45.89599758062678,170.6437166028106</t>
+          <t>-45.896002904831086,170.64371532809324</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -39217,7 +39284,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-45.89606360075862,170.64370079629649</t>
+          <t>-45.89606688401776,170.6437000102188</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -39304,7 +39371,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>-45.89613183930505,170.64368445860694</t>
+          <t>-45.896134235196726,170.64368388498116</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -39391,7 +39458,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>-45.89636388582872,170.64362890164037</t>
+          <t>-45.896360247623534,170.6436297727095</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -39478,7 +39545,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>-45.896351285215566,170.6436319185134</t>
+          <t>-45.89634809069392,170.64363268335418</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -39565,7 +39632,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>-45.89635101900544,170.64363198225013</t>
+          <t>-45.89634604974951,170.6436331720024</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -39652,7 +39719,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>-45.89640541460911,170.64361895869644</t>
+          <t>-45.89639911430278,170.64362046713552</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -39739,7 +39806,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>-45.89640541460911,170.64361895869644</t>
+          <t>-45.89639911430278,170.64362046713552</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -39826,7 +39893,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>-45.89640568081924,170.64361889495956</t>
+          <t>-45.89640798797366,170.6436183425733</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -39913,7 +39980,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>-45.89640568081924,170.64361889495956</t>
+          <t>-45.89640798797366,170.6436183425733</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -40000,7 +40067,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-45.89640568081924,170.64361889495956</t>
+          <t>-45.89640798797366,170.6436183425733</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -40087,7 +40154,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>-45.89622519034021,170.64366210840754</t>
+          <t>-45.89622944970286,170.64366108862464</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -40174,7 +40241,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-45.89626973617383,170.64365144316977</t>
+          <t>-45.896273640589456,170.64365050836716</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -40261,7 +40328,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-45.896256603139385,170.64365458750473</t>
+          <t>-45.896261394922234,170.64365344024756</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -40348,7 +40415,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>-45.89627142217149,170.64365103950504</t>
+          <t>-45.89627266448554,170.64365074206785</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -40435,7 +40502,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-45.89627142217149,170.64365103950504</t>
+          <t>-45.89627266448554,170.64365074206785</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -40522,7 +40589,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>-45.89626716280899,170.6436520592896</t>
+          <t>-45.896268671333196,170.64365169811592</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -40609,7 +40676,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-45.89626716280899,170.6436520592896</t>
+          <t>-45.896268671333196,170.64365169811592</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -40696,7 +40763,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>-45.89626716280899,170.6436520592896</t>
+          <t>-45.896268671333196,170.64365169811592</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -40783,7 +40850,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>-45.89626716280899,170.6436520592896</t>
+          <t>-45.896268671333196,170.64365169811592</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -40870,7 +40937,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>-45.89624276021103,170.64365790180202</t>
+          <t>-45.896244357472014,170.6436575193832</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -40957,7 +41024,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>-45.89624276021103,170.64365790180202</t>
+          <t>-45.896244357472014,170.6436575193832</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -41044,7 +41111,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>-45.89622332686904,170.6436625545625</t>
+          <t>-45.896224036762824,170.6436623845987</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -41131,7 +41198,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>-45.896224302972975,170.6436623208623</t>
+          <t>-45.89622385928937,170.64366242708965</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -41218,7 +41285,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-45.8962125009889,170.64366514650973</t>
+          <t>-45.89621090372788,170.64366552892812</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -41305,7 +41372,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-45.89623184559433,170.6436605149967</t>
+          <t>-45.89622980464974,170.64366100364273</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -41392,7 +41459,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>-45.896250125358826,170.6436561384261</t>
+          <t>-45.89624861683459,170.64365649959956</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -41479,7 +41546,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>-45.896250125358826,170.6436561384261</t>
+          <t>-45.89624861683459,170.64365649959956</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -41566,7 +41633,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-45.8962822480511,170.64364844755184</t>
+          <t>-45.89628065079018,170.64364882997126</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -41653,7 +41720,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>-45.89628198184095,170.64364851128843</t>
+          <t>-45.89628065079018,170.64364882997126</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -41740,7 +41807,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>-45.89628579751981,170.6436475977309</t>
+          <t>-45.89628508762606,170.64364776769511</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -41827,7 +41894,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-45.89624719704706,170.64365683952744</t>
+          <t>-45.89624666462674,170.6436569670004</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
@@ -41914,7 +41981,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-45.8962392107422,170.64365875162153</t>
+          <t>-45.89623743600778,170.6436591765313</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -42001,7 +42068,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-45.89623743600778,170.6436591765313</t>
+          <t>-45.896235572536646,170.64365962268644</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -42088,7 +42155,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-45.89624595473297,170.64365713696432</t>
+          <t>-45.896243292631354,170.64365777432906</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -42175,7 +42242,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-45.89625145640964,170.64365581974366</t>
+          <t>-45.89624879430803,170.64365645710856</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
@@ -42262,7 +42329,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-45.89625615945579,170.64365469373226</t>
+          <t>-45.89625314240731,170.6436554160792</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -42349,7 +42416,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-45.896270002383986,170.64365137943324</t>
+          <t>-45.89626849385976,170.6436517406069</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
@@ -42436,7 +42503,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-45.896242316527434,170.64365800802946</t>
+          <t>-45.89624187284383,170.6436581142569</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
@@ -42610,7 +42677,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-45.89620708804878,170.64366644248295</t>
+          <t>-45.896205402051045,170.6436668461467</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
@@ -42697,7 +42764,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-45.89626618670508,170.6436522929902</t>
+          <t>-45.89626316965662,170.64365301533746</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
@@ -42784,7 +42851,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-45.89628144942064,170.64364863876156</t>
+          <t>-45.89627905352926,170.6436492123906</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -42871,7 +42938,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>-45.896289879408805,170.64364662043667</t>
+          <t>-45.89628712857057,170.64364727904803</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -42958,7 +43025,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>-45.89627088975117,170.64365116697812</t>
+          <t>-45.89626955870038,170.6436514856608</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -43045,7 +43112,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>-45.896255715772185,170.64365479995973</t>
+          <t>-45.89625438472138,170.64365511864224</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
@@ -43132,7 +43199,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>-45.89626379081366,170.6436528666189</t>
+          <t>-45.89626308091991,170.64365303658295</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
@@ -43219,7 +43286,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-45.8962358387468,170.64365955895</t>
+          <t>-45.896234596432706,170.64365985638676</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
@@ -43306,7 +43373,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-45.89621871255948,170.64366365932702</t>
+          <t>-45.89621773645554,170.6436638930272</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
@@ -43393,7 +43460,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>-45.89620043279452,170.6436680358923</t>
+          <t>-45.896199900374164,170.643668163365</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
@@ -43480,7 +43547,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>-45.89619209154245,170.6436700329647</t>
+          <t>-45.896190760491585,170.6436703516464</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -43567,7 +43634,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-45.896182241766006,170.64367239120895</t>
+          <t>-45.89618153187219,170.64367256117248</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
@@ -43654,7 +43721,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-45.896160057584495,170.64367770256663</t>
+          <t>-45.89615988011105,170.64367774505746</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
@@ -43741,7 +43808,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-45.89617283567309,170.64367464322518</t>
+          <t>-45.89617168209564,170.6436749194158</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -43828,7 +43895,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-45.89617283567309,170.64367464322518</t>
+          <t>-45.89617168209564,170.6436749194158</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -43915,7 +43982,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>-45.89611089743684,170.64368947251887</t>
+          <t>-45.89611071996339,170.64368951500964</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
@@ -44002,7 +44069,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-45.89612482910344,170.64368613699318</t>
+          <t>-45.896124030472876,170.6436863282017</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -44089,7 +44156,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>-45.89606546423001,170.64370035014431</t>
+          <t>-45.896065286756546,170.643700392635</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
@@ -44176,7 +44243,7 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>-45.896095191035464,170.64369323295014</t>
+          <t>-45.896095013562004,170.64369327544088</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
@@ -44263,7 +44330,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>-45.89635944899312,170.64362996391978</t>
+          <t>-45.8963586503627,170.64363015513004</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
@@ -44350,7 +44417,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>-45.89631996115558,170.64363941819826</t>
+          <t>-45.896320138629,170.64363937570718</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
@@ -44437,7 +44504,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>-45.89634072554671,170.64363444673677</t>
+          <t>-45.896340459336564,170.6436345104735</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -44524,7 +44591,7 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>-45.896307626752126,170.6436423713295</t>
+          <t>-45.896306118227955,170.64364273250374</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
@@ -44611,7 +44678,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-45.89631366084879,170.64364092663237</t>
+          <t>-45.896313305901934,170.6436410116146</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -44698,7 +44765,7 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-45.89631366084879,170.64364092663237</t>
+          <t>-45.896313305901934,170.6436410116146</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
@@ -44785,7 +44852,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-45.89624959293852,170.6436562658991</t>
+          <t>-45.89624799567755,170.643656648318</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -44872,7 +44939,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-45.896170439781486,170.6436752168518</t>
+          <t>-45.89616831010006,170.64367572674212</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -44959,7 +45026,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-45.8961169315345,170.6436880278328</t>
+          <t>-45.89611551174683,170.64368836775895</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
@@ -45046,7 +45113,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-45.89601825628673,170.64371165265663</t>
+          <t>-45.89601603786831,170.64371218378923</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
@@ -45133,7 +45200,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-45.895982229170876,170.64372027824425</t>
+          <t>-45.89597974454215,170.6437208731119</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -45220,7 +45287,7 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-45.895991457791794,170.64371806873527</t>
+          <t>-45.895988973163085,170.64371866360312</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
@@ -45307,7 +45374,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-45.89599314378984,170.6437176650749</t>
+          <t>-45.89599119158157,170.64371813247112</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
@@ -45394,7 +45461,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>-45.89601275460902,170.6437129698654</t>
+          <t>-45.8960113348212,170.64371330979017</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
@@ -45481,7 +45548,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>-45.89598098685651,170.64372057567806</t>
+          <t>-45.895978857174754,170.6437210855646</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -45568,7 +45635,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-45.895962884561435,170.6437249097124</t>
+          <t>-45.8959615535103,170.64372522839125</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -45655,7 +45722,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>-45.895974509074485,170.64372212658284</t>
+          <t>-45.89597264560293,170.64372257273348</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
@@ -45742,7 +45809,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-45.8959783247543,170.64372121303626</t>
+          <t>-45.895976993703215,170.6437215317153</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -45829,7 +45896,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>-45.895961198563334,170.64372531337227</t>
+          <t>-45.8959594238285,170.64372573827742</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
@@ -45916,7 +45983,7 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>-45.895923041763915,170.6437344488262</t>
+          <t>-45.895921267029024,170.64373487373072</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -46003,7 +46070,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>-45.89594212016378,170.64372988110094</t>
+          <t>-45.89594096658613,170.64373015728907</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -46090,7 +46157,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>-45.89606706149122,170.6436999677281</t>
+          <t>-45.8960680375953,170.64369973402933</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -46177,7 +46244,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>-45.89604487730762,170.643705279062</t>
+          <t>-45.89604523225456,170.6437051940807</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -46264,7 +46331,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-45.89617177083238,170.64367489817033</t>
+          <t>-45.896169197467316,170.64367551428782</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -46351,7 +46418,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>-45.89623885579531,170.6436588366035</t>
+          <t>-45.896235750010085,170.64365958019548</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -46438,7 +46505,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-45.896257490506585,170.64365437504972</t>
+          <t>-45.89625465093155,170.64365505490574</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
@@ -46525,7 +46592,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-45.896278254898796,170.64364940360028</t>
+          <t>-45.896275859007396,170.64364997722927</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
@@ -46612,7 +46679,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>-45.896278254898796,170.64364940360028</t>
+          <t>-45.896275859007396,170.64364997722927</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -46699,7 +46766,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>-45.89625678061282,170.64365454501373</t>
+          <t>-45.896255538298746,170.64365484245073</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
@@ -46786,7 +46853,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-45.89625678061282,170.64365454501373</t>
+          <t>-45.896255538298746,170.64365484245073</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -46873,7 +46940,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>-45.8963091352763,170.64364201015525</t>
+          <t>-45.896306473174825,170.64364264752155</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -46960,7 +47027,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>-45.89632102599616,170.64363916325163</t>
+          <t>-45.89631712158069,170.64364009805595</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -47047,7 +47114,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>-45.89629271898376,170.64364594057972</t>
+          <t>-45.89629032309239,170.64364651420905</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
@@ -47134,7 +47201,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-45.89628615246669,170.6436475127488</t>
+          <t>-45.89628491015263,170.64364781018617</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -47221,7 +47288,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-45.8962594427144,170.64365390764866</t>
+          <t>-45.896257401769866,170.64365439629523</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
@@ -47308,7 +47375,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-45.896245422312646,170.6436572644373</t>
+          <t>-45.89624409126185,170.64365758311968</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
@@ -47395,7 +47462,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>-45.896219422453264,170.64366348936326</t>
+          <t>-45.896218446349316,170.64366372306344</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -47482,7 +47549,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-45.89620052153124,170.6436680146468</t>
+          <t>-45.896199989110904,170.64366814211954</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -47569,7 +47636,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-45.89622483539332,170.64366219338945</t>
+          <t>-45.89622421423627,170.64366234210777</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
@@ -47656,7 +47723,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-45.8962275862317,170.64366153477968</t>
+          <t>-45.896227053811366,170.64366166225255</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -47743,7 +47810,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-45.89621702656176,170.64366406299095</t>
+          <t>-45.89621747024537,170.6436639567636</t>
         </is>
       </c>
       <c r="N187" t="inlineStr">
@@ -47830,7 +47897,7 @@
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-45.89621702656176,170.64366406299095</t>
+          <t>-45.89621747024537,170.6436639567636</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
@@ -47917,7 +47984,7 @@
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-45.896203982263465,170.64366718607403</t>
+          <t>-45.896204425947076,170.64366707984672</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
@@ -48004,7 +48071,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-45.896206555628446,170.6436665699557</t>
+          <t>-45.89620664436517,170.64366654871026</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
@@ -48091,7 +48158,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>-45.896171415885476,170.64367498315207</t>
+          <t>-45.89617159335893,170.6436749406612</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
@@ -48178,7 +48245,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-45.89625651440267,170.64365460875024</t>
+          <t>-45.89625438472138,170.64365511864224</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
@@ -48265,7 +48332,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-45.89626148365896,170.64365341900205</t>
+          <t>-45.89625899903081,170.6436540138762</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
@@ -48352,7 +48419,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-45.89621880129621,170.64366363808156</t>
+          <t>-45.896215518037465,170.64366442416392</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -48439,7 +48506,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-45.89622776370514,170.64366149228874</t>
+          <t>-45.89622448044643,170.64366227837135</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
@@ -48526,7 +48593,7 @@
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-45.896233531592046,170.64366011133257</t>
+          <t>-45.89623122443729,170.64366066371505</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -48613,7 +48680,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-45.89627399553632,170.6436504233851</t>
+          <t>-45.8962710672246,170.6436511244871</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -48700,7 +48767,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-45.896300882761686,170.64364398599056</t>
+          <t>-45.89629884181722,170.6436444746379</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -48787,7 +48854,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-45.896295469821986,170.64364528196825</t>
+          <t>-45.89629360635092,170.64364572812443</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -48874,7 +48941,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-45.89629271898376,170.64364594057972</t>
+          <t>-45.89629058930255,170.64364645047246</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -48961,7 +49028,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-45.89626645291522,170.64365222925366</t>
+          <t>-45.89626556554805,170.64365244170875</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -49048,7 +49115,7 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-45.89622634391759,170.64366183221634</t>
+          <t>-45.896225900233986,170.64366193844376</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -49135,7 +49202,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-45.896215518037465,170.64366442416392</t>
+          <t>-45.8962144531968,170.6436646791095</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -49222,7 +49289,7 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>-45.89619883553349,170.64366841831045</t>
+          <t>-45.89619697206228,170.64366886446496</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -49309,7 +49376,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-45.89617975713769,170.64367298608124</t>
+          <t>-45.89617895850715,170.6436731772902</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -49396,7 +49463,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>-45.89617975713769,170.64367298608124</t>
+          <t>-45.89617895850715,170.6436731772902</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -49483,7 +49550,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>-45.89617975713769,170.64367298608124</t>
+          <t>-45.89617895850715,170.6436731772902</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -49657,7 +49724,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>-45.89617230325275,170.64367477069774</t>
+          <t>-45.89617239198947,170.64367474945234</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -49744,7 +49811,7 @@
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-45.896074959060485,170.64369807689215</t>
+          <t>-45.896074870323766,170.6436980981375</t>
         </is>
       </c>
       <c r="N210" t="inlineStr">
@@ -49831,7 +49898,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-45.89617532030141,170.64367404835306</t>
+          <t>-45.8961742554607,170.64367430329824</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -49918,7 +49985,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-45.896226166444144,170.6436618747073</t>
+          <t>-45.89622927222941,170.6436611311156</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -50005,7 +50072,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>-45.89628295794484,170.6436482775877</t>
+          <t>-45.89628553130965,170.64364766146747</t>
         </is>
       </c>
       <c r="N213" t="inlineStr">
@@ -50092,7 +50159,7 @@
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-45.896283224155006,170.6436482138511</t>
+          <t>-45.89628464394248,170.64364787392273</t>
         </is>
       </c>
       <c r="N214" t="inlineStr">
@@ -50179,7 +50246,7 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>-45.89629058930255,170.64364645047246</t>
+          <t>-45.8962924527736,170.6436460043163</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
@@ -50266,7 +50333,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-45.89634170165056,170.6436342130355</t>
+          <t>-45.89634108049356,170.6436343617545</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -50353,7 +50420,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>-45.896309933906736,170.64364181894535</t>
+          <t>-45.896310288853606,170.64364173396316</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -50440,7 +50507,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>-45.896236282430394,170.64365945272257</t>
+          <t>-45.896234773906144,170.6436598138958</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -50527,7 +50594,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>-45.896227231284804,170.64366161976162</t>
+          <t>-45.89622527907693,170.64366208716206</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -50614,7 +50681,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>-45.89618783217966,170.64367105274613</t>
+          <t>-45.896186589865515,170.64367135018233</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -50701,7 +50768,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>-45.89618783217966,170.64367105274613</t>
+          <t>-45.896186589865515,170.64367135018233</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -50788,7 +50855,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>-45.89614018055753,170.64368246153919</t>
+          <t>-45.8961384945597,170.64368286520187</t>
         </is>
       </c>
       <c r="N222" t="inlineStr">
@@ -50875,7 +50942,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>-45.89614018055753,170.64368246153919</t>
+          <t>-45.8961384945597,170.64368286520187</t>
         </is>
       </c>
       <c r="N223" t="inlineStr">
@@ -50962,7 +51029,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>-45.896111784804134,170.64368926006506</t>
+          <t>-45.896109388912436,170.64368983369033</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -51049,7 +51116,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>-45.89610859028186,170.64369002489877</t>
+          <t>-45.89610583944321,170.64369068350547</t>
         </is>
       </c>
       <c r="N225" t="inlineStr">
@@ -51136,7 +51203,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>-45.89609013304175,170.643694443936</t>
+          <t>-45.89608809209692,170.64369493257934</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
@@ -51223,7 +51290,7 @@
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>-45.89610539575955,170.64369078973235</t>
+          <t>-45.89610299986782,170.6436913633575</t>
         </is>
       </c>
       <c r="N227" t="inlineStr">
@@ -51310,7 +51377,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>-45.89610539575955,170.64369078973235</t>
+          <t>-45.89610299986782,170.6436913633575</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -51397,7 +51464,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>-45.896125184050355,170.6436860520116</t>
+          <t>-45.89612252194848,170.64368668937334</t>
         </is>
       </c>
       <c r="N229" t="inlineStr">
@@ -51484,7 +51551,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>-45.89613884950661,170.64368278022027</t>
+          <t>-45.8961360099313,170.64368346007313</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -51571,7 +51638,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>-45.89611426943259,170.64368866519433</t>
+          <t>-45.896111784804134,170.64368926006506</t>
         </is>
       </c>
       <c r="N231" t="inlineStr">
@@ -51658,7 +51725,7 @@
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>-45.89606262465453,170.64370102999524</t>
+          <t>-45.89606058370965,170.6437015186381</t>
         </is>
       </c>
       <c r="N232" t="inlineStr">
@@ -51745,7 +51812,7 @@
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>-45.89607620137476,170.64369777945723</t>
+          <t>-45.896075314007426,170.64369799191076</t>
         </is>
       </c>
       <c r="N233" t="inlineStr">
@@ -51832,7 +51899,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>-45.89616573673501,170.6436763428595</t>
+          <t>-45.896164938104455,170.64367653406833</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -51919,7 +51986,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>-45.89621826887587,170.64366376555438</t>
+          <t>-45.89621729277193,170.64366399925453</t>
         </is>
       </c>
       <c r="N235" t="inlineStr">
@@ -52093,7 +52160,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>-45.89618144313547,170.6436725824179</t>
+          <t>-45.89618073324166,170.6436727523814</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -52180,7 +52247,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>-45.896151627595415,170.64367972088132</t>
+          <t>-45.896151982542335,170.64367963589967</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -52267,7 +52334,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>-45.89628464394248,170.64364787392273</t>
+          <t>-45.89628136068392,170.64364866000707</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
@@ -52354,7 +52421,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>-45.8963183638947,170.64363980061825</t>
+          <t>-45.896316677897104,170.6436402042837</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
@@ -52441,7 +52508,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>-45.896317210317406,170.6436400768104</t>
+          <t>-45.896315169372954,170.64364056545804</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -52528,7 +52595,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>-45.896295203611835,170.6436453457048</t>
+          <t>-45.89629254151032,170.6436459830708</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -52615,7 +52682,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>-45.89627931973942,170.64364914865405</t>
+          <t>-45.89627772247849,170.6436495310734</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -52702,7 +52769,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>-45.896263879550375,170.6436528453734</t>
+          <t>-45.89626281470975,170.64365310031948</t>
         </is>
       </c>
       <c r="N244" t="inlineStr">
@@ -52789,7 +52856,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>-45.89623495137958,170.64365977140483</t>
+          <t>-45.89623433022254,170.6436599201232</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -52876,7 +52943,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>-45.89623601622024,170.64365951645902</t>
+          <t>-45.89623548379991,170.64365964393193</t>
         </is>
       </c>
       <c r="N246" t="inlineStr">
@@ -52963,7 +53030,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>-45.896209306466865,170.64366591134643</t>
+          <t>-45.8962090402567,170.6436659750828</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -53050,7 +53117,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>-45.896199722900725,170.6436682058559</t>
+          <t>-45.896199989110904,170.64366814211954</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -53137,7 +53204,7 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>-45.896153846013604,170.64367918974594</t>
+          <t>-45.8961544671707,170.64367904102804</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
@@ -53224,7 +53291,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>-45.896143641289925,170.64368163296834</t>
+          <t>-45.896143907500104,170.64368156923211</t>
         </is>
       </c>
       <c r="N250" t="inlineStr">
@@ -53311,7 +53378,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>-45.896140624241184,170.64368235531217</t>
+          <t>-45.89614035803098,170.6436824190484</t>
         </is>
       </c>
       <c r="N251" t="inlineStr">
@@ -53398,7 +53465,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>-45.89614923170379,170.6436802945075</t>
+          <t>-45.89614914296705,170.6436803157529</t>
         </is>
       </c>
       <c r="N252" t="inlineStr">
@@ -53485,7 +53552,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>-45.89614923170379,170.6436802945075</t>
+          <t>-45.89614914296705,170.6436803157529</t>
         </is>
       </c>
       <c r="N253" t="inlineStr">
@@ -53572,7 +53639,7 @@
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>-45.8961335253029,170.64368405494437</t>
+          <t>-45.89613396898654,170.64368394871735</t>
         </is>
       </c>
       <c r="N254" t="inlineStr">
@@ -53746,7 +53813,7 @@
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>-45.89613379151309,170.64368399120818</t>
+          <t>-45.89613441267017,170.64368384249036</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
@@ -53833,7 +53900,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>-45.89613450140691,170.64368382124496</t>
+          <t>-45.89613521130073,170.64368365128175</t>
         </is>
       </c>
       <c r="N257" t="inlineStr">
@@ -53920,7 +53987,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-45.89613228298869,170.64368435237995</t>
+          <t>-45.896132904145794,170.64368420366213</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -54007,7 +54074,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>-45.89613467888037,170.64368377875417</t>
+          <t>-45.89613530003746,170.64368363003635</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -54094,7 +54161,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>-45.89613361403963,170.64368403369895</t>
+          <t>-45.89613450140691,170.64368382124496</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -54181,7 +54248,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>-45.89611764142835,170.6436878578697</t>
+          <t>-45.89611897247929,170.6436875391889</t>
         </is>
       </c>
       <c r="N261" t="inlineStr">
@@ -54268,7 +54335,7 @@
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>-45.89609900671492,170.64369231939926</t>
+          <t>-45.89610016029242,170.64369204320943</t>
         </is>
       </c>
       <c r="N262" t="inlineStr">
@@ -54355,7 +54422,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>-45.89610477460242,170.64369093845</t>
+          <t>-45.896105129549355,170.64369085346848</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -54442,7 +54509,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>-45.896109921332815,170.64368970621805</t>
+          <t>-45.89610983259609,170.64368972746345</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -54529,7 +54596,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>-45.89610273365763,170.6436914270936</t>
+          <t>-45.89610282239436,170.64369140584822</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -54616,7 +54683,7 @@
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>-45.89616875378369,170.64367562051498</t>
+          <t>-45.896168398836785,170.64367570549666</t>
         </is>
       </c>
       <c r="N266" t="inlineStr">
@@ -54703,7 +54770,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>-45.896199367953834,170.64366829083772</t>
+          <t>-45.896199190480374,170.64366833332863</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -54790,7 +54857,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>-45.89622909475597,170.64366117360655</t>
+          <t>-45.89622873980909,170.64366125858848</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -54877,7 +54944,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>-45.89628251426125,170.64364838381528</t>
+          <t>-45.8962807395269,170.64364880872574</t>
         </is>
       </c>
       <c r="N269" t="inlineStr">
@@ -54964,7 +55031,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>-45.896301681392146,170.64364379478073</t>
+          <t>-45.896300882761686,170.64364398599056</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -55051,7 +55118,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>-45.89625766798002,170.64365433255873</t>
+          <t>-45.89625784545346,170.64365429006773</t>
         </is>
       </c>
       <c r="N271" t="inlineStr">
@@ -55138,7 +55205,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>-45.89625766798002,170.64365433255873</t>
+          <t>-45.89625784545346,170.64365429006773</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -55225,7 +55292,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>-45.89622456918314,170.64366225712587</t>
+          <t>-45.89622563402383,170.64366200218018</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -55312,7 +55379,7 @@
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>-45.89622456918314,170.64366225712587</t>
+          <t>-45.89622563402383,170.64366200218018</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
@@ -55399,7 +55466,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>-45.89618108818857,170.64367266739967</t>
+          <t>-45.896181354398756,170.64367260366336</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
@@ -55486,7 +55553,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>-45.89616529305137,170.64367644908663</t>
+          <t>-45.89616618041864,170.64367623663236</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
@@ -55573,7 +55640,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-45.89609598966604,170.6436930417418</t>
+          <t>-45.89609607840278,170.64369302049644</t>
         </is>
       </c>
       <c r="N277" t="inlineStr">
@@ -55660,7 +55727,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>-45.89603555995038,170.64370750982087</t>
+          <t>-45.89603547121363,170.64370753106618</t>
         </is>
       </c>
       <c r="N278" t="inlineStr">
@@ -55747,7 +55814,7 @@
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>-45.89601106861099,170.64371337352605</t>
+          <t>-45.89601124608447,170.64371333103546</t>
         </is>
       </c>
       <c r="N279" t="inlineStr">
@@ -55834,7 +55901,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>-45.89601106861099,170.64371337352605</t>
+          <t>-45.89601124608447,170.64371333103546</t>
         </is>
       </c>
       <c r="N280" t="inlineStr">
@@ -55921,7 +55988,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>-45.89601106861099,170.64371337352605</t>
+          <t>-45.89601124608447,170.64371333103546</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -56008,7 +56075,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>-45.895932980279234,170.64373206936042</t>
+          <t>-45.895934577540615,170.6437316869462</t>
         </is>
       </c>
       <c r="N282" t="inlineStr">
@@ -56095,7 +56162,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>-45.895932980279234,170.64373206936042</t>
+          <t>-45.895934577540615,170.6437316869462</t>
         </is>
       </c>
       <c r="N283" t="inlineStr">
@@ -56182,7 +56249,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>-45.895932980279234,170.64373206936042</t>
+          <t>-45.895934577540615,170.6437316869462</t>
         </is>
       </c>
       <c r="N284" t="inlineStr">
@@ -56269,7 +56336,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>-45.89586944476919,170.64374728092932</t>
+          <t>-45.895870332136674,170.64374706847747</t>
         </is>
       </c>
       <c r="N285" t="inlineStr">
@@ -56356,7 +56423,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>-45.89590893262149,170.6437378268162</t>
+          <t>-45.89590928756848,170.64373774183534</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -56443,7 +56510,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>-45.89594469352931,170.64372926498888</t>
+          <t>-45.895944959739545,170.64372920125317</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -56530,7 +56597,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>-45.89596723266173,170.6437238686946</t>
+          <t>-45.89596767634544,170.6437237624683</t>
         </is>
       </c>
       <c r="N288" t="inlineStr">
@@ -56617,7 +56684,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>-45.89598267285458,170.64372017201785</t>
+          <t>-45.89598364895872,170.6437199383198</t>
         </is>
       </c>
       <c r="N289" t="inlineStr">
@@ -56704,7 +56771,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>-45.89598915063656,170.64371862111258</t>
+          <t>-45.89599039295092,170.64371832367863</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -56791,7 +56858,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>-45.89598551243025,170.643719492169</t>
+          <t>-45.895986133587435,170.64371934345206</t>
         </is>
       </c>
       <c r="N291" t="inlineStr">
@@ -56878,7 +56945,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>-45.8960242016481,170.64371022922109</t>
+          <t>-45.89602588764611,170.6437098255602</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -56965,7 +57032,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>-45.8961544671707,170.64367904102804</t>
+          <t>-45.89615544327469,170.64367880732843</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -57052,7 +57119,7 @@
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>-45.896210371307546,170.64366565640088</t>
+          <t>-45.89621232351544,170.64366518900067</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
@@ -57139,7 +57206,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>-45.896224746656586,170.64366221463493</t>
+          <t>-45.89622687633792,170.64366170474352</t>
         </is>
       </c>
       <c r="N295" t="inlineStr">
@@ -57226,7 +57293,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>-45.896241074213336,170.64365830546632</t>
+          <t>-45.89624311515791,170.64365781682005</t>
         </is>
       </c>
       <c r="N296" t="inlineStr">
@@ -57313,7 +57380,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>-45.896234773906144,170.6436598138958</t>
+          <t>-45.89623663737729,170.64365936774064</t>
         </is>
       </c>
       <c r="N297" t="inlineStr">
@@ -57400,7 +57467,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>-45.89627017985742,170.6436513369422</t>
+          <t>-45.896269647437116,170.64365146441529</t>
         </is>
       </c>
       <c r="N298" t="inlineStr">
@@ -57487,7 +57554,7 @@
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>-45.89626671912539,170.64365216551715</t>
+          <t>-45.89626547681132,170.64365246295426</t>
         </is>
       </c>
       <c r="N299" t="inlineStr">
@@ -57574,7 +57641,7 @@
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>-45.896269913647274,170.64365140067875</t>
+          <t>-45.89626946996368,170.6436515069063</t>
         </is>
       </c>
       <c r="N300" t="inlineStr">
@@ -57661,7 +57728,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>-45.89622776370514,170.64366149228874</t>
+          <t>-45.896226166444144,170.6436618747073</t>
         </is>
       </c>
       <c r="N301" t="inlineStr">
@@ -57748,7 +57815,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>-45.89618020082131,170.64367287985405</t>
+          <t>-45.8961784260868,170.6436733047628</t>
         </is>
       </c>
       <c r="N302" t="inlineStr">
@@ -57835,7 +57902,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>-45.896164405684104,170.64367666154087</t>
+          <t>-45.896162364739396,170.64367715018565</t>
         </is>
       </c>
       <c r="N303" t="inlineStr">
@@ -57922,7 +57989,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>-45.896164405684104,170.64367666154087</t>
+          <t>-45.896162364739396,170.64367715018565</t>
         </is>
       </c>
       <c r="N304" t="inlineStr">
@@ -58009,7 +58076,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>-45.89617789366646,170.6436734322354</t>
+          <t>-45.89617611893194,170.64367385714414</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -58096,7 +58163,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>-45.89618863081019,170.64367086153712</t>
+          <t>-45.896186589865515,170.64367135018233</t>
         </is>
       </c>
       <c r="N306" t="inlineStr">
@@ -58183,7 +58250,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>-45.89618863081019,170.64367086153712</t>
+          <t>-45.896186589865515,170.64367135018233</t>
         </is>
       </c>
       <c r="N307" t="inlineStr">
@@ -58270,7 +58337,7 @@
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>-45.89619706079901,170.6436688432195</t>
+          <t>-45.896195552274705,170.64366920439215</t>
         </is>
       </c>
       <c r="N308" t="inlineStr">
@@ -58357,7 +58424,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>-45.89621383203974,170.64366482782776</t>
+          <t>-45.89621196856855,170.64366527398252</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -58444,7 +58511,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>-45.89621383203974,170.64366482782776</t>
+          <t>-45.89621196856855,170.64366527398252</t>
         </is>
       </c>
       <c r="N310" t="inlineStr">
@@ -58531,7 +58598,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>-45.896201231425025,170.6436678446832</t>
+          <t>-45.89619954542728,170.6436682483468</t>
         </is>
       </c>
       <c r="N311" t="inlineStr">
@@ -58618,7 +58685,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>-45.896201231425025,170.6436678446832</t>
+          <t>-45.89619954542728,170.6436682483468</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -58705,7 +58772,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-45.896192890172955,170.64366984175567</t>
+          <t>-45.89619102670176,170.64367028791008</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -58792,7 +58859,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>-45.89620025532107,170.6436680783832</t>
+          <t>-45.89619706079901,170.6436688432195</t>
         </is>
       </c>
       <c r="N314" t="inlineStr">
@@ -58879,7 +58946,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>-45.89617869229698,170.6436732410265</t>
+          <t>-45.89617718377265,170.6436736021989</t>
         </is>
       </c>
       <c r="N315" t="inlineStr">
@@ -58966,7 +59033,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>-45.89620495836742,170.643666952374</t>
+          <t>-45.89620273994934,170.64366748351043</t>
         </is>
       </c>
       <c r="N316" t="inlineStr">
@@ -59053,7 +59120,7 @@
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>-45.89622873980909,170.64366125858848</t>
+          <t>-45.89622581149726,170.6436619596892</t>
         </is>
       </c>
       <c r="N317" t="inlineStr">
@@ -59140,7 +59207,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>-45.89622377055265,170.64366244833514</t>
+          <t>-45.89622066476739,170.6436631919267</t>
         </is>
       </c>
       <c r="N318" t="inlineStr">
@@ -59227,7 +59294,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>-45.896316677897104,170.6436402042837</t>
+          <t>-45.896314370742516,170.643640756668</t>
         </is>
       </c>
       <c r="N319" t="inlineStr">
@@ -59314,7 +59381,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>-45.896344275015245,170.64363359691393</t>
+          <t>-45.89634152417714,170.64363425552665</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
@@ -59401,7 +59468,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>-45.89630576328109,170.64364281748587</t>
+          <t>-45.89630185886558,170.64364375228965</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
@@ -59488,7 +59555,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>-45.89630966769659,170.64364188268198</t>
+          <t>-45.89630656191153,170.64364262627603</t>
         </is>
       </c>
       <c r="N322" t="inlineStr">
@@ -59575,7 +59642,7 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>-45.89630620696467,170.64364271125817</t>
+          <t>-45.89630310117961,170.64364345485208</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
@@ -59662,7 +59729,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>-45.89630922401301,170.6436419889097</t>
+          <t>-45.896306384438105,170.6436426687671</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
@@ -59749,7 +59816,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>-45.89631366084879,170.64364092663237</t>
+          <t>-45.896311087484044,170.64364154275324</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -59836,7 +59903,7 @@
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>-45.89631366084879,170.64364092663237</t>
+          <t>-45.896311087484044,170.64364154275324</t>
         </is>
       </c>
       <c r="N326" t="inlineStr">
@@ -59923,7 +59990,7 @@
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>-45.896305940754516,170.64364277499482</t>
+          <t>-45.89630372233661,170.64364330613333</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
@@ -60010,7 +60077,7 @@
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>-45.896274794166786,170.64365023217547</t>
+          <t>-45.89627168838164,170.64365097576848</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
@@ -60097,7 +60164,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>-45.89624373631496,170.6436576681016</t>
+          <t>-45.89624142916023,170.64365822048435</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -60184,7 +60251,7 @@
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>-45.896218446349316,170.64366372306344</t>
+          <t>-45.896216849088304,170.6436641054819</t>
         </is>
       </c>
       <c r="N330" t="inlineStr">
@@ -60271,7 +60338,7 @@
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>-45.89618508134119,170.64367171135484</t>
+          <t>-45.896183129133256,170.64367217875457</t>
         </is>
       </c>
       <c r="N331" t="inlineStr">
@@ -60358,7 +60425,7 @@
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>-45.89615783916633,170.64367823370213</t>
+          <t>-45.896157129272524,170.6436784036655</t>
         </is>
       </c>
       <c r="N332" t="inlineStr">
@@ -60445,7 +60512,7 @@
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>-45.89615783916633,170.64367823370213</t>
+          <t>-45.896157129272524,170.6436784036655</t>
         </is>
       </c>
       <c r="N333" t="inlineStr">
@@ -60532,7 +60599,7 @@
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>-45.89613609866803,170.64368343882774</t>
+          <t>-45.89613512256401,170.64368367252717</t>
         </is>
       </c>
       <c r="N334" t="inlineStr">
@@ -60619,7 +60686,7 @@
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>-45.896091996513135,170.64369399778334</t>
+          <t>-45.8960916415662,170.6436940827648</t>
         </is>
       </c>
       <c r="N335" t="inlineStr">
@@ -60706,7 +60773,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>-45.896099272925106,170.64369225566315</t>
+          <t>-45.89609882924146,170.64369236188998</t>
         </is>
       </c>
       <c r="N336" t="inlineStr">
@@ -60793,7 +60860,7 @@
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>-45.896099272925106,170.64369225566315</t>
+          <t>-45.89609882924146,170.64369236188998</t>
         </is>
       </c>
       <c r="N337" t="inlineStr">
@@ -60880,7 +60947,7 @@
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>-45.896099272925106,170.64369225566315</t>
+          <t>-45.89609882924146,170.64369236188998</t>
         </is>
       </c>
       <c r="N338" t="inlineStr">
@@ -60967,7 +61034,7 @@
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>-45.896099272925106,170.64369225566315</t>
+          <t>-45.89609882924146,170.64369236188998</t>
         </is>
       </c>
       <c r="N339" t="inlineStr">
@@ -61054,7 +61121,7 @@
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>-45.89609900671492,170.64369231939926</t>
+          <t>-45.896099272925106,170.64369225566315</t>
         </is>
       </c>
       <c r="N340" t="inlineStr">
@@ -61141,7 +61208,7 @@
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>-45.89609900671492,170.64369231939926</t>
+          <t>-45.896099272925106,170.64369225566315</t>
         </is>
       </c>
       <c r="N341" t="inlineStr">
@@ -61228,7 +61295,7 @@
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>-45.89608755967652,170.64369506005153</t>
+          <t>-45.89608844704385,170.64369484759789</t>
         </is>
       </c>
       <c r="N342" t="inlineStr">
@@ -61315,7 +61382,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>-45.89606839254223,170.64369964904793</t>
+          <t>-45.89606901369937,170.6436995003305</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
@@ -61402,7 +61469,7 @@
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>-45.89602313680727,170.64371048416479</t>
+          <t>-45.896022959333806,170.6437105266554</t>
         </is>
       </c>
       <c r="N344" t="inlineStr">
@@ -61489,7 +61556,7 @@
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>-45.896024822805266,170.64371008050392</t>
+          <t>-45.896025089015474,170.64371001676798</t>
         </is>
       </c>
       <c r="N345" t="inlineStr">
@@ -61576,7 +61643,7 @@
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>-45.896024822805266,170.64371008050392</t>
+          <t>-45.896025089015474,170.64371001676798</t>
         </is>
       </c>
       <c r="N346" t="inlineStr">
@@ -61663,7 +61730,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>-45.896024822805266,170.64371008050392</t>
+          <t>-45.896025089015474,170.64371001676798</t>
         </is>
       </c>
       <c r="N347" t="inlineStr">
@@ -61750,7 +61817,7 @@
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>-45.89598604485069,170.64371936469732</t>
+          <t>-45.895986843481325,170.64371917348984</t>
         </is>
       </c>
       <c r="N348" t="inlineStr">
@@ -61837,7 +61904,7 @@
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>-45.896002194937196,170.64371549805554</t>
+          <t>-45.896002904831086,170.64371532809324</t>
         </is>
       </c>
       <c r="N349" t="inlineStr">
@@ -61924,7 +61991,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>-45.896002194937196,170.64371549805554</t>
+          <t>-45.896002904831086,170.64371532809324</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -62011,7 +62078,7 @@
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>-45.89605534824232,170.643702772113</t>
+          <t>-45.89605508203212,170.64370283584898</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -62098,7 +62165,7 @@
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>-45.89606111613006,170.64370139116605</t>
+          <t>-45.896061382340264,170.64370132743002</t>
         </is>
       </c>
       <c r="N352" t="inlineStr">
@@ -62185,7 +62252,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>-45.89608427641743,170.64369584612984</t>
+          <t>-45.89608489757455,170.64369569741234</t>
         </is>
       </c>
       <c r="N353" t="inlineStr">
@@ -62272,7 +62339,7 @@
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>-45.89609953913531,170.64369219192702</t>
+          <t>-45.89610078144954,170.64369189449184</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
@@ -62359,7 +62426,7 @@
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>-45.89613104067449,170.64368464981553</t>
+          <t>-45.89613210551523,170.64368439487075</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
@@ -62446,7 +62513,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>-45.896156774325604,170.64367848864714</t>
+          <t>-45.896157395482696,170.6436783399292</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -62533,7 +62600,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>-45.896156774325604,170.64367848864714</t>
+          <t>-45.896157395482696,170.6436783399292</t>
         </is>
       </c>
       <c r="N357" t="inlineStr">
@@ -62620,7 +62687,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>-45.89616555926155,170.64367638535035</t>
+          <t>-45.89616618041864,170.64367623663236</t>
         </is>
       </c>
       <c r="N358" t="inlineStr">
@@ -62707,7 +62774,7 @@
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>-45.89616555926155,170.64367638535035</t>
+          <t>-45.89616618041864,170.64367623663236</t>
         </is>
       </c>
       <c r="N359" t="inlineStr">
@@ -62794,7 +62861,7 @@
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>-45.89622057603066,170.64366321317215</t>
+          <t>-45.896220309820485,170.64366327690857</t>
         </is>
       </c>
       <c r="N360" t="inlineStr">
@@ -62881,7 +62948,7 @@
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>-45.8962857087831,170.64364761897644</t>
+          <t>-45.89628588625653,170.64364757648536</t>
         </is>
       </c>
       <c r="N361" t="inlineStr">
@@ -62968,7 +63035,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>-45.89630381107334,170.6436432848878</t>
+          <t>-45.896304520967064,170.64364311492346</t>
         </is>
       </c>
       <c r="N362" t="inlineStr">
@@ -63055,7 +63122,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>-45.89632510788504,170.64363818595606</t>
+          <t>-45.89632564030532,170.6436380584827</t>
         </is>
       </c>
       <c r="N363" t="inlineStr">
@@ -63142,7 +63209,7 @@
       </c>
       <c r="M364" t="inlineStr">
         <is>
-          <t>-45.89632226831017,170.64363886581387</t>
+          <t>-45.89632306694059,170.64363867460386</t>
         </is>
       </c>
       <c r="N364" t="inlineStr">
@@ -63229,7 +63296,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>-45.896312862218345,170.64364111784232</t>
+          <t>-45.896313394638646,170.64364099036902</t>
         </is>
       </c>
       <c r="N365" t="inlineStr">
@@ -63316,7 +63383,7 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>-45.89630345612647,170.64364336986992</t>
+          <t>-45.89630398854677,170.6436432423967</t>
         </is>
       </c>
       <c r="N366" t="inlineStr">
@@ -63403,7 +63470,7 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>-45.89631747652755,170.64364001307374</t>
+          <t>-45.89631783147441,170.64363992809155</t>
         </is>
       </c>
       <c r="N367" t="inlineStr">
@@ -63490,7 +63557,7 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>-45.89631747652755,170.64364001307374</t>
+          <t>-45.89631783147441,170.64363992809155</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -63577,7 +63644,7 @@
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>-45.896315169372954,170.64364056545804</t>
+          <t>-45.89631579052996,170.6436404167392</t>
         </is>
       </c>
       <c r="N369" t="inlineStr">
@@ -63664,7 +63731,7 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>-45.89629848687035,170.64364455962004</t>
+          <t>-45.89629857560708,170.64364453837453</t>
         </is>
       </c>
       <c r="N370" t="inlineStr">
@@ -63751,7 +63818,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>-45.896277988688645,170.64364946733684</t>
+          <t>-45.89627843237223,170.64364936110925</t>
         </is>
       </c>
       <c r="N371" t="inlineStr">
@@ -63838,7 +63905,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>-45.89628792720103,170.64364708783827</t>
+          <t>-45.89628890330492,170.6436468541375</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -63925,7 +63992,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>-45.89630185886558,170.64364375228965</t>
+          <t>-45.896302834969454,170.64364351858873</t>
         </is>
       </c>
       <c r="N373" t="inlineStr">
@@ -64012,7 +64079,7 @@
       </c>
       <c r="M374" t="inlineStr">
         <is>
-          <t>-45.896297599503185,170.6436447720754</t>
+          <t>-45.89629866434379,170.643644517129</t>
         </is>
       </c>
       <c r="N374" t="inlineStr">
@@ -64099,7 +64166,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>-45.89628411152218,170.6436480013959</t>
+          <t>-45.89628491015263,170.64364781018617</t>
         </is>
       </c>
       <c r="N375" t="inlineStr">
@@ -64186,7 +64253,7 @@
       </c>
       <c r="M376" t="inlineStr">
         <is>
-          <t>-45.89626565428477,170.64365242046324</t>
+          <t>-45.896266807862105,170.6436521442716</t>
         </is>
       </c>
       <c r="N376" t="inlineStr">
@@ -64273,7 +64340,7 @@
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>-45.89626654165194,170.64365220800815</t>
+          <t>-45.896267872702744,170.6436518893255</t>
         </is>
       </c>
       <c r="N377" t="inlineStr">
@@ -64360,7 +64427,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>-45.896258555347224,170.6436541201037</t>
+          <t>-45.89625953145113,170.64365388640317</t>
         </is>
       </c>
       <c r="N378" t="inlineStr">
@@ -64447,7 +64514,7 @@
       </c>
       <c r="M379" t="inlineStr">
         <is>
-          <t>-45.89625580450891,170.64365477871425</t>
+          <t>-45.896256691876104,170.64365456625924</t>
         </is>
       </c>
       <c r="N379" t="inlineStr">
@@ -64534,7 +64601,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>-45.89625589324563,170.64365475746874</t>
+          <t>-45.89625651440267,170.64365460875024</t>
         </is>
       </c>
       <c r="N380" t="inlineStr">
@@ -64621,7 +64688,7 @@
       </c>
       <c r="M381" t="inlineStr">
         <is>
-          <t>-45.89624169537038,170.6436581567479</t>
+          <t>-45.89624302642119,170.64365783806556</t>
         </is>
       </c>
       <c r="N381" t="inlineStr">
@@ -64708,7 +64775,7 @@
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>-45.89621613919454,170.64366427544564</t>
+          <t>-45.89621720403521,170.6436640205</t>
         </is>
       </c>
       <c r="N382" t="inlineStr">
@@ -64795,7 +64862,7 @@
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>-45.896213122145944,170.6436649977915</t>
+          <t>-45.89621454193353,170.64366465786406</t>
         </is>
       </c>
       <c r="N383" t="inlineStr">
@@ -64882,7 +64949,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>-45.89621028257082,170.64366567764634</t>
+          <t>-45.896210992464596,170.64366550768264</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -64969,7 +65036,7 @@
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>-45.89620389352674,170.64366720731948</t>
+          <t>-45.896204071000184,170.64366716482857</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -65056,7 +65123,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>-45.896203982263465,170.64366718607403</t>
+          <t>-45.89620424847364,170.64366712233766</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -65143,7 +65210,7 @@
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>-45.896203982263465,170.64366718607403</t>
+          <t>-45.89620424847364,170.64366712233766</t>
         </is>
       </c>
       <c r="N387" t="inlineStr">
@@ -65230,7 +65297,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>-45.8962358387468,170.64365955895</t>
+          <t>-45.89623672611401,170.64365934649516</t>
         </is>
       </c>
       <c r="N388" t="inlineStr">
@@ -65317,7 +65384,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>-45.896236459903854,170.6436594102316</t>
+          <t>-45.896236814850724,170.64365932524967</t>
         </is>
       </c>
       <c r="N389" t="inlineStr">
@@ -65404,7 +65471,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>-45.8962152518273,170.6436644879003</t>
+          <t>-45.896214630670244,170.64366463661858</t>
         </is>
       </c>
       <c r="N390" t="inlineStr">
@@ -65491,7 +65558,7 @@
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>-45.896213388356124,170.6436649340551</t>
+          <t>-45.89621232351544,170.64366518900067</t>
         </is>
       </c>
       <c r="N391" t="inlineStr">
@@ -65578,7 +65645,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>-45.8962078866793,170.6436662512738</t>
+          <t>-45.89620708804878,170.64366644248295</t>
         </is>
       </c>
       <c r="N392" t="inlineStr">
@@ -65665,7 +65732,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>-45.89620575699794,170.64366676116487</t>
+          <t>-45.896204425947076,170.64366707984672</t>
         </is>
       </c>
       <c r="N393" t="inlineStr">
@@ -65752,7 +65819,7 @@
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>-45.89621081499116,170.64366555017355</t>
+          <t>-45.89620975015048,170.6436658051191</t>
         </is>
       </c>
       <c r="N394" t="inlineStr">
@@ -65839,7 +65906,7 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>-45.896213920776454,170.6436648065823</t>
+          <t>-45.896212589725614,170.64366512526428</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
@@ -65926,7 +65993,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>-45.896190494281406,170.64367041538276</t>
+          <t>-45.896189251967265,170.643670712819</t>
         </is>
       </c>
       <c r="N396" t="inlineStr">
@@ -66013,7 +66080,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>-45.89617212577928,170.64367481318862</t>
+          <t>-45.896171238412016,170.64367502564292</t>
         </is>
       </c>
       <c r="N397" t="inlineStr">
@@ -66100,7 +66167,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>-45.89615464464415,170.64367899853718</t>
+          <t>-45.89615482211761,170.64367895604636</t>
         </is>
       </c>
       <c r="N398" t="inlineStr">
@@ -66187,7 +66254,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>-45.89615065149141,170.64367995458088</t>
+          <t>-45.8961509177016,170.64367989084465</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
@@ -66448,7 +66515,7 @@
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>-45.89614337507975,170.64368169670456</t>
+          <t>-45.89614284265938,170.643681824177</t>
         </is>
       </c>
       <c r="N402" t="inlineStr">
@@ -66535,7 +66602,7 @@
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>-45.89614337507975,170.64368169670456</t>
+          <t>-45.89614284265938,170.643681824177</t>
         </is>
       </c>
       <c r="N403" t="inlineStr">
@@ -66622,7 +66689,7 @@
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>-45.89614337507975,170.64368169670456</t>
+          <t>-45.89614284265938,170.643681824177</t>
         </is>
       </c>
       <c r="N404" t="inlineStr">
@@ -66709,7 +66776,7 @@
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>-45.896131750568316,170.64368447985234</t>
+          <t>-45.89613334782944,170.64368409743517</t>
         </is>
       </c>
       <c r="N405" t="inlineStr">
@@ -66796,7 +66863,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>-45.89613742971895,170.6436831201467</t>
+          <t>-45.89613929319025,170.64368267399323</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
@@ -66883,7 +66950,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>-45.89613086320102,170.6436846923063</t>
+          <t>-45.896132194251955,170.64368437362535</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
@@ -66970,7 +67037,7 @@
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>-45.896126071417655,170.64368583955766</t>
+          <t>-45.89612757994205,170.64368547838598</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
@@ -67057,7 +67124,7 @@
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>-45.89616050126813,170.6436775963395</t>
+          <t>-45.89616094495177,170.6436774901124</t>
         </is>
       </c>
       <c r="N409" t="inlineStr">
@@ -67144,7 +67211,7 @@
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>-45.89618561376154,170.6436715838822</t>
+          <t>-45.89618490386775,170.64367175384575</t>
         </is>
       </c>
       <c r="N410" t="inlineStr">
@@ -67231,7 +67298,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>-45.896300971498405,170.64364396474502</t>
+          <t>-45.896298043186775,170.64364466584772</t>
         </is>
       </c>
       <c r="N411" t="inlineStr">
@@ -67318,7 +67385,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>-45.89639707335847,170.64362095578477</t>
+          <t>-45.8963927252597,170.6436219968199</t>
         </is>
       </c>
       <c r="N412" t="inlineStr">
@@ -67405,7 +67472,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>-45.896474363029824,170.64360245082455</t>
+          <t>-45.896470724824965,170.64360332189742</t>
         </is>
       </c>
       <c r="N413" t="inlineStr">
@@ -67492,7 +67559,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>-45.896474363029824,170.64360245082455</t>
+          <t>-45.896470724824965,170.64360332189742</t>
         </is>
       </c>
       <c r="N414" t="inlineStr">
@@ -67579,7 +67646,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>-45.89657223960997,170.64357901679415</t>
+          <t>-45.89657179592649,170.64357912302293</t>
         </is>
       </c>
       <c r="N415" t="inlineStr">
@@ -67666,7 +67733,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>-45.896552983746695,170.64358362712267</t>
+          <t>-45.89655378237697,170.64358343591095</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
@@ -67753,7 +67820,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>-45.89659025315921,170.64357470390303</t>
+          <t>-45.89658989821243,170.64357478888613</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
@@ -67840,7 +67907,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>-45.89653816471805,170.64358717516117</t>
+          <t>-45.89653692240428,170.64358747260144</t>
         </is>
       </c>
       <c r="N418" t="inlineStr">
@@ -67927,7 +67994,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>-45.896516158016524,170.6435924441008</t>
+          <t>-45.89651447201919,170.64359284776938</t>
         </is>
       </c>
       <c r="N419" t="inlineStr">
@@ -68014,7 +68081,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>-45.89645546211179,170.6436069761529</t>
+          <t>-45.896454219797924,170.6436072735922</t>
         </is>
       </c>
       <c r="N420" t="inlineStr">
@@ -68101,7 +68168,7 @@
       </c>
       <c r="M421" t="inlineStr">
         <is>
-          <t>-45.896377373808825,170.64362567230992</t>
+          <t>-45.89637604275816,170.6436259909939</t>
         </is>
       </c>
       <c r="N421" t="inlineStr">
@@ -68188,7 +68255,7 @@
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>-45.896339217022586,170.64363480791147</t>
+          <t>-45.896338152182025,170.6436350628583</t>
         </is>
       </c>
       <c r="N422" t="inlineStr">
@@ -68275,7 +68342,7 @@
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>-45.896339217022586,170.64363480791147</t>
+          <t>-45.896338152182025,170.6436350628583</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
@@ -68362,7 +68429,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>-45.89632501914833,170.6436382072016</t>
+          <t>-45.89632386557104,170.64363848339386</t>
         </is>
       </c>
       <c r="N424" t="inlineStr">
@@ -68449,7 +68516,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>-45.89633451397675,170.64363593392653</t>
+          <t>-45.89633309418932,170.64363627385558</t>
         </is>
       </c>
       <c r="N425" t="inlineStr">
@@ -68536,7 +68603,7 @@
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>-45.89633451397675,170.64363593392653</t>
+          <t>-45.89633309418932,170.64363627385558</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -68623,7 +68690,7 @@
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>-45.89630984517002,170.6436418401909</t>
+          <t>-45.896309046539585,170.6436420314008</t>
         </is>
       </c>
       <c r="N427" t="inlineStr">
@@ -68710,7 +68777,7 @@
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>-45.896311087484044,170.64364154275324</t>
+          <t>-45.8963097564333,170.64364186143644</t>
         </is>
       </c>
       <c r="N428" t="inlineStr">
@@ -68797,7 +68864,7 @@
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>-45.896311087484044,170.64364154275324</t>
+          <t>-45.8963097564333,170.64364186143644</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -68884,7 +68951,7 @@
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>-45.896291387933005,170.64364625926268</t>
+          <t>-45.896290500565826,170.64364647171797</t>
         </is>
       </c>
       <c r="N430" t="inlineStr">
@@ -68971,7 +69038,7 @@
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>-45.89627958594958,170.6436490849175</t>
+          <t>-45.89627816616207,170.6436494248458</t>
         </is>
       </c>
       <c r="N431" t="inlineStr">
@@ -69058,7 +69125,7 @@
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>-45.896273640589456,170.64365050836716</t>
+          <t>-45.896271865855084,170.64365093327746</t>
         </is>
       </c>
       <c r="N432" t="inlineStr">
@@ -69145,7 +69212,7 @@
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>-45.896257490506585,170.64365437504972</t>
+          <t>-45.89625598198235,170.64365473622323</t>
         </is>
       </c>
       <c r="N433" t="inlineStr">
@@ -69232,7 +69299,7 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>-45.896235395063194,170.6436596651774</t>
+          <t>-45.896233531592046,170.64366011133257</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
@@ -69294,7 +69361,7 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>-45.89679454179412,170.6480970747229</t>
+          <t>-45.89681266917188,170.64808740798432</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -69319,7 +69386,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>-45.89619306764642,170.64366979926476</t>
+          <t>-45.896189961861054,170.64367054285543</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
@@ -69340,6 +69407,93 @@
       <c r="Q435" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-28 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>-45.899062829935644,170.652302561274</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>-45.89818111429023,170.6521555809879</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>-45.89788606766211,170.65134650050953</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>-45.89755486500112,170.65056885973783</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>-45.897335462892656,170.64972324072912</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>-45.897115494155365,170.648883930593</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>-45.89682852008743,170.64807895520295</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>-45.89654067021929,170.64725466101996</t>
+        </is>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>-45.89631755975994,170.64637922002538</t>
+        </is>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>-45.896143582877,170.64550171565145</t>
+        </is>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>-45.89618664422752,170.6445812532428</t>
+        </is>
+      </c>
+      <c r="M436" t="inlineStr">
+        <is>
+          <t>-45.896153846013604,170.64367918974594</t>
+        </is>
+      </c>
+      <c r="N436" t="inlineStr">
+        <is>
+          <t>-45.89617357639279,170.64276653392753</t>
+        </is>
+      </c>
+      <c r="O436" t="inlineStr">
+        <is>
+          <t>-45.89609829715913,170.64187266257005</t>
+        </is>
+      </c>
+      <c r="P436" t="inlineStr">
+        <is>
+          <t>-45.89591210398151,170.6410122706826</t>
+        </is>
+      </c>
+      <c r="Q436" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
